--- a/Data/databases/N2O.xlsx
+++ b/Data/databases/N2O.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AE8E22-149E-44B8-9478-2D6FBAFB470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996A43A7-F2A2-4273-A8E4-4F9414A080B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
-    <sheet name="N2O_consq" sheetId="2" r:id="rId1"/>
-    <sheet name="N2O_cut_off" sheetId="1" r:id="rId2"/>
+    <sheet name="N2O_ev391consq" sheetId="2" r:id="rId1"/>
+    <sheet name="N2O_ev391cut_off" sheetId="1" r:id="rId2"/>
     <sheet name="non useable" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -102,12 +102,6 @@
     <t>megajoule</t>
   </si>
   <si>
-    <t>N2O_cut_off</t>
-  </si>
-  <si>
-    <t>N2O_consq</t>
-  </si>
-  <si>
     <t>50%v N2O 50%v O2 cylinder</t>
   </si>
   <si>
@@ -322,6 +316,12 @@
   </si>
   <si>
     <t>waste paint</t>
+  </si>
+  <si>
+    <t>N2O_ev391consq</t>
+  </si>
+  <si>
+    <t>N2O_ev391cut_off</t>
   </si>
 </sst>
 </file>
@@ -937,7 +937,7 @@
     <col min="5" max="5" width="11.25" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="44" customWidth="1"/>
     <col min="7" max="7" width="12" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="44" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.75" style="44" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="44"/>
   </cols>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="58"/>
@@ -985,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="57"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H10" s="68" t="str">
         <f>$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I10" s="68"/>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H11" s="66" t="str">
         <f>H26</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I11" s="59"/>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="H12" s="66" t="str">
         <f>H78</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I12" s="59"/>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H13" s="66" t="str">
         <f>H91</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I13" s="59"/>
     </row>
@@ -1214,19 +1214,19 @@
       </c>
       <c r="H14" s="66" t="str">
         <f>H105</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="67">
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="59" t="s">
         <v>5</v>
@@ -1240,57 +1240,57 @@
       </c>
       <c r="H15" s="68" t="str">
         <f t="shared" ref="H15" si="0">$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="67">
         <v>0.63487883000000001</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="67">
         <v>6.3944995757600003</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" s="59"/>
     </row>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="72"/>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="71"/>
@@ -1438,19 +1438,19 @@
       </c>
       <c r="H26" s="82" t="str">
         <f>$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="81">
         <v>4.3856680000000002E-2</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="73" t="s">
         <v>16</v>
@@ -1463,19 +1463,19 @@
         <v>15</v>
       </c>
       <c r="H27" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="81">
         <v>2.07903064</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="73" t="s">
         <v>5</v>
@@ -1488,19 +1488,19 @@
         <v>15</v>
       </c>
       <c r="H28" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="81">
         <v>0.74093453499999995</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="73" t="s">
         <v>18</v>
@@ -1513,19 +1513,19 @@
         <v>15</v>
       </c>
       <c r="H29" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="81">
         <v>1.101086612</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="73" t="s">
         <v>18</v>
@@ -1538,19 +1538,19 @@
         <v>15</v>
       </c>
       <c r="H30" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="80">
         <v>1.6E-7</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="73" t="s">
         <v>5</v>
@@ -1563,19 +1563,19 @@
         <v>15</v>
       </c>
       <c r="H31" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="81">
         <v>4.9336996339999999</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="73" t="s">
         <v>18</v>
@@ -1588,44 +1588,44 @@
         <v>15</v>
       </c>
       <c r="H32" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="81">
         <v>6.1731216999999998E-2</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="73" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="73"/>
       <c r="G33" s="73" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="81">
         <v>0.277470628</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="73" t="s">
         <v>18</v>
@@ -1638,19 +1638,19 @@
         <v>15</v>
       </c>
       <c r="H34" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="81">
         <v>0.99889426000000003</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="73" t="s">
         <v>18</v>
@@ -1663,13 +1663,13 @@
         <v>15</v>
       </c>
       <c r="H35" s="73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" s="80">
         <v>7.3999999999999999E-4</v>
@@ -1677,16 +1677,16 @@
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
       <c r="E36" s="73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" s="73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" s="73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H36" s="73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I36" s="73"/>
     </row>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="85"/>
       <c r="D38" s="86"/>
@@ -1725,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="85"/>
       <c r="D40" s="85"/>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="H45" s="96" t="str">
         <f>$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I45" s="96"/>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="H46" s="94" t="str">
         <f>H78</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I46" s="87"/>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H47" s="94" t="str">
         <f>H118</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I47" s="87"/>
     </row>
@@ -1927,57 +1927,57 @@
       </c>
       <c r="H48" s="94" t="str">
         <f>'non useable'!H23</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I48" s="87"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49" s="97">
         <v>13.106248750000001</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D49" s="87" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F49" s="87"/>
       <c r="G49" s="87" t="s">
         <v>15</v>
       </c>
       <c r="H49" s="87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I49" s="87"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" s="97">
         <v>132.00613741000001</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D50" s="87" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F50" s="87"/>
       <c r="G50" s="87" t="s">
         <v>15</v>
       </c>
       <c r="H50" s="87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I50" s="87"/>
     </row>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="100"/>
       <c r="D52" s="101"/>
@@ -2016,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="100"/>
       <c r="D54" s="100"/>
@@ -2125,19 +2125,19 @@
       </c>
       <c r="H59" s="111" t="str">
         <f>$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I59" s="111"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="102" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" s="112">
         <v>1.420733</v>
       </c>
       <c r="C60" s="102" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D60" s="102" t="s">
         <v>16</v>
@@ -2150,19 +2150,19 @@
         <v>15</v>
       </c>
       <c r="H60" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I60" s="102"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61" s="112">
         <v>0.24002499999999999</v>
       </c>
       <c r="C61" s="102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D61" s="102" t="s">
         <v>18</v>
@@ -2175,19 +2175,19 @@
         <v>15</v>
       </c>
       <c r="H61" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I61" s="102"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B62" s="112">
         <v>35.669589999999999</v>
       </c>
       <c r="C62" s="102" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D62" s="102" t="s">
         <v>18</v>
@@ -2200,19 +2200,19 @@
         <v>15</v>
       </c>
       <c r="H62" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I62" s="102"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63" s="109">
         <v>5.1799999999999995E-7</v>
       </c>
       <c r="C63" s="102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D63" s="102" t="s">
         <v>5</v>
@@ -2225,19 +2225,19 @@
         <v>15</v>
       </c>
       <c r="H63" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I63" s="102"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B64" s="112">
         <v>159.82669999999999</v>
       </c>
       <c r="C64" s="102" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="102" t="s">
         <v>18</v>
@@ -2250,19 +2250,19 @@
         <v>15</v>
       </c>
       <c r="H64" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I64" s="102"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B65" s="112">
         <v>8.9886330000000001</v>
       </c>
       <c r="C65" s="102" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D65" s="102" t="s">
         <v>18</v>
@@ -2275,19 +2275,19 @@
         <v>15</v>
       </c>
       <c r="H65" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I65" s="102"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B66" s="112">
         <v>32.359078799999999</v>
       </c>
       <c r="C66" s="102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="102" t="s">
         <v>18</v>
@@ -2300,19 +2300,19 @@
         <v>15</v>
       </c>
       <c r="H66" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I66" s="102"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="102" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B67" s="112">
         <v>67.349990000000005</v>
       </c>
       <c r="C67" s="102" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D67" s="102" t="s">
         <v>16</v>
@@ -2325,38 +2325,38 @@
         <v>15</v>
       </c>
       <c r="H67" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I67" s="102"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="102" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B68" s="112">
         <v>1256.53</v>
       </c>
       <c r="C68" s="102" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D68" s="102" t="s">
         <v>16</v>
       </c>
       <c r="E68" s="102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F68" s="102"/>
       <c r="G68" s="102" t="s">
         <v>15</v>
       </c>
       <c r="H68" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I68" s="102"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="102" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" s="102">
         <v>2.3972E-2</v>
@@ -2364,16 +2364,16 @@
       <c r="C69" s="102"/>
       <c r="D69" s="102"/>
       <c r="E69" s="102" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F69" s="102" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G69" s="102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H69" s="102" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I69" s="102"/>
     </row>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="114" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" s="115"/>
       <c r="D71" s="116"/>
@@ -2412,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C73" s="115"/>
       <c r="D73" s="115"/>
@@ -2524,22 +2524,22 @@
       </c>
       <c r="H78" s="126" t="str">
         <f>$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I78" s="126" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K78" s="50"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="117" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B79" s="117">
         <v>1.6618999999999998E-2</v>
       </c>
       <c r="C79" s="117" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D79" s="117" t="s">
         <v>16</v>
@@ -2552,19 +2552,19 @@
         <v>15</v>
       </c>
       <c r="H79" s="117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I79" s="117"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="117" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B80" s="117">
         <v>-1.6618999999999998E-2</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D80" s="117" t="s">
         <v>18</v>
@@ -2577,19 +2577,19 @@
         <v>15</v>
       </c>
       <c r="H80" s="117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I80" s="117"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="117" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81" s="117">
         <v>2.5300000000000002E-4</v>
       </c>
       <c r="C81" s="117" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D81" s="117" t="s">
         <v>5</v>
@@ -2602,19 +2602,19 @@
         <v>15</v>
       </c>
       <c r="H81" s="117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I81" s="117"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B82" s="117">
         <v>8.9839559999999992</v>
       </c>
       <c r="C82" s="117" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D82" s="117" t="s">
         <v>18</v>
@@ -2627,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="H82" s="117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I82" s="117"/>
     </row>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="128" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C84" s="129"/>
       <c r="D84" s="130"/>
@@ -2666,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="131" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C86" s="129"/>
       <c r="D86" s="129"/>
@@ -2775,21 +2775,21 @@
       </c>
       <c r="H91" s="140" t="str">
         <f>$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I91" s="140" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B92" s="139">
         <v>16.294630000000002</v>
       </c>
       <c r="C92" s="131" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D92" s="131" t="s">
         <v>18</v>
@@ -2802,19 +2802,19 @@
         <v>15</v>
       </c>
       <c r="H92" s="131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I92" s="131"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="131" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B93" s="139">
         <v>0.62522200000000006</v>
       </c>
       <c r="C93" s="131" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D93" s="131" t="s">
         <v>5</v>
@@ -2827,44 +2827,44 @@
         <v>15</v>
       </c>
       <c r="H93" s="131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I93" s="131"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="131" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B94" s="139">
         <v>0.1555</v>
       </c>
       <c r="C94" s="131" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D94" s="131" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="131" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F94" s="131"/>
       <c r="G94" s="131" t="s">
         <v>15</v>
       </c>
       <c r="H94" s="131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I94" s="131"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="131" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B95" s="139">
         <v>155.49549999999999</v>
       </c>
       <c r="C95" s="131" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D95" s="131" t="s">
         <v>16</v>
@@ -2877,19 +2877,19 @@
         <v>15</v>
       </c>
       <c r="H95" s="131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I95" s="131"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="131" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B96" s="139">
         <v>38.549930000000003</v>
       </c>
       <c r="C96" s="131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D96" s="131" t="s">
         <v>18</v>
@@ -2902,7 +2902,7 @@
         <v>15</v>
       </c>
       <c r="H96" s="131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I96" s="131"/>
     </row>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="142" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C98" s="143"/>
       <c r="D98" s="144"/>
@@ -3051,21 +3051,21 @@
       </c>
       <c r="H105" s="154" t="str">
         <f>$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I105" s="154" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="145" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B106" s="153">
         <v>1.4026989999999999</v>
       </c>
       <c r="C106" s="145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D106" s="145" t="s">
         <v>16</v>
@@ -3078,19 +3078,19 @@
         <v>15</v>
       </c>
       <c r="H106" s="145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I106" s="145"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B107" s="153">
         <v>7.029693</v>
       </c>
       <c r="C107" s="145" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D107" s="145" t="s">
         <v>16</v>
@@ -3103,19 +3103,19 @@
         <v>15</v>
       </c>
       <c r="H107" s="145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I107" s="145"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="145" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B108" s="153">
         <v>-1.4027000000000001</v>
       </c>
       <c r="C108" s="145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D108" s="145" t="s">
         <v>18</v>
@@ -3128,32 +3128,32 @@
         <v>15</v>
       </c>
       <c r="H108" s="145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I108" s="145"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="145" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B109" s="153">
         <v>2.2935590000000001</v>
       </c>
       <c r="C109" s="145" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D109" s="145" t="s">
         <v>16</v>
       </c>
       <c r="E109" s="145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F109" s="145"/>
       <c r="G109" s="145" t="s">
         <v>15</v>
       </c>
       <c r="H109" s="145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I109" s="145"/>
     </row>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="156" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C111" s="157"/>
       <c r="D111" s="158"/>
@@ -3302,46 +3302,46 @@
       </c>
       <c r="H118" s="168" t="str">
         <f>$B$1</f>
-        <v>N2O_consq</v>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I118" s="168" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="159" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B119" s="159">
         <v>-3.4338593999999998</v>
       </c>
       <c r="C119" s="159" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D119" s="159" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="159" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F119" s="159"/>
       <c r="G119" s="159" t="s">
         <v>15</v>
       </c>
       <c r="H119" s="159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I119" s="159"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="159" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B120" s="159">
         <v>3433.8593999999998</v>
       </c>
       <c r="C120" s="159" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D120" s="159" t="s">
         <v>16</v>
@@ -3354,19 +3354,19 @@
         <v>15</v>
       </c>
       <c r="H120" s="159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I120" s="159"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="159" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B121" s="159">
         <v>176.22825599999999</v>
       </c>
       <c r="C121" s="159" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D121" s="159" t="s">
         <v>18</v>
@@ -3379,32 +3379,32 @@
         <v>15</v>
       </c>
       <c r="H121" s="159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I121" s="159"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="159" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B122" s="159">
         <v>2.2935589200000002</v>
       </c>
       <c r="C122" s="159" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D122" s="159" t="s">
         <v>16</v>
       </c>
       <c r="E122" s="159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F122" s="159"/>
       <c r="G122" s="159" t="s">
         <v>15</v>
       </c>
       <c r="H122" s="159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I122" s="159"/>
     </row>
@@ -3418,7 +3418,7 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3439,4419 +3439,4419 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="55" t="str">
-        <f>IF(N2O_consq!A3="", "", N2O_consq!A3)</f>
+        <f>IF(N2O_ev391consq!A3="", "", N2O_ev391consq!A3)</f>
         <v>Activity</v>
       </c>
       <c r="B3" s="56" t="str">
-        <f>IF(N2O_consq!B3="", "", N2O_consq!B3)</f>
+        <f>IF(N2O_ev391consq!B3="", "", N2O_ev391consq!B3)</f>
         <v>4L aluminium cylinder</v>
       </c>
       <c r="C3" s="57" t="str">
-        <f>IF(N2O_consq!C3="", "", N2O_consq!C3)</f>
+        <f>IF(N2O_ev391consq!C3="", "", N2O_ev391consq!C3)</f>
         <v/>
       </c>
       <c r="D3" s="58" t="str">
-        <f>IF(N2O_consq!D3="", "", N2O_consq!D3)</f>
+        <f>IF(N2O_ev391consq!D3="", "", N2O_ev391consq!D3)</f>
         <v/>
       </c>
       <c r="E3" s="57" t="str">
-        <f>IF(N2O_consq!E3="", "", N2O_consq!E3)</f>
+        <f>IF(N2O_ev391consq!E3="", "", N2O_ev391consq!E3)</f>
         <v/>
       </c>
       <c r="F3" s="59" t="str">
-        <f>IF(N2O_consq!F3="", "", N2O_consq!F3)</f>
+        <f>IF(N2O_ev391consq!F3="", "", N2O_ev391consq!F3)</f>
         <v/>
       </c>
       <c r="G3" s="57" t="str">
-        <f>IF(N2O_consq!G3="", "", N2O_consq!G3)</f>
+        <f>IF(N2O_ev391consq!G3="", "", N2O_ev391consq!G3)</f>
         <v/>
       </c>
       <c r="H3" s="57" t="str">
-        <f>IF(N2O_consq!H3="", "", N2O_consq!H3)</f>
+        <f>IF(N2O_ev391consq!H3="", "", N2O_ev391consq!H3)</f>
         <v/>
       </c>
       <c r="I3" s="57" t="str">
-        <f>IF(N2O_consq!I3="", "", N2O_consq!I3)</f>
+        <f>IF(N2O_ev391consq!I3="", "", N2O_ev391consq!I3)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="60" t="str">
-        <f>IF(N2O_consq!A4="", "", N2O_consq!A4)</f>
+        <f>IF(N2O_ev391consq!A4="", "", N2O_ev391consq!A4)</f>
         <v>production amount</v>
       </c>
       <c r="B4" s="61">
-        <f>IF(N2O_consq!B4="", "", N2O_consq!B4)</f>
+        <f>IF(N2O_ev391consq!B4="", "", N2O_ev391consq!B4)</f>
         <v>1</v>
       </c>
       <c r="C4" s="57" t="str">
-        <f>IF(N2O_consq!C4="", "", N2O_consq!C4)</f>
+        <f>IF(N2O_ev391consq!C4="", "", N2O_ev391consq!C4)</f>
         <v/>
       </c>
       <c r="D4" s="57" t="str">
-        <f>IF(N2O_consq!D4="", "", N2O_consq!D4)</f>
+        <f>IF(N2O_ev391consq!D4="", "", N2O_ev391consq!D4)</f>
         <v/>
       </c>
       <c r="E4" s="57" t="str">
-        <f>IF(N2O_consq!E4="", "", N2O_consq!E4)</f>
+        <f>IF(N2O_ev391consq!E4="", "", N2O_ev391consq!E4)</f>
         <v/>
       </c>
       <c r="F4" s="59" t="str">
-        <f>IF(N2O_consq!F4="", "", N2O_consq!F4)</f>
+        <f>IF(N2O_ev391consq!F4="", "", N2O_ev391consq!F4)</f>
         <v/>
       </c>
       <c r="G4" s="57" t="str">
-        <f>IF(N2O_consq!G4="", "", N2O_consq!G4)</f>
+        <f>IF(N2O_ev391consq!G4="", "", N2O_ev391consq!G4)</f>
         <v/>
       </c>
       <c r="H4" s="57" t="str">
-        <f>IF(N2O_consq!H4="", "", N2O_consq!H4)</f>
+        <f>IF(N2O_ev391consq!H4="", "", N2O_ev391consq!H4)</f>
         <v/>
       </c>
       <c r="I4" s="57" t="str">
-        <f>IF(N2O_consq!I4="", "", N2O_consq!I4)</f>
+        <f>IF(N2O_ev391consq!I4="", "", N2O_ev391consq!I4)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="60" t="str">
-        <f>IF(N2O_consq!A5="", "", N2O_consq!A5)</f>
+        <f>IF(N2O_ev391consq!A5="", "", N2O_ev391consq!A5)</f>
         <v>reference product</v>
       </c>
       <c r="B5" s="62" t="str">
-        <f>IF(N2O_consq!B5="", "", N2O_consq!B5)</f>
+        <f>IF(N2O_ev391consq!B5="", "", N2O_ev391consq!B5)</f>
         <v>full 4L cylinder</v>
       </c>
       <c r="C5" s="57" t="str">
-        <f>IF(N2O_consq!C5="", "", N2O_consq!C5)</f>
+        <f>IF(N2O_ev391consq!C5="", "", N2O_ev391consq!C5)</f>
         <v/>
       </c>
       <c r="D5" s="57" t="str">
-        <f>IF(N2O_consq!D5="", "", N2O_consq!D5)</f>
+        <f>IF(N2O_ev391consq!D5="", "", N2O_ev391consq!D5)</f>
         <v/>
       </c>
       <c r="E5" s="57" t="str">
-        <f>IF(N2O_consq!E5="", "", N2O_consq!E5)</f>
+        <f>IF(N2O_ev391consq!E5="", "", N2O_ev391consq!E5)</f>
         <v/>
       </c>
       <c r="F5" s="59" t="str">
-        <f>IF(N2O_consq!F5="", "", N2O_consq!F5)</f>
+        <f>IF(N2O_ev391consq!F5="", "", N2O_ev391consq!F5)</f>
         <v/>
       </c>
       <c r="G5" s="57" t="str">
-        <f>IF(N2O_consq!G5="", "", N2O_consq!G5)</f>
+        <f>IF(N2O_ev391consq!G5="", "", N2O_ev391consq!G5)</f>
         <v/>
       </c>
       <c r="H5" s="57" t="str">
-        <f>IF(N2O_consq!H5="", "", N2O_consq!H5)</f>
+        <f>IF(N2O_ev391consq!H5="", "", N2O_ev391consq!H5)</f>
         <v/>
       </c>
       <c r="I5" s="57" t="str">
-        <f>IF(N2O_consq!I5="", "", N2O_consq!I5)</f>
+        <f>IF(N2O_ev391consq!I5="", "", N2O_ev391consq!I5)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="60" t="str">
-        <f>IF(N2O_consq!A6="", "", N2O_consq!A6)</f>
+        <f>IF(N2O_ev391consq!A6="", "", N2O_ev391consq!A6)</f>
         <v>location</v>
       </c>
       <c r="B6" s="61" t="str">
-        <f>IF(N2O_consq!B6="", "", N2O_consq!B6)</f>
+        <f>IF(N2O_ev391consq!B6="", "", N2O_ev391consq!B6)</f>
         <v>RER</v>
       </c>
       <c r="C6" s="57" t="str">
-        <f>IF(N2O_consq!C6="", "", N2O_consq!C6)</f>
+        <f>IF(N2O_ev391consq!C6="", "", N2O_ev391consq!C6)</f>
         <v/>
       </c>
       <c r="D6" s="57" t="str">
-        <f>IF(N2O_consq!D6="", "", N2O_consq!D6)</f>
+        <f>IF(N2O_ev391consq!D6="", "", N2O_ev391consq!D6)</f>
         <v/>
       </c>
       <c r="E6" s="57" t="str">
-        <f>IF(N2O_consq!E6="", "", N2O_consq!E6)</f>
+        <f>IF(N2O_ev391consq!E6="", "", N2O_ev391consq!E6)</f>
         <v/>
       </c>
       <c r="F6" s="59" t="str">
-        <f>IF(N2O_consq!F6="", "", N2O_consq!F6)</f>
+        <f>IF(N2O_ev391consq!F6="", "", N2O_ev391consq!F6)</f>
         <v/>
       </c>
       <c r="G6" s="57" t="str">
-        <f>IF(N2O_consq!G6="", "", N2O_consq!G6)</f>
+        <f>IF(N2O_ev391consq!G6="", "", N2O_ev391consq!G6)</f>
         <v/>
       </c>
       <c r="H6" s="57" t="str">
-        <f>IF(N2O_consq!H6="", "", N2O_consq!H6)</f>
+        <f>IF(N2O_ev391consq!H6="", "", N2O_ev391consq!H6)</f>
         <v/>
       </c>
       <c r="I6" s="57" t="str">
-        <f>IF(N2O_consq!I6="", "", N2O_consq!I6)</f>
+        <f>IF(N2O_ev391consq!I6="", "", N2O_ev391consq!I6)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="60" t="str">
-        <f>IF(N2O_consq!A7="", "", N2O_consq!A7)</f>
+        <f>IF(N2O_ev391consq!A7="", "", N2O_ev391consq!A7)</f>
         <v>unit</v>
       </c>
       <c r="B7" s="63" t="str">
-        <f>IF(N2O_consq!B7="", "", N2O_consq!B7)</f>
+        <f>IF(N2O_ev391consq!B7="", "", N2O_ev391consq!B7)</f>
         <v>unit</v>
       </c>
       <c r="C7" s="57" t="str">
-        <f>IF(N2O_consq!C7="", "", N2O_consq!C7)</f>
+        <f>IF(N2O_ev391consq!C7="", "", N2O_ev391consq!C7)</f>
         <v/>
       </c>
       <c r="D7" s="57" t="str">
-        <f>IF(N2O_consq!D7="", "", N2O_consq!D7)</f>
+        <f>IF(N2O_ev391consq!D7="", "", N2O_ev391consq!D7)</f>
         <v/>
       </c>
       <c r="E7" s="57" t="str">
-        <f>IF(N2O_consq!E7="", "", N2O_consq!E7)</f>
+        <f>IF(N2O_ev391consq!E7="", "", N2O_ev391consq!E7)</f>
         <v/>
       </c>
       <c r="F7" s="59" t="str">
-        <f>IF(N2O_consq!F7="", "", N2O_consq!F7)</f>
+        <f>IF(N2O_ev391consq!F7="", "", N2O_ev391consq!F7)</f>
         <v/>
       </c>
       <c r="G7" s="57" t="str">
-        <f>IF(N2O_consq!G7="", "", N2O_consq!G7)</f>
+        <f>IF(N2O_ev391consq!G7="", "", N2O_ev391consq!G7)</f>
         <v/>
       </c>
       <c r="H7" s="57" t="str">
-        <f>IF(N2O_consq!H7="", "", N2O_consq!H7)</f>
+        <f>IF(N2O_ev391consq!H7="", "", N2O_ev391consq!H7)</f>
         <v/>
       </c>
       <c r="I7" s="57" t="str">
-        <f>IF(N2O_consq!I7="", "", N2O_consq!I7)</f>
+        <f>IF(N2O_ev391consq!I7="", "", N2O_ev391consq!I7)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="64" t="str">
-        <f>IF(N2O_consq!A8="", "", N2O_consq!A8)</f>
+        <f>IF(N2O_ev391consq!A8="", "", N2O_ev391consq!A8)</f>
         <v>Exchanges</v>
       </c>
       <c r="B8" s="56" t="str">
-        <f>IF(N2O_consq!B8="", "", N2O_consq!B8)</f>
+        <f>IF(N2O_ev391consq!B8="", "", N2O_ev391consq!B8)</f>
         <v/>
       </c>
       <c r="C8" s="64" t="str">
-        <f>IF(N2O_consq!C8="", "", N2O_consq!C8)</f>
+        <f>IF(N2O_ev391consq!C8="", "", N2O_ev391consq!C8)</f>
         <v/>
       </c>
       <c r="D8" s="64" t="str">
-        <f>IF(N2O_consq!D8="", "", N2O_consq!D8)</f>
+        <f>IF(N2O_ev391consq!D8="", "", N2O_ev391consq!D8)</f>
         <v/>
       </c>
       <c r="E8" s="64" t="str">
-        <f>IF(N2O_consq!E8="", "", N2O_consq!E8)</f>
+        <f>IF(N2O_ev391consq!E8="", "", N2O_ev391consq!E8)</f>
         <v/>
       </c>
       <c r="F8" s="59" t="str">
-        <f>IF(N2O_consq!F8="", "", N2O_consq!F8)</f>
+        <f>IF(N2O_ev391consq!F8="", "", N2O_ev391consq!F8)</f>
         <v/>
       </c>
       <c r="G8" s="64" t="str">
-        <f>IF(N2O_consq!G8="", "", N2O_consq!G8)</f>
+        <f>IF(N2O_ev391consq!G8="", "", N2O_ev391consq!G8)</f>
         <v/>
       </c>
       <c r="H8" s="64" t="str">
-        <f>IF(N2O_consq!H8="", "", N2O_consq!H8)</f>
+        <f>IF(N2O_ev391consq!H8="", "", N2O_ev391consq!H8)</f>
         <v/>
       </c>
       <c r="I8" s="64" t="str">
-        <f>IF(N2O_consq!I8="", "", N2O_consq!I8)</f>
+        <f>IF(N2O_ev391consq!I8="", "", N2O_ev391consq!I8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="64" t="str">
-        <f>IF(N2O_consq!A9="", "", N2O_consq!A9)</f>
+        <f>IF(N2O_ev391consq!A9="", "", N2O_ev391consq!A9)</f>
         <v>name</v>
       </c>
       <c r="B9" s="56" t="str">
-        <f>IF(N2O_consq!B9="", "", N2O_consq!B9)</f>
+        <f>IF(N2O_ev391consq!B9="", "", N2O_ev391consq!B9)</f>
         <v>amount</v>
       </c>
       <c r="C9" s="64" t="str">
-        <f>IF(N2O_consq!C9="", "", N2O_consq!C9)</f>
+        <f>IF(N2O_ev391consq!C9="", "", N2O_ev391consq!C9)</f>
         <v>reference product</v>
       </c>
       <c r="D9" s="64" t="str">
-        <f>IF(N2O_consq!D9="", "", N2O_consq!D9)</f>
+        <f>IF(N2O_ev391consq!D9="", "", N2O_ev391consq!D9)</f>
         <v>location</v>
       </c>
       <c r="E9" s="64" t="str">
-        <f>IF(N2O_consq!E9="", "", N2O_consq!E9)</f>
+        <f>IF(N2O_ev391consq!E9="", "", N2O_ev391consq!E9)</f>
         <v>unit</v>
       </c>
       <c r="F9" s="65" t="str">
-        <f>IF(N2O_consq!F9="", "", N2O_consq!F9)</f>
+        <f>IF(N2O_ev391consq!F9="", "", N2O_ev391consq!F9)</f>
         <v>categories</v>
       </c>
       <c r="G9" s="64" t="str">
-        <f>IF(N2O_consq!G9="", "", N2O_consq!G9)</f>
+        <f>IF(N2O_ev391consq!G9="", "", N2O_ev391consq!G9)</f>
         <v>type</v>
       </c>
       <c r="H9" s="64" t="str">
-        <f>IF(N2O_consq!H9="", "", N2O_consq!H9)</f>
+        <f>IF(N2O_ev391consq!H9="", "", N2O_ev391consq!H9)</f>
         <v>database</v>
       </c>
       <c r="I9" s="64" t="str">
-        <f>IF(N2O_consq!I9="", "", N2O_consq!I9)</f>
+        <f>IF(N2O_ev391consq!I9="", "", N2O_ev391consq!I9)</f>
         <v>comment</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="66" t="str">
-        <f>IF(N2O_consq!A10="", "", N2O_consq!A10)</f>
+        <f>IF(N2O_ev391consq!A10="", "", N2O_ev391consq!A10)</f>
         <v>4L aluminium cylinder</v>
       </c>
       <c r="B10" s="67">
-        <f>IF(N2O_consq!B10="", "", N2O_consq!B10)</f>
+        <f>IF(N2O_ev391consq!B10="", "", N2O_ev391consq!B10)</f>
         <v>1</v>
       </c>
       <c r="C10" s="66" t="str">
-        <f>IF(N2O_consq!C10="", "", N2O_consq!C10)</f>
+        <f>IF(N2O_ev391consq!C10="", "", N2O_ev391consq!C10)</f>
         <v>full 4L cylinder</v>
       </c>
       <c r="D10" s="66" t="str">
-        <f>IF(N2O_consq!D10="", "", N2O_consq!D10)</f>
+        <f>IF(N2O_ev391consq!D10="", "", N2O_ev391consq!D10)</f>
         <v>RER</v>
       </c>
       <c r="E10" s="66" t="str">
-        <f>IF(N2O_consq!E10="", "", N2O_consq!E10)</f>
+        <f>IF(N2O_ev391consq!E10="", "", N2O_ev391consq!E10)</f>
         <v>unit</v>
       </c>
       <c r="F10" s="59" t="str">
-        <f>IF(N2O_consq!F10="", "", N2O_consq!F10)</f>
+        <f>IF(N2O_ev391consq!F10="", "", N2O_ev391consq!F10)</f>
         <v/>
       </c>
       <c r="G10" s="59" t="str">
-        <f>IF(N2O_consq!G10="", "", N2O_consq!G10)</f>
+        <f>IF(N2O_ev391consq!G10="", "", N2O_ev391consq!G10)</f>
         <v>production</v>
       </c>
       <c r="H10" s="68" t="str">
-        <f>IF(N2O_consq!H10=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H10=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I10" s="68" t="str">
-        <f>IF(N2O_consq!I10="", "", N2O_consq!I10)</f>
+        <f>IF(N2O_ev391consq!I10="", "", N2O_ev391consq!I10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="66" t="str">
-        <f>IF(N2O_consq!A11="", "", N2O_consq!A11)</f>
+        <f>IF(N2O_ev391consq!A11="", "", N2O_ev391consq!A11)</f>
         <v>production of 4L aluminium cylinder</v>
       </c>
       <c r="B11" s="67">
-        <f>IF(N2O_consq!B11="", "", N2O_consq!B11)</f>
+        <f>IF(N2O_ev391consq!B11="", "", N2O_ev391consq!B11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="66" t="str">
-        <f>IF(N2O_consq!C11="", "", N2O_consq!C11)</f>
+        <f>IF(N2O_ev391consq!C11="", "", N2O_ev391consq!C11)</f>
         <v>4L cylinder</v>
       </c>
       <c r="D11" s="66" t="str">
-        <f>IF(N2O_consq!D11="", "", N2O_consq!D11)</f>
+        <f>IF(N2O_ev391consq!D11="", "", N2O_ev391consq!D11)</f>
         <v>RER</v>
       </c>
       <c r="E11" s="66" t="str">
-        <f>IF(N2O_consq!E11="", "", N2O_consq!E11)</f>
+        <f>IF(N2O_ev391consq!E11="", "", N2O_ev391consq!E11)</f>
         <v>unit</v>
       </c>
       <c r="F11" s="59" t="str">
-        <f>IF(N2O_consq!F11="", "", N2O_consq!F11)</f>
+        <f>IF(N2O_ev391consq!F11="", "", N2O_ev391consq!F11)</f>
         <v/>
       </c>
       <c r="G11" s="59" t="str">
-        <f>IF(N2O_consq!G11="", "", N2O_consq!G11)</f>
+        <f>IF(N2O_ev391consq!G11="", "", N2O_ev391consq!G11)</f>
         <v>technosphere</v>
       </c>
       <c r="H11" s="66" t="str">
-        <f>IF(N2O_consq!H11=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H11=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I11" s="59" t="str">
-        <f>IF(N2O_consq!I11="", "", N2O_consq!I11)</f>
+        <f>IF(N2O_ev391consq!I11="", "", N2O_ev391consq!I11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="66" t="str">
-        <f>IF(N2O_consq!A12="", "", N2O_consq!A12)</f>
+        <f>IF(N2O_ev391consq!A12="", "", N2O_ev391consq!A12)</f>
         <v>Compresser opration</v>
       </c>
       <c r="B12" s="67">
-        <f>IF(N2O_consq!B12="", "", N2O_consq!B12)</f>
+        <f>IF(N2O_ev391consq!B12="", "", N2O_ev391consq!B12)</f>
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C12" s="66" t="str">
-        <f>IF(N2O_consq!C12="", "", N2O_consq!C12)</f>
+        <f>IF(N2O_ev391consq!C12="", "", N2O_ev391consq!C12)</f>
         <v>Compresser opration</v>
       </c>
       <c r="D12" s="66" t="str">
-        <f>IF(N2O_consq!D12="", "", N2O_consq!D12)</f>
+        <f>IF(N2O_ev391consq!D12="", "", N2O_ev391consq!D12)</f>
         <v>RER</v>
       </c>
       <c r="E12" s="66" t="str">
-        <f>IF(N2O_consq!E12="", "", N2O_consq!E12)</f>
+        <f>IF(N2O_ev391consq!E12="", "", N2O_ev391consq!E12)</f>
         <v>unit</v>
       </c>
       <c r="F12" s="59" t="str">
-        <f>IF(N2O_consq!F12="", "", N2O_consq!F12)</f>
+        <f>IF(N2O_ev391consq!F12="", "", N2O_ev391consq!F12)</f>
         <v/>
       </c>
       <c r="G12" s="59" t="str">
-        <f>IF(N2O_consq!G12="", "", N2O_consq!G12)</f>
+        <f>IF(N2O_ev391consq!G12="", "", N2O_ev391consq!G12)</f>
         <v>technosphere</v>
       </c>
       <c r="H12" s="66" t="str">
-        <f>IF(N2O_consq!H12=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H12=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I12" s="59" t="str">
-        <f>IF(N2O_consq!I12="", "", N2O_consq!I12)</f>
+        <f>IF(N2O_ev391consq!I12="", "", N2O_ev391consq!I12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="66" t="str">
-        <f>IF(N2O_consq!A13="", "", N2O_consq!A13)</f>
+        <f>IF(N2O_ev391consq!A13="", "", N2O_ev391consq!A13)</f>
         <v>gas cylinder cleaning</v>
       </c>
       <c r="B13" s="67">
-        <f>IF(N2O_consq!B13="", "", N2O_consq!B13)</f>
+        <f>IF(N2O_ev391consq!B13="", "", N2O_ev391consq!B13)</f>
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C13" s="66" t="str">
-        <f>IF(N2O_consq!C13="", "", N2O_consq!C13)</f>
+        <f>IF(N2O_ev391consq!C13="", "", N2O_ev391consq!C13)</f>
         <v>gas cylinder cleaning</v>
       </c>
       <c r="D13" s="66" t="str">
-        <f>IF(N2O_consq!D13="", "", N2O_consq!D13)</f>
+        <f>IF(N2O_ev391consq!D13="", "", N2O_ev391consq!D13)</f>
         <v>RER</v>
       </c>
       <c r="E13" s="66" t="str">
-        <f>IF(N2O_consq!E13="", "", N2O_consq!E13)</f>
+        <f>IF(N2O_ev391consq!E13="", "", N2O_ev391consq!E13)</f>
         <v>unit</v>
       </c>
       <c r="F13" s="59" t="str">
-        <f>IF(N2O_consq!F13="", "", N2O_consq!F13)</f>
+        <f>IF(N2O_ev391consq!F13="", "", N2O_ev391consq!F13)</f>
         <v/>
       </c>
       <c r="G13" s="59" t="str">
-        <f>IF(N2O_consq!G13="", "", N2O_consq!G13)</f>
+        <f>IF(N2O_ev391consq!G13="", "", N2O_ev391consq!G13)</f>
         <v>technosphere</v>
       </c>
       <c r="H13" s="66" t="str">
-        <f>IF(N2O_consq!H13=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H13=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I13" s="59" t="str">
-        <f>IF(N2O_consq!I13="", "", N2O_consq!I13)</f>
+        <f>IF(N2O_ev391consq!I13="", "", N2O_ev391consq!I13)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="66" t="str">
-        <f>IF(N2O_consq!A14="", "", N2O_consq!A14)</f>
+        <f>IF(N2O_ev391consq!A14="", "", N2O_ev391consq!A14)</f>
         <v>cylinder maintenance</v>
       </c>
       <c r="B14" s="67">
-        <f>IF(N2O_consq!B14="", "", N2O_consq!B14)</f>
+        <f>IF(N2O_ev391consq!B14="", "", N2O_ev391consq!B14)</f>
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C14" s="66" t="str">
-        <f>IF(N2O_consq!C14="", "", N2O_consq!C14)</f>
+        <f>IF(N2O_ev391consq!C14="", "", N2O_ev391consq!C14)</f>
         <v>cylinder maintenance</v>
       </c>
       <c r="D14" s="66" t="str">
-        <f>IF(N2O_consq!D14="", "", N2O_consq!D14)</f>
+        <f>IF(N2O_ev391consq!D14="", "", N2O_ev391consq!D14)</f>
         <v>RER</v>
       </c>
       <c r="E14" s="66" t="str">
-        <f>IF(N2O_consq!E14="", "", N2O_consq!E14)</f>
+        <f>IF(N2O_ev391consq!E14="", "", N2O_ev391consq!E14)</f>
         <v>unit</v>
       </c>
       <c r="F14" s="59" t="str">
-        <f>IF(N2O_consq!F14="", "", N2O_consq!F14)</f>
+        <f>IF(N2O_ev391consq!F14="", "", N2O_ev391consq!F14)</f>
         <v/>
       </c>
       <c r="G14" s="59" t="str">
-        <f>IF(N2O_consq!G14="", "", N2O_consq!G14)</f>
+        <f>IF(N2O_ev391consq!G14="", "", N2O_ev391consq!G14)</f>
         <v>technosphere</v>
       </c>
       <c r="H14" s="66" t="str">
-        <f>IF(N2O_consq!H14=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H14=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I14" s="59" t="str">
-        <f>IF(N2O_consq!I14="", "", N2O_consq!I14)</f>
+        <f>IF(N2O_ev391consq!I14="", "", N2O_ev391consq!I14)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="59" t="str">
-        <f>IF(N2O_consq!A15="", "", N2O_consq!A15)</f>
+        <f>IF(N2O_ev391consq!A15="", "", N2O_ev391consq!A15)</f>
         <v>Hydrastic testing 4L</v>
       </c>
       <c r="B15" s="67">
-        <f>IF(N2O_consq!B15="", "", N2O_consq!B15)</f>
+        <f>IF(N2O_ev391consq!B15="", "", N2O_ev391consq!B15)</f>
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C15" s="59" t="str">
-        <f>IF(N2O_consq!C15="", "", N2O_consq!C15)</f>
+        <f>IF(N2O_ev391consq!C15="", "", N2O_ev391consq!C15)</f>
         <v>Hydrastic testing 4L</v>
       </c>
       <c r="D15" s="59" t="str">
-        <f>IF(N2O_consq!D15="", "", N2O_consq!D15)</f>
+        <f>IF(N2O_ev391consq!D15="", "", N2O_ev391consq!D15)</f>
         <v>GLO</v>
       </c>
       <c r="E15" s="59" t="str">
-        <f>IF(N2O_consq!E15="", "", N2O_consq!E15)</f>
+        <f>IF(N2O_ev391consq!E15="", "", N2O_ev391consq!E15)</f>
         <v>unit</v>
       </c>
       <c r="F15" s="59" t="str">
-        <f>IF(N2O_consq!F15="", "", N2O_consq!F15)</f>
+        <f>IF(N2O_ev391consq!F15="", "", N2O_ev391consq!F15)</f>
         <v/>
       </c>
       <c r="G15" s="59" t="str">
-        <f>IF(N2O_consq!G15="", "", N2O_consq!G15)</f>
+        <f>IF(N2O_ev391consq!G15="", "", N2O_ev391consq!G15)</f>
         <v>technosphere</v>
       </c>
       <c r="H15" s="68" t="str">
-        <f>IF(N2O_consq!H15=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H15=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I15" s="59" t="str">
-        <f>IF(N2O_consq!I15="", "", N2O_consq!I15)</f>
+        <f>IF(N2O_ev391consq!I15="", "", N2O_ev391consq!I15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="59" t="str">
-        <f>IF(N2O_consq!A16="", "", N2O_consq!A16)</f>
+        <f>IF(N2O_ev391consq!A16="", "", N2O_ev391consq!A16)</f>
         <v>transport, freight, inland waterways, barge tanker</v>
       </c>
       <c r="B16" s="67">
-        <f>IF(N2O_consq!B16="", "", N2O_consq!B16)</f>
+        <f>IF(N2O_ev391consq!B16="", "", N2O_ev391consq!B16)</f>
         <v>0.63487883000000001</v>
       </c>
       <c r="C16" s="59" t="str">
-        <f>IF(N2O_consq!C16="", "", N2O_consq!C16)</f>
+        <f>IF(N2O_ev391consq!C16="", "", N2O_ev391consq!C16)</f>
         <v>transport, freight, inland waterways, barge tanker</v>
       </c>
       <c r="D16" s="59" t="str">
-        <f>IF(N2O_consq!D16="", "", N2O_consq!D16)</f>
+        <f>IF(N2O_ev391consq!D16="", "", N2O_ev391consq!D16)</f>
         <v>RER</v>
       </c>
       <c r="E16" s="59" t="str">
-        <f>IF(N2O_consq!E16="", "", N2O_consq!E16)</f>
+        <f>IF(N2O_ev391consq!E16="", "", N2O_ev391consq!E16)</f>
         <v>ton kilometer</v>
       </c>
       <c r="F16" s="59" t="str">
-        <f>IF(N2O_consq!F16="", "", N2O_consq!F16)</f>
+        <f>IF(N2O_ev391consq!F16="", "", N2O_ev391consq!F16)</f>
         <v/>
       </c>
       <c r="G16" s="59" t="str">
-        <f>IF(N2O_consq!G16="", "", N2O_consq!G16)</f>
+        <f>IF(N2O_ev391consq!G16="", "", N2O_ev391consq!G16)</f>
         <v>technosphere</v>
       </c>
       <c r="H16" s="59" t="str">
-        <f>IF(N2O_consq!H16=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H16=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I16" s="59" t="str">
-        <f>IF(N2O_consq!I16="", "", N2O_consq!I16)</f>
+        <f>IF(N2O_ev391consq!I16="", "", N2O_ev391consq!I16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="59" t="str">
-        <f>IF(N2O_consq!A17="", "", N2O_consq!A17)</f>
+        <f>IF(N2O_ev391consq!A17="", "", N2O_ev391consq!A17)</f>
         <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
       <c r="B17" s="67">
-        <f>IF(N2O_consq!B17="", "", N2O_consq!B17)</f>
+        <f>IF(N2O_ev391consq!B17="", "", N2O_ev391consq!B17)</f>
         <v>6.3944995757600003</v>
       </c>
       <c r="C17" s="59" t="str">
-        <f>IF(N2O_consq!C17="", "", N2O_consq!C17)</f>
+        <f>IF(N2O_ev391consq!C17="", "", N2O_ev391consq!C17)</f>
         <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
       <c r="D17" s="59" t="str">
-        <f>IF(N2O_consq!D17="", "", N2O_consq!D17)</f>
+        <f>IF(N2O_ev391consq!D17="", "", N2O_ev391consq!D17)</f>
         <v>RER</v>
       </c>
       <c r="E17" s="59" t="str">
-        <f>IF(N2O_consq!E17="", "", N2O_consq!E17)</f>
+        <f>IF(N2O_ev391consq!E17="", "", N2O_ev391consq!E17)</f>
         <v>ton kilometer</v>
       </c>
       <c r="F17" s="59" t="str">
-        <f>IF(N2O_consq!F17="", "", N2O_consq!F17)</f>
+        <f>IF(N2O_ev391consq!F17="", "", N2O_ev391consq!F17)</f>
         <v/>
       </c>
       <c r="G17" s="59" t="str">
-        <f>IF(N2O_consq!G17="", "", N2O_consq!G17)</f>
+        <f>IF(N2O_ev391consq!G17="", "", N2O_ev391consq!G17)</f>
         <v>technosphere</v>
       </c>
       <c r="H17" s="59" t="str">
-        <f>IF(N2O_consq!H17=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H17=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I17" s="59" t="str">
-        <f>IF(N2O_consq!I17="", "", N2O_consq!I17)</f>
+        <f>IF(N2O_ev391consq!I17="", "", N2O_ev391consq!I17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="44" t="str">
-        <f>IF(N2O_consq!A18="", "", N2O_consq!A18)</f>
+        <f>IF(N2O_ev391consq!A18="", "", N2O_ev391consq!A18)</f>
         <v/>
       </c>
       <c r="B18" s="54" t="str">
-        <f>IF(N2O_consq!B18="", "", N2O_consq!B18)</f>
+        <f>IF(N2O_ev391consq!B18="", "", N2O_ev391consq!B18)</f>
         <v/>
       </c>
       <c r="C18" s="44" t="str">
-        <f>IF(N2O_consq!C18="", "", N2O_consq!C18)</f>
+        <f>IF(N2O_ev391consq!C18="", "", N2O_ev391consq!C18)</f>
         <v/>
       </c>
       <c r="D18" s="44" t="str">
-        <f>IF(N2O_consq!D18="", "", N2O_consq!D18)</f>
+        <f>IF(N2O_ev391consq!D18="", "", N2O_ev391consq!D18)</f>
         <v/>
       </c>
       <c r="E18" s="44" t="str">
-        <f>IF(N2O_consq!E18="", "", N2O_consq!E18)</f>
+        <f>IF(N2O_ev391consq!E18="", "", N2O_ev391consq!E18)</f>
         <v/>
       </c>
       <c r="F18" s="44" t="str">
-        <f>IF(N2O_consq!F18="", "", N2O_consq!F18)</f>
+        <f>IF(N2O_ev391consq!F18="", "", N2O_ev391consq!F18)</f>
         <v/>
       </c>
       <c r="G18" s="44" t="str">
-        <f>IF(N2O_consq!G18="", "", N2O_consq!G18)</f>
+        <f>IF(N2O_ev391consq!G18="", "", N2O_ev391consq!G18)</f>
         <v/>
       </c>
       <c r="H18" s="44"/>
       <c r="I18" s="44" t="str">
-        <f>IF(N2O_consq!I18="", "", N2O_consq!I18)</f>
+        <f>IF(N2O_ev391consq!I18="", "", N2O_ev391consq!I18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="69" t="str">
-        <f>IF(N2O_consq!A19="", "", N2O_consq!A19)</f>
+        <f>IF(N2O_ev391consq!A19="", "", N2O_ev391consq!A19)</f>
         <v>Activity</v>
       </c>
       <c r="B19" s="70" t="str">
-        <f>IF(N2O_consq!B19="", "", N2O_consq!B19)</f>
+        <f>IF(N2O_ev391consq!B19="", "", N2O_ev391consq!B19)</f>
         <v>production of 4L aluminium cylinder</v>
       </c>
       <c r="C19" s="71" t="str">
-        <f>IF(N2O_consq!C19="", "", N2O_consq!C19)</f>
+        <f>IF(N2O_ev391consq!C19="", "", N2O_ev391consq!C19)</f>
         <v/>
       </c>
       <c r="D19" s="72" t="str">
-        <f>IF(N2O_consq!D19="", "", N2O_consq!D19)</f>
+        <f>IF(N2O_ev391consq!D19="", "", N2O_ev391consq!D19)</f>
         <v/>
       </c>
       <c r="E19" s="71" t="str">
-        <f>IF(N2O_consq!E19="", "", N2O_consq!E19)</f>
+        <f>IF(N2O_ev391consq!E19="", "", N2O_ev391consq!E19)</f>
         <v/>
       </c>
       <c r="F19" s="73" t="str">
-        <f>IF(N2O_consq!F19="", "", N2O_consq!F19)</f>
+        <f>IF(N2O_ev391consq!F19="", "", N2O_ev391consq!F19)</f>
         <v/>
       </c>
       <c r="G19" s="71" t="str">
-        <f>IF(N2O_consq!G19="", "", N2O_consq!G19)</f>
+        <f>IF(N2O_ev391consq!G19="", "", N2O_ev391consq!G19)</f>
         <v/>
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="71" t="str">
-        <f>IF(N2O_consq!I19="", "", N2O_consq!I19)</f>
+        <f>IF(N2O_ev391consq!I19="", "", N2O_ev391consq!I19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="74" t="str">
-        <f>IF(N2O_consq!A20="", "", N2O_consq!A20)</f>
+        <f>IF(N2O_ev391consq!A20="", "", N2O_ev391consq!A20)</f>
         <v>production amount</v>
       </c>
       <c r="B20" s="75">
-        <f>IF(N2O_consq!B20="", "", N2O_consq!B20)</f>
+        <f>IF(N2O_ev391consq!B20="", "", N2O_ev391consq!B20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="71" t="str">
-        <f>IF(N2O_consq!C20="", "", N2O_consq!C20)</f>
+        <f>IF(N2O_ev391consq!C20="", "", N2O_ev391consq!C20)</f>
         <v/>
       </c>
       <c r="D20" s="71" t="str">
-        <f>IF(N2O_consq!D20="", "", N2O_consq!D20)</f>
+        <f>IF(N2O_ev391consq!D20="", "", N2O_ev391consq!D20)</f>
         <v/>
       </c>
       <c r="E20" s="71" t="str">
-        <f>IF(N2O_consq!E20="", "", N2O_consq!E20)</f>
+        <f>IF(N2O_ev391consq!E20="", "", N2O_ev391consq!E20)</f>
         <v/>
       </c>
       <c r="F20" s="73" t="str">
-        <f>IF(N2O_consq!F20="", "", N2O_consq!F20)</f>
+        <f>IF(N2O_ev391consq!F20="", "", N2O_ev391consq!F20)</f>
         <v/>
       </c>
       <c r="G20" s="71" t="str">
-        <f>IF(N2O_consq!G20="", "", N2O_consq!G20)</f>
+        <f>IF(N2O_ev391consq!G20="", "", N2O_ev391consq!G20)</f>
         <v/>
       </c>
       <c r="H20" s="71"/>
       <c r="I20" s="71" t="str">
-        <f>IF(N2O_consq!I20="", "", N2O_consq!I20)</f>
+        <f>IF(N2O_ev391consq!I20="", "", N2O_ev391consq!I20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="74" t="str">
-        <f>IF(N2O_consq!A21="", "", N2O_consq!A21)</f>
+        <f>IF(N2O_ev391consq!A21="", "", N2O_ev391consq!A21)</f>
         <v>reference product</v>
       </c>
       <c r="B21" s="76" t="str">
-        <f>IF(N2O_consq!B21="", "", N2O_consq!B21)</f>
+        <f>IF(N2O_ev391consq!B21="", "", N2O_ev391consq!B21)</f>
         <v>4L cylinder</v>
       </c>
       <c r="C21" s="71" t="str">
-        <f>IF(N2O_consq!C21="", "", N2O_consq!C21)</f>
+        <f>IF(N2O_ev391consq!C21="", "", N2O_ev391consq!C21)</f>
         <v/>
       </c>
       <c r="D21" s="71" t="str">
-        <f>IF(N2O_consq!D21="", "", N2O_consq!D21)</f>
+        <f>IF(N2O_ev391consq!D21="", "", N2O_ev391consq!D21)</f>
         <v/>
       </c>
       <c r="E21" s="71" t="str">
-        <f>IF(N2O_consq!E21="", "", N2O_consq!E21)</f>
+        <f>IF(N2O_ev391consq!E21="", "", N2O_ev391consq!E21)</f>
         <v/>
       </c>
       <c r="F21" s="73" t="str">
-        <f>IF(N2O_consq!F21="", "", N2O_consq!F21)</f>
+        <f>IF(N2O_ev391consq!F21="", "", N2O_ev391consq!F21)</f>
         <v/>
       </c>
       <c r="G21" s="71" t="str">
-        <f>IF(N2O_consq!G21="", "", N2O_consq!G21)</f>
+        <f>IF(N2O_ev391consq!G21="", "", N2O_ev391consq!G21)</f>
         <v/>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="71" t="str">
-        <f>IF(N2O_consq!I21="", "", N2O_consq!I21)</f>
+        <f>IF(N2O_ev391consq!I21="", "", N2O_ev391consq!I21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="74" t="str">
-        <f>IF(N2O_consq!A22="", "", N2O_consq!A22)</f>
+        <f>IF(N2O_ev391consq!A22="", "", N2O_ev391consq!A22)</f>
         <v>location</v>
       </c>
       <c r="B22" s="75" t="str">
-        <f>IF(N2O_consq!B22="", "", N2O_consq!B22)</f>
+        <f>IF(N2O_ev391consq!B22="", "", N2O_ev391consq!B22)</f>
         <v>RER</v>
       </c>
       <c r="C22" s="71" t="str">
-        <f>IF(N2O_consq!C22="", "", N2O_consq!C22)</f>
+        <f>IF(N2O_ev391consq!C22="", "", N2O_ev391consq!C22)</f>
         <v/>
       </c>
       <c r="D22" s="71" t="str">
-        <f>IF(N2O_consq!D22="", "", N2O_consq!D22)</f>
+        <f>IF(N2O_ev391consq!D22="", "", N2O_ev391consq!D22)</f>
         <v/>
       </c>
       <c r="E22" s="71" t="str">
-        <f>IF(N2O_consq!E22="", "", N2O_consq!E22)</f>
+        <f>IF(N2O_ev391consq!E22="", "", N2O_ev391consq!E22)</f>
         <v/>
       </c>
       <c r="F22" s="73" t="str">
-        <f>IF(N2O_consq!F22="", "", N2O_consq!F22)</f>
+        <f>IF(N2O_ev391consq!F22="", "", N2O_ev391consq!F22)</f>
         <v/>
       </c>
       <c r="G22" s="71" t="str">
-        <f>IF(N2O_consq!G22="", "", N2O_consq!G22)</f>
+        <f>IF(N2O_ev391consq!G22="", "", N2O_ev391consq!G22)</f>
         <v/>
       </c>
       <c r="H22" s="71"/>
       <c r="I22" s="71" t="str">
-        <f>IF(N2O_consq!I22="", "", N2O_consq!I22)</f>
+        <f>IF(N2O_ev391consq!I22="", "", N2O_ev391consq!I22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="74" t="str">
-        <f>IF(N2O_consq!A23="", "", N2O_consq!A23)</f>
+        <f>IF(N2O_ev391consq!A23="", "", N2O_ev391consq!A23)</f>
         <v>unit</v>
       </c>
       <c r="B23" s="77" t="str">
-        <f>IF(N2O_consq!B23="", "", N2O_consq!B23)</f>
+        <f>IF(N2O_ev391consq!B23="", "", N2O_ev391consq!B23)</f>
         <v>unit</v>
       </c>
       <c r="C23" s="71" t="str">
-        <f>IF(N2O_consq!C23="", "", N2O_consq!C23)</f>
+        <f>IF(N2O_ev391consq!C23="", "", N2O_ev391consq!C23)</f>
         <v/>
       </c>
       <c r="D23" s="71" t="str">
-        <f>IF(N2O_consq!D23="", "", N2O_consq!D23)</f>
+        <f>IF(N2O_ev391consq!D23="", "", N2O_ev391consq!D23)</f>
         <v/>
       </c>
       <c r="E23" s="71" t="str">
-        <f>IF(N2O_consq!E23="", "", N2O_consq!E23)</f>
+        <f>IF(N2O_ev391consq!E23="", "", N2O_ev391consq!E23)</f>
         <v/>
       </c>
       <c r="F23" s="73" t="str">
-        <f>IF(N2O_consq!F23="", "", N2O_consq!F23)</f>
+        <f>IF(N2O_ev391consq!F23="", "", N2O_ev391consq!F23)</f>
         <v/>
       </c>
       <c r="G23" s="71" t="str">
-        <f>IF(N2O_consq!G23="", "", N2O_consq!G23)</f>
+        <f>IF(N2O_ev391consq!G23="", "", N2O_ev391consq!G23)</f>
         <v/>
       </c>
       <c r="H23" s="71"/>
       <c r="I23" s="71" t="str">
-        <f>IF(N2O_consq!I23="", "", N2O_consq!I23)</f>
+        <f>IF(N2O_ev391consq!I23="", "", N2O_ev391consq!I23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="78" t="str">
-        <f>IF(N2O_consq!A24="", "", N2O_consq!A24)</f>
+        <f>IF(N2O_ev391consq!A24="", "", N2O_ev391consq!A24)</f>
         <v>Exchanges</v>
       </c>
       <c r="B24" s="70" t="str">
-        <f>IF(N2O_consq!B24="", "", N2O_consq!B24)</f>
+        <f>IF(N2O_ev391consq!B24="", "", N2O_ev391consq!B24)</f>
         <v/>
       </c>
       <c r="C24" s="78" t="str">
-        <f>IF(N2O_consq!C24="", "", N2O_consq!C24)</f>
+        <f>IF(N2O_ev391consq!C24="", "", N2O_ev391consq!C24)</f>
         <v/>
       </c>
       <c r="D24" s="78" t="str">
-        <f>IF(N2O_consq!D24="", "", N2O_consq!D24)</f>
+        <f>IF(N2O_ev391consq!D24="", "", N2O_ev391consq!D24)</f>
         <v/>
       </c>
       <c r="E24" s="78" t="str">
-        <f>IF(N2O_consq!E24="", "", N2O_consq!E24)</f>
+        <f>IF(N2O_ev391consq!E24="", "", N2O_ev391consq!E24)</f>
         <v/>
       </c>
       <c r="F24" s="73" t="str">
-        <f>IF(N2O_consq!F24="", "", N2O_consq!F24)</f>
+        <f>IF(N2O_ev391consq!F24="", "", N2O_ev391consq!F24)</f>
         <v/>
       </c>
       <c r="G24" s="78" t="str">
-        <f>IF(N2O_consq!G24="", "", N2O_consq!G24)</f>
+        <f>IF(N2O_ev391consq!G24="", "", N2O_ev391consq!G24)</f>
         <v/>
       </c>
       <c r="H24" s="78"/>
       <c r="I24" s="78" t="str">
-        <f>IF(N2O_consq!I24="", "", N2O_consq!I24)</f>
+        <f>IF(N2O_ev391consq!I24="", "", N2O_ev391consq!I24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="78" t="str">
-        <f>IF(N2O_consq!A25="", "", N2O_consq!A25)</f>
+        <f>IF(N2O_ev391consq!A25="", "", N2O_ev391consq!A25)</f>
         <v>name</v>
       </c>
       <c r="B25" s="70" t="str">
-        <f>IF(N2O_consq!B25="", "", N2O_consq!B25)</f>
+        <f>IF(N2O_ev391consq!B25="", "", N2O_ev391consq!B25)</f>
         <v>amount</v>
       </c>
       <c r="C25" s="78" t="str">
-        <f>IF(N2O_consq!C25="", "", N2O_consq!C25)</f>
+        <f>IF(N2O_ev391consq!C25="", "", N2O_ev391consq!C25)</f>
         <v>reference product</v>
       </c>
       <c r="D25" s="78" t="str">
-        <f>IF(N2O_consq!D25="", "", N2O_consq!D25)</f>
+        <f>IF(N2O_ev391consq!D25="", "", N2O_ev391consq!D25)</f>
         <v>location</v>
       </c>
       <c r="E25" s="78" t="str">
-        <f>IF(N2O_consq!E25="", "", N2O_consq!E25)</f>
+        <f>IF(N2O_ev391consq!E25="", "", N2O_ev391consq!E25)</f>
         <v>unit</v>
       </c>
       <c r="F25" s="79" t="str">
-        <f>IF(N2O_consq!F25="", "", N2O_consq!F25)</f>
+        <f>IF(N2O_ev391consq!F25="", "", N2O_ev391consq!F25)</f>
         <v>categories</v>
       </c>
       <c r="G25" s="78" t="str">
-        <f>IF(N2O_consq!G25="", "", N2O_consq!G25)</f>
+        <f>IF(N2O_ev391consq!G25="", "", N2O_ev391consq!G25)</f>
         <v>type</v>
       </c>
       <c r="H25" s="78" t="str">
-        <f>IF(N2O_consq!H25="", "", N2O_consq!H25)</f>
+        <f>IF(N2O_ev391consq!H25="", "", N2O_ev391consq!H25)</f>
         <v>database</v>
       </c>
       <c r="I25" s="78" t="str">
-        <f>IF(N2O_consq!I25="", "", N2O_consq!I25)</f>
+        <f>IF(N2O_ev391consq!I25="", "", N2O_ev391consq!I25)</f>
         <v>comment</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="80" t="str">
-        <f>IF(N2O_consq!A26="", "", N2O_consq!A26)</f>
+        <f>IF(N2O_ev391consq!A26="", "", N2O_ev391consq!A26)</f>
         <v>production of 4L aluminium cylinder</v>
       </c>
       <c r="B26" s="81">
-        <f>IF(N2O_consq!B26="", "", N2O_consq!B26)</f>
+        <f>IF(N2O_ev391consq!B26="", "", N2O_ev391consq!B26)</f>
         <v>1</v>
       </c>
       <c r="C26" s="80" t="str">
-        <f>IF(N2O_consq!C26="", "", N2O_consq!C26)</f>
+        <f>IF(N2O_ev391consq!C26="", "", N2O_ev391consq!C26)</f>
         <v>4L cylinder</v>
       </c>
       <c r="D26" s="80" t="str">
-        <f>IF(N2O_consq!D26="", "", N2O_consq!D26)</f>
+        <f>IF(N2O_ev391consq!D26="", "", N2O_ev391consq!D26)</f>
         <v>RER</v>
       </c>
       <c r="E26" s="80" t="str">
-        <f>IF(N2O_consq!E26="", "", N2O_consq!E26)</f>
+        <f>IF(N2O_ev391consq!E26="", "", N2O_ev391consq!E26)</f>
         <v>unit</v>
       </c>
       <c r="F26" s="73" t="str">
-        <f>IF(N2O_consq!F26="", "", N2O_consq!F26)</f>
+        <f>IF(N2O_ev391consq!F26="", "", N2O_ev391consq!F26)</f>
         <v/>
       </c>
       <c r="G26" s="73" t="str">
-        <f>IF(N2O_consq!G26="", "", N2O_consq!G26)</f>
+        <f>IF(N2O_ev391consq!G26="", "", N2O_ev391consq!G26)</f>
         <v>production</v>
       </c>
       <c r="H26" s="82" t="str">
-        <f>IF(N2O_consq!H26=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H26=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I26" s="82" t="str">
-        <f>IF(N2O_consq!I26="", "", N2O_consq!I26)</f>
+        <f>IF(N2O_ev391consq!I26="", "", N2O_ev391consq!I26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="73" t="str">
-        <f>IF(N2O_consq!A27="", "", N2O_consq!A27)</f>
+        <f>IF(N2O_ev391consq!A27="", "", N2O_ev391consq!A27)</f>
         <v>market for alkyd paint, white, without solvent, in 60% solution state</v>
       </c>
       <c r="B27" s="81">
-        <f>IF(N2O_consq!B27="", "", N2O_consq!B27)</f>
+        <f>IF(N2O_ev391consq!B27="", "", N2O_ev391consq!B27)</f>
         <v>4.3856680000000002E-2</v>
       </c>
       <c r="C27" s="73" t="str">
-        <f>IF(N2O_consq!C27="", "", N2O_consq!C27)</f>
+        <f>IF(N2O_ev391consq!C27="", "", N2O_ev391consq!C27)</f>
         <v>alkyd paint, white, without solvent, in 60% solution state</v>
       </c>
       <c r="D27" s="73" t="str">
-        <f>IF(N2O_consq!D27="", "", N2O_consq!D27)</f>
+        <f>IF(N2O_ev391consq!D27="", "", N2O_ev391consq!D27)</f>
         <v>RER</v>
       </c>
       <c r="E27" s="73" t="str">
-        <f>IF(N2O_consq!E27="", "", N2O_consq!E27)</f>
+        <f>IF(N2O_ev391consq!E27="", "", N2O_ev391consq!E27)</f>
         <v>kilogram</v>
       </c>
       <c r="F27" s="73" t="str">
-        <f>IF(N2O_consq!F27="", "", N2O_consq!F27)</f>
+        <f>IF(N2O_ev391consq!F27="", "", N2O_ev391consq!F27)</f>
         <v/>
       </c>
       <c r="G27" s="73" t="str">
-        <f>IF(N2O_consq!G27="", "", N2O_consq!G27)</f>
+        <f>IF(N2O_ev391consq!G27="", "", N2O_ev391consq!G27)</f>
         <v>technosphere</v>
       </c>
       <c r="H27" s="73" t="str">
-        <f>IF(N2O_consq!H27=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H27=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I27" s="73" t="str">
-        <f>IF(N2O_consq!I27="", "", N2O_consq!I27)</f>
+        <f>IF(N2O_ev391consq!I27="", "", N2O_ev391consq!I27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="73" t="str">
-        <f>IF(N2O_consq!A28="", "", N2O_consq!A28)</f>
+        <f>IF(N2O_ev391consq!A28="", "", N2O_ev391consq!A28)</f>
         <v>market for aluminium alloy, AlMg3</v>
       </c>
       <c r="B28" s="81">
-        <f>IF(N2O_consq!B28="", "", N2O_consq!B28)</f>
+        <f>IF(N2O_ev391consq!B28="", "", N2O_ev391consq!B28)</f>
         <v>2.07903064</v>
       </c>
       <c r="C28" s="73" t="str">
-        <f>IF(N2O_consq!C28="", "", N2O_consq!C28)</f>
+        <f>IF(N2O_ev391consq!C28="", "", N2O_ev391consq!C28)</f>
         <v>aluminium alloy, AlMg3</v>
       </c>
       <c r="D28" s="73" t="str">
-        <f>IF(N2O_consq!D28="", "", N2O_consq!D28)</f>
+        <f>IF(N2O_ev391consq!D28="", "", N2O_ev391consq!D28)</f>
         <v>GLO</v>
       </c>
       <c r="E28" s="73" t="str">
-        <f>IF(N2O_consq!E28="", "", N2O_consq!E28)</f>
+        <f>IF(N2O_ev391consq!E28="", "", N2O_ev391consq!E28)</f>
         <v>kilogram</v>
       </c>
       <c r="F28" s="73" t="str">
-        <f>IF(N2O_consq!F28="", "", N2O_consq!F28)</f>
+        <f>IF(N2O_ev391consq!F28="", "", N2O_ev391consq!F28)</f>
         <v/>
       </c>
       <c r="G28" s="73" t="str">
-        <f>IF(N2O_consq!G28="", "", N2O_consq!G28)</f>
+        <f>IF(N2O_ev391consq!G28="", "", N2O_ev391consq!G28)</f>
         <v>technosphere</v>
       </c>
       <c r="H28" s="73" t="str">
-        <f>IF(N2O_consq!H28=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H28=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I28" s="73" t="str">
-        <f>IF(N2O_consq!I28="", "", N2O_consq!I28)</f>
+        <f>IF(N2O_ev391consq!I28="", "", N2O_ev391consq!I28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="73" t="str">
-        <f>IF(N2O_consq!A29="", "", N2O_consq!A29)</f>
+        <f>IF(N2O_ev391consq!A29="", "", N2O_ev391consq!A29)</f>
         <v>market for heat, district or industrial, natural gas</v>
       </c>
       <c r="B29" s="81">
-        <f>IF(N2O_consq!B29="", "", N2O_consq!B29)</f>
+        <f>IF(N2O_ev391consq!B29="", "", N2O_ev391consq!B29)</f>
         <v>0.74093453499999995</v>
       </c>
       <c r="C29" s="73" t="str">
-        <f>IF(N2O_consq!C29="", "", N2O_consq!C29)</f>
+        <f>IF(N2O_ev391consq!C29="", "", N2O_ev391consq!C29)</f>
         <v>heat, district or industrial, natural gas</v>
       </c>
       <c r="D29" s="73" t="str">
-        <f>IF(N2O_consq!D29="", "", N2O_consq!D29)</f>
+        <f>IF(N2O_ev391consq!D29="", "", N2O_ev391consq!D29)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E29" s="73" t="str">
-        <f>IF(N2O_consq!E29="", "", N2O_consq!E29)</f>
+        <f>IF(N2O_ev391consq!E29="", "", N2O_ev391consq!E29)</f>
         <v>megajoule</v>
       </c>
       <c r="F29" s="73" t="str">
-        <f>IF(N2O_consq!F29="", "", N2O_consq!F29)</f>
+        <f>IF(N2O_ev391consq!F29="", "", N2O_ev391consq!F29)</f>
         <v/>
       </c>
       <c r="G29" s="73" t="str">
-        <f>IF(N2O_consq!G29="", "", N2O_consq!G29)</f>
+        <f>IF(N2O_ev391consq!G29="", "", N2O_ev391consq!G29)</f>
         <v>technosphere</v>
       </c>
       <c r="H29" s="73" t="str">
-        <f>IF(N2O_consq!H29=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H29=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I29" s="73" t="str">
-        <f>IF(N2O_consq!I29="", "", N2O_consq!I29)</f>
+        <f>IF(N2O_ev391consq!I29="", "", N2O_ev391consq!I29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="73" t="str">
-        <f>IF(N2O_consq!A30="", "", N2O_consq!A30)</f>
+        <f>IF(N2O_ev391consq!A30="", "", N2O_ev391consq!A30)</f>
         <v>market for heat, district or industrial, other than natural gas</v>
       </c>
       <c r="B30" s="81">
-        <f>IF(N2O_consq!B30="", "", N2O_consq!B30)</f>
+        <f>IF(N2O_ev391consq!B30="", "", N2O_ev391consq!B30)</f>
         <v>1.101086612</v>
       </c>
       <c r="C30" s="73" t="str">
-        <f>IF(N2O_consq!C30="", "", N2O_consq!C30)</f>
+        <f>IF(N2O_ev391consq!C30="", "", N2O_ev391consq!C30)</f>
         <v>heat, district or industrial, other than natural gas</v>
       </c>
       <c r="D30" s="73" t="str">
-        <f>IF(N2O_consq!D30="", "", N2O_consq!D30)</f>
+        <f>IF(N2O_ev391consq!D30="", "", N2O_ev391consq!D30)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E30" s="73" t="str">
-        <f>IF(N2O_consq!E30="", "", N2O_consq!E30)</f>
+        <f>IF(N2O_ev391consq!E30="", "", N2O_ev391consq!E30)</f>
         <v>megajoule</v>
       </c>
       <c r="F30" s="73" t="str">
-        <f>IF(N2O_consq!F30="", "", N2O_consq!F30)</f>
+        <f>IF(N2O_ev391consq!F30="", "", N2O_ev391consq!F30)</f>
         <v/>
       </c>
       <c r="G30" s="73" t="str">
-        <f>IF(N2O_consq!G30="", "", N2O_consq!G30)</f>
+        <f>IF(N2O_ev391consq!G30="", "", N2O_ev391consq!G30)</f>
         <v>technosphere</v>
       </c>
       <c r="H30" s="73" t="str">
-        <f>IF(N2O_consq!H30=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H30=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I30" s="73" t="str">
-        <f>IF(N2O_consq!I30="", "", N2O_consq!I30)</f>
+        <f>IF(N2O_ev391consq!I30="", "", N2O_ev391consq!I30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="73" t="str">
-        <f>IF(N2O_consq!A31="", "", N2O_consq!A31)</f>
+        <f>IF(N2O_ev391consq!A31="", "", N2O_ev391consq!A31)</f>
         <v>market for hot water tank factory</v>
       </c>
       <c r="B31" s="80">
-        <f>IF(N2O_consq!B31="", "", N2O_consq!B31)</f>
+        <f>IF(N2O_ev391consq!B31="", "", N2O_ev391consq!B31)</f>
         <v>1.6E-7</v>
       </c>
       <c r="C31" s="73" t="str">
-        <f>IF(N2O_consq!C31="", "", N2O_consq!C31)</f>
+        <f>IF(N2O_ev391consq!C31="", "", N2O_ev391consq!C31)</f>
         <v>hot water tank factory</v>
       </c>
       <c r="D31" s="73" t="str">
-        <f>IF(N2O_consq!D31="", "", N2O_consq!D31)</f>
+        <f>IF(N2O_ev391consq!D31="", "", N2O_ev391consq!D31)</f>
         <v>GLO</v>
       </c>
       <c r="E31" s="73" t="str">
-        <f>IF(N2O_consq!E31="", "", N2O_consq!E31)</f>
+        <f>IF(N2O_ev391consq!E31="", "", N2O_ev391consq!E31)</f>
         <v>unit</v>
       </c>
       <c r="F31" s="73" t="str">
-        <f>IF(N2O_consq!F31="", "", N2O_consq!F31)</f>
+        <f>IF(N2O_ev391consq!F31="", "", N2O_ev391consq!F31)</f>
         <v/>
       </c>
       <c r="G31" s="73" t="str">
-        <f>IF(N2O_consq!G31="", "", N2O_consq!G31)</f>
+        <f>IF(N2O_ev391consq!G31="", "", N2O_ev391consq!G31)</f>
         <v>technosphere</v>
       </c>
       <c r="H31" s="73" t="str">
-        <f>IF(N2O_consq!H31=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H31=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I31" s="73" t="str">
-        <f>IF(N2O_consq!I31="", "", N2O_consq!I31)</f>
+        <f>IF(N2O_ev391consq!I31="", "", N2O_ev391consq!I31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="73" t="str">
-        <f>IF(N2O_consq!A32="", "", N2O_consq!A32)</f>
+        <f>IF(N2O_ev391consq!A32="", "", N2O_ev391consq!A32)</f>
         <v>market for tap water</v>
       </c>
       <c r="B32" s="81">
-        <f>IF(N2O_consq!B32="", "", N2O_consq!B32)</f>
+        <f>IF(N2O_ev391consq!B32="", "", N2O_ev391consq!B32)</f>
         <v>4.9336996339999999</v>
       </c>
       <c r="C32" s="73" t="str">
-        <f>IF(N2O_consq!C32="", "", N2O_consq!C32)</f>
+        <f>IF(N2O_ev391consq!C32="", "", N2O_ev391consq!C32)</f>
         <v>tap water</v>
       </c>
       <c r="D32" s="73" t="str">
-        <f>IF(N2O_consq!D32="", "", N2O_consq!D32)</f>
+        <f>IF(N2O_ev391consq!D32="", "", N2O_ev391consq!D32)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E32" s="73" t="str">
-        <f>IF(N2O_consq!E32="", "", N2O_consq!E32)</f>
+        <f>IF(N2O_ev391consq!E32="", "", N2O_ev391consq!E32)</f>
         <v>kilogram</v>
       </c>
       <c r="F32" s="73" t="str">
-        <f>IF(N2O_consq!F32="", "", N2O_consq!F32)</f>
+        <f>IF(N2O_ev391consq!F32="", "", N2O_ev391consq!F32)</f>
         <v/>
       </c>
       <c r="G32" s="73" t="str">
-        <f>IF(N2O_consq!G32="", "", N2O_consq!G32)</f>
+        <f>IF(N2O_ev391consq!G32="", "", N2O_ev391consq!G32)</f>
         <v>technosphere</v>
       </c>
       <c r="H32" s="73" t="str">
-        <f>IF(N2O_consq!H32=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H32=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I32" s="73" t="str">
-        <f>IF(N2O_consq!I32="", "", N2O_consq!I32)</f>
+        <f>IF(N2O_ev391consq!I32="", "", N2O_ev391consq!I32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="73" t="str">
-        <f>IF(N2O_consq!A33="", "", N2O_consq!A33)</f>
+        <f>IF(N2O_ev391consq!A33="", "", N2O_ev391consq!A33)</f>
         <v>market for welding, arc, aluminium</v>
       </c>
       <c r="B33" s="81">
-        <f>IF(N2O_consq!B33="", "", N2O_consq!B33)</f>
+        <f>IF(N2O_ev391consq!B33="", "", N2O_ev391consq!B33)</f>
         <v>6.1731216999999998E-2</v>
       </c>
       <c r="C33" s="73" t="str">
-        <f>IF(N2O_consq!C33="", "", N2O_consq!C33)</f>
+        <f>IF(N2O_ev391consq!C33="", "", N2O_ev391consq!C33)</f>
         <v>welding, arc, aluminium</v>
       </c>
       <c r="D33" s="73" t="str">
-        <f>IF(N2O_consq!D33="", "", N2O_consq!D33)</f>
+        <f>IF(N2O_ev391consq!D33="", "", N2O_ev391consq!D33)</f>
         <v>GLO</v>
       </c>
       <c r="E33" s="73" t="str">
-        <f>IF(N2O_consq!E33="", "", N2O_consq!E33)</f>
+        <f>IF(N2O_ev391consq!E33="", "", N2O_ev391consq!E33)</f>
         <v>meter</v>
       </c>
       <c r="F33" s="73" t="str">
-        <f>IF(N2O_consq!F33="", "", N2O_consq!F33)</f>
+        <f>IF(N2O_ev391consq!F33="", "", N2O_ev391consq!F33)</f>
         <v/>
       </c>
       <c r="G33" s="73" t="str">
-        <f>IF(N2O_consq!G33="", "", N2O_consq!G33)</f>
+        <f>IF(N2O_ev391consq!G33="", "", N2O_ev391consq!G33)</f>
         <v>technosphere</v>
       </c>
       <c r="H33" s="73" t="str">
-        <f>IF(N2O_consq!H33=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H33=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I33" s="73" t="str">
-        <f>IF(N2O_consq!I33="", "", N2O_consq!I33)</f>
+        <f>IF(N2O_ev391consq!I33="", "", N2O_ev391consq!I33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="73" t="str">
-        <f>IF(N2O_consq!A34="", "", N2O_consq!A34)</f>
+        <f>IF(N2O_ev391consq!A34="", "", N2O_ev391consq!A34)</f>
         <v>market group for electricity, low voltage</v>
       </c>
       <c r="B34" s="81">
-        <f>IF(N2O_consq!B34="", "", N2O_consq!B34)</f>
+        <f>IF(N2O_ev391consq!B34="", "", N2O_ev391consq!B34)</f>
         <v>0.277470628</v>
       </c>
       <c r="C34" s="73" t="str">
-        <f>IF(N2O_consq!C34="", "", N2O_consq!C34)</f>
+        <f>IF(N2O_ev391consq!C34="", "", N2O_ev391consq!C34)</f>
         <v>electricity, low voltage</v>
       </c>
       <c r="D34" s="73" t="str">
-        <f>IF(N2O_consq!D34="", "", N2O_consq!D34)</f>
+        <f>IF(N2O_ev391consq!D34="", "", N2O_ev391consq!D34)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E34" s="73" t="str">
-        <f>IF(N2O_consq!E34="", "", N2O_consq!E34)</f>
+        <f>IF(N2O_ev391consq!E34="", "", N2O_ev391consq!E34)</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F34" s="73" t="str">
-        <f>IF(N2O_consq!F34="", "", N2O_consq!F34)</f>
+        <f>IF(N2O_ev391consq!F34="", "", N2O_ev391consq!F34)</f>
         <v/>
       </c>
       <c r="G34" s="73" t="str">
-        <f>IF(N2O_consq!G34="", "", N2O_consq!G34)</f>
+        <f>IF(N2O_ev391consq!G34="", "", N2O_ev391consq!G34)</f>
         <v>technosphere</v>
       </c>
       <c r="H34" s="73" t="str">
-        <f>IF(N2O_consq!H34=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H34=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I34" s="73" t="str">
-        <f>IF(N2O_consq!I34="", "", N2O_consq!I34)</f>
+        <f>IF(N2O_ev391consq!I34="", "", N2O_ev391consq!I34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="73" t="str">
-        <f>IF(N2O_consq!A35="", "", N2O_consq!A35)</f>
+        <f>IF(N2O_ev391consq!A35="", "", N2O_ev391consq!A35)</f>
         <v>market group for electricity, medium voltage</v>
       </c>
       <c r="B35" s="81">
-        <f>IF(N2O_consq!B35="", "", N2O_consq!B35)</f>
+        <f>IF(N2O_ev391consq!B35="", "", N2O_ev391consq!B35)</f>
         <v>0.99889426000000003</v>
       </c>
       <c r="C35" s="73" t="str">
-        <f>IF(N2O_consq!C35="", "", N2O_consq!C35)</f>
+        <f>IF(N2O_ev391consq!C35="", "", N2O_ev391consq!C35)</f>
         <v>electricity, medium voltage</v>
       </c>
       <c r="D35" s="73" t="str">
-        <f>IF(N2O_consq!D35="", "", N2O_consq!D35)</f>
+        <f>IF(N2O_ev391consq!D35="", "", N2O_ev391consq!D35)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E35" s="73" t="str">
-        <f>IF(N2O_consq!E35="", "", N2O_consq!E35)</f>
+        <f>IF(N2O_ev391consq!E35="", "", N2O_ev391consq!E35)</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F35" s="73" t="str">
-        <f>IF(N2O_consq!F35="", "", N2O_consq!F35)</f>
+        <f>IF(N2O_ev391consq!F35="", "", N2O_ev391consq!F35)</f>
         <v/>
       </c>
       <c r="G35" s="73" t="str">
-        <f>IF(N2O_consq!G35="", "", N2O_consq!G35)</f>
+        <f>IF(N2O_ev391consq!G35="", "", N2O_ev391consq!G35)</f>
         <v>technosphere</v>
       </c>
       <c r="H35" s="73" t="str">
-        <f>IF(N2O_consq!H35=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H35=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I35" s="73" t="str">
-        <f>IF(N2O_consq!I35="", "", N2O_consq!I35)</f>
+        <f>IF(N2O_ev391consq!I35="", "", N2O_ev391consq!I35)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="73" t="str">
-        <f>IF(N2O_consq!A36="", "", N2O_consq!A36)</f>
+        <f>IF(N2O_ev391consq!A36="", "", N2O_ev391consq!A36)</f>
         <v>Water</v>
       </c>
       <c r="B36" s="80">
-        <f>IF(N2O_consq!B36="", "", N2O_consq!B36)</f>
+        <f>IF(N2O_ev391consq!B36="", "", N2O_ev391consq!B36)</f>
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="C36" s="73" t="str">
-        <f>IF(N2O_consq!C36="", "", N2O_consq!C36)</f>
+        <f>IF(N2O_ev391consq!C36="", "", N2O_ev391consq!C36)</f>
         <v/>
       </c>
       <c r="D36" s="73" t="str">
-        <f>IF(N2O_consq!D36="", "", N2O_consq!D36)</f>
+        <f>IF(N2O_ev391consq!D36="", "", N2O_ev391consq!D36)</f>
         <v/>
       </c>
       <c r="E36" s="73" t="str">
-        <f>IF(N2O_consq!E36="", "", N2O_consq!E36)</f>
+        <f>IF(N2O_ev391consq!E36="", "", N2O_ev391consq!E36)</f>
         <v>cubic meter</v>
       </c>
       <c r="F36" s="73" t="str">
-        <f>IF(N2O_consq!F36="", "", N2O_consq!F36)</f>
+        <f>IF(N2O_ev391consq!F36="", "", N2O_ev391consq!F36)</f>
         <v>water</v>
       </c>
       <c r="G36" s="73" t="str">
-        <f>IF(N2O_consq!G36="", "", N2O_consq!G36)</f>
+        <f>IF(N2O_ev391consq!G36="", "", N2O_ev391consq!G36)</f>
         <v>biosphere</v>
       </c>
       <c r="H36" s="73" t="str">
-        <f>IF(N2O_consq!H36="", "", N2O_consq!H36)</f>
+        <f>IF(N2O_ev391consq!H36="", "", N2O_ev391consq!H36)</f>
         <v>biosphere3</v>
       </c>
       <c r="I36" s="73" t="str">
-        <f>IF(N2O_consq!I36="", "", N2O_consq!I36)</f>
+        <f>IF(N2O_ev391consq!I36="", "", N2O_ev391consq!I36)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="44" t="str">
-        <f>IF(N2O_consq!A37="", "", N2O_consq!A37)</f>
+        <f>IF(N2O_ev391consq!A37="", "", N2O_ev391consq!A37)</f>
         <v/>
       </c>
       <c r="B37" s="54" t="str">
-        <f>IF(N2O_consq!B37="", "", N2O_consq!B37)</f>
+        <f>IF(N2O_ev391consq!B37="", "", N2O_ev391consq!B37)</f>
         <v/>
       </c>
       <c r="C37" s="44" t="str">
-        <f>IF(N2O_consq!C37="", "", N2O_consq!C37)</f>
+        <f>IF(N2O_ev391consq!C37="", "", N2O_ev391consq!C37)</f>
         <v/>
       </c>
       <c r="D37" s="44" t="str">
-        <f>IF(N2O_consq!D37="", "", N2O_consq!D37)</f>
+        <f>IF(N2O_ev391consq!D37="", "", N2O_ev391consq!D37)</f>
         <v/>
       </c>
       <c r="E37" s="44" t="str">
-        <f>IF(N2O_consq!E37="", "", N2O_consq!E37)</f>
+        <f>IF(N2O_ev391consq!E37="", "", N2O_ev391consq!E37)</f>
         <v/>
       </c>
       <c r="F37" s="44" t="str">
-        <f>IF(N2O_consq!F37="", "", N2O_consq!F37)</f>
+        <f>IF(N2O_ev391consq!F37="", "", N2O_ev391consq!F37)</f>
         <v/>
       </c>
       <c r="G37" s="44" t="str">
-        <f>IF(N2O_consq!G37="", "", N2O_consq!G37)</f>
+        <f>IF(N2O_ev391consq!G37="", "", N2O_ev391consq!G37)</f>
         <v/>
       </c>
       <c r="H37" s="44"/>
       <c r="I37" s="44" t="str">
-        <f>IF(N2O_consq!I37="", "", N2O_consq!I37)</f>
+        <f>IF(N2O_ev391consq!I37="", "", N2O_ev391consq!I37)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="83" t="str">
-        <f>IF(N2O_consq!A38="", "", N2O_consq!A38)</f>
+        <f>IF(N2O_ev391consq!A38="", "", N2O_ev391consq!A38)</f>
         <v>Activity</v>
       </c>
       <c r="B38" s="84" t="str">
-        <f>IF(N2O_consq!B38="", "", N2O_consq!B38)</f>
+        <f>IF(N2O_ev391consq!B38="", "", N2O_ev391consq!B38)</f>
         <v>50L aluminium cylinder</v>
       </c>
       <c r="C38" s="85" t="str">
-        <f>IF(N2O_consq!C38="", "", N2O_consq!C38)</f>
+        <f>IF(N2O_ev391consq!C38="", "", N2O_ev391consq!C38)</f>
         <v/>
       </c>
       <c r="D38" s="86" t="str">
-        <f>IF(N2O_consq!D38="", "", N2O_consq!D38)</f>
+        <f>IF(N2O_ev391consq!D38="", "", N2O_ev391consq!D38)</f>
         <v/>
       </c>
       <c r="E38" s="85" t="str">
-        <f>IF(N2O_consq!E38="", "", N2O_consq!E38)</f>
+        <f>IF(N2O_ev391consq!E38="", "", N2O_ev391consq!E38)</f>
         <v/>
       </c>
       <c r="F38" s="87" t="str">
-        <f>IF(N2O_consq!F38="", "", N2O_consq!F38)</f>
+        <f>IF(N2O_ev391consq!F38="", "", N2O_ev391consq!F38)</f>
         <v/>
       </c>
       <c r="G38" s="85" t="str">
-        <f>IF(N2O_consq!G38="", "", N2O_consq!G38)</f>
+        <f>IF(N2O_ev391consq!G38="", "", N2O_ev391consq!G38)</f>
         <v/>
       </c>
       <c r="H38" s="85"/>
       <c r="I38" s="85" t="str">
-        <f>IF(N2O_consq!I38="", "", N2O_consq!I38)</f>
+        <f>IF(N2O_ev391consq!I38="", "", N2O_ev391consq!I38)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="88" t="str">
-        <f>IF(N2O_consq!A39="", "", N2O_consq!A39)</f>
+        <f>IF(N2O_ev391consq!A39="", "", N2O_ev391consq!A39)</f>
         <v>production amount</v>
       </c>
       <c r="B39" s="89">
-        <f>IF(N2O_consq!B39="", "", N2O_consq!B39)</f>
+        <f>IF(N2O_ev391consq!B39="", "", N2O_ev391consq!B39)</f>
         <v>1</v>
       </c>
       <c r="C39" s="85" t="str">
-        <f>IF(N2O_consq!C39="", "", N2O_consq!C39)</f>
+        <f>IF(N2O_ev391consq!C39="", "", N2O_ev391consq!C39)</f>
         <v/>
       </c>
       <c r="D39" s="85" t="str">
-        <f>IF(N2O_consq!D39="", "", N2O_consq!D39)</f>
+        <f>IF(N2O_ev391consq!D39="", "", N2O_ev391consq!D39)</f>
         <v/>
       </c>
       <c r="E39" s="85" t="str">
-        <f>IF(N2O_consq!E39="", "", N2O_consq!E39)</f>
+        <f>IF(N2O_ev391consq!E39="", "", N2O_ev391consq!E39)</f>
         <v/>
       </c>
       <c r="F39" s="87" t="str">
-        <f>IF(N2O_consq!F39="", "", N2O_consq!F39)</f>
+        <f>IF(N2O_ev391consq!F39="", "", N2O_ev391consq!F39)</f>
         <v/>
       </c>
       <c r="G39" s="85" t="str">
-        <f>IF(N2O_consq!G39="", "", N2O_consq!G39)</f>
+        <f>IF(N2O_ev391consq!G39="", "", N2O_ev391consq!G39)</f>
         <v/>
       </c>
       <c r="H39" s="85"/>
       <c r="I39" s="85" t="str">
-        <f>IF(N2O_consq!I39="", "", N2O_consq!I39)</f>
+        <f>IF(N2O_ev391consq!I39="", "", N2O_ev391consq!I39)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="88" t="str">
-        <f>IF(N2O_consq!A40="", "", N2O_consq!A40)</f>
+        <f>IF(N2O_ev391consq!A40="", "", N2O_ev391consq!A40)</f>
         <v>reference product</v>
       </c>
       <c r="B40" s="90" t="str">
-        <f>IF(N2O_consq!B40="", "", N2O_consq!B40)</f>
+        <f>IF(N2O_ev391consq!B40="", "", N2O_ev391consq!B40)</f>
         <v>full 50L cylinder</v>
       </c>
       <c r="C40" s="85" t="str">
-        <f>IF(N2O_consq!C40="", "", N2O_consq!C40)</f>
+        <f>IF(N2O_ev391consq!C40="", "", N2O_ev391consq!C40)</f>
         <v/>
       </c>
       <c r="D40" s="85" t="str">
-        <f>IF(N2O_consq!D40="", "", N2O_consq!D40)</f>
+        <f>IF(N2O_ev391consq!D40="", "", N2O_ev391consq!D40)</f>
         <v/>
       </c>
       <c r="E40" s="85" t="str">
-        <f>IF(N2O_consq!E40="", "", N2O_consq!E40)</f>
+        <f>IF(N2O_ev391consq!E40="", "", N2O_ev391consq!E40)</f>
         <v/>
       </c>
       <c r="F40" s="87" t="str">
-        <f>IF(N2O_consq!F40="", "", N2O_consq!F40)</f>
+        <f>IF(N2O_ev391consq!F40="", "", N2O_ev391consq!F40)</f>
         <v/>
       </c>
       <c r="G40" s="85" t="str">
-        <f>IF(N2O_consq!G40="", "", N2O_consq!G40)</f>
+        <f>IF(N2O_ev391consq!G40="", "", N2O_ev391consq!G40)</f>
         <v/>
       </c>
       <c r="H40" s="85"/>
       <c r="I40" s="85" t="str">
-        <f>IF(N2O_consq!I40="", "", N2O_consq!I40)</f>
+        <f>IF(N2O_ev391consq!I40="", "", N2O_ev391consq!I40)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="88" t="str">
-        <f>IF(N2O_consq!A41="", "", N2O_consq!A41)</f>
+        <f>IF(N2O_ev391consq!A41="", "", N2O_ev391consq!A41)</f>
         <v>location</v>
       </c>
       <c r="B41" s="89" t="str">
-        <f>IF(N2O_consq!B41="", "", N2O_consq!B41)</f>
+        <f>IF(N2O_ev391consq!B41="", "", N2O_ev391consq!B41)</f>
         <v>RER</v>
       </c>
       <c r="C41" s="85" t="str">
-        <f>IF(N2O_consq!C41="", "", N2O_consq!C41)</f>
+        <f>IF(N2O_ev391consq!C41="", "", N2O_ev391consq!C41)</f>
         <v/>
       </c>
       <c r="D41" s="85" t="str">
-        <f>IF(N2O_consq!D41="", "", N2O_consq!D41)</f>
+        <f>IF(N2O_ev391consq!D41="", "", N2O_ev391consq!D41)</f>
         <v/>
       </c>
       <c r="E41" s="85" t="str">
-        <f>IF(N2O_consq!E41="", "", N2O_consq!E41)</f>
+        <f>IF(N2O_ev391consq!E41="", "", N2O_ev391consq!E41)</f>
         <v/>
       </c>
       <c r="F41" s="87" t="str">
-        <f>IF(N2O_consq!F41="", "", N2O_consq!F41)</f>
+        <f>IF(N2O_ev391consq!F41="", "", N2O_ev391consq!F41)</f>
         <v/>
       </c>
       <c r="G41" s="85" t="str">
-        <f>IF(N2O_consq!G41="", "", N2O_consq!G41)</f>
+        <f>IF(N2O_ev391consq!G41="", "", N2O_ev391consq!G41)</f>
         <v/>
       </c>
       <c r="H41" s="85"/>
       <c r="I41" s="85" t="str">
-        <f>IF(N2O_consq!I41="", "", N2O_consq!I41)</f>
+        <f>IF(N2O_ev391consq!I41="", "", N2O_ev391consq!I41)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="88" t="str">
-        <f>IF(N2O_consq!A42="", "", N2O_consq!A42)</f>
+        <f>IF(N2O_ev391consq!A42="", "", N2O_ev391consq!A42)</f>
         <v>unit</v>
       </c>
       <c r="B42" s="91" t="str">
-        <f>IF(N2O_consq!B42="", "", N2O_consq!B42)</f>
+        <f>IF(N2O_ev391consq!B42="", "", N2O_ev391consq!B42)</f>
         <v>unit</v>
       </c>
       <c r="C42" s="85" t="str">
-        <f>IF(N2O_consq!C42="", "", N2O_consq!C42)</f>
+        <f>IF(N2O_ev391consq!C42="", "", N2O_ev391consq!C42)</f>
         <v/>
       </c>
       <c r="D42" s="85" t="str">
-        <f>IF(N2O_consq!D42="", "", N2O_consq!D42)</f>
+        <f>IF(N2O_ev391consq!D42="", "", N2O_ev391consq!D42)</f>
         <v/>
       </c>
       <c r="E42" s="85" t="str">
-        <f>IF(N2O_consq!E42="", "", N2O_consq!E42)</f>
+        <f>IF(N2O_ev391consq!E42="", "", N2O_ev391consq!E42)</f>
         <v/>
       </c>
       <c r="F42" s="87" t="str">
-        <f>IF(N2O_consq!F42="", "", N2O_consq!F42)</f>
+        <f>IF(N2O_ev391consq!F42="", "", N2O_ev391consq!F42)</f>
         <v/>
       </c>
       <c r="G42" s="85" t="str">
-        <f>IF(N2O_consq!G42="", "", N2O_consq!G42)</f>
+        <f>IF(N2O_ev391consq!G42="", "", N2O_ev391consq!G42)</f>
         <v/>
       </c>
       <c r="H42" s="85"/>
       <c r="I42" s="85" t="str">
-        <f>IF(N2O_consq!I42="", "", N2O_consq!I42)</f>
+        <f>IF(N2O_ev391consq!I42="", "", N2O_ev391consq!I42)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="92" t="str">
-        <f>IF(N2O_consq!A43="", "", N2O_consq!A43)</f>
+        <f>IF(N2O_ev391consq!A43="", "", N2O_ev391consq!A43)</f>
         <v>Exchanges</v>
       </c>
       <c r="B43" s="84" t="str">
-        <f>IF(N2O_consq!B43="", "", N2O_consq!B43)</f>
+        <f>IF(N2O_ev391consq!B43="", "", N2O_ev391consq!B43)</f>
         <v/>
       </c>
       <c r="C43" s="92" t="str">
-        <f>IF(N2O_consq!C43="", "", N2O_consq!C43)</f>
+        <f>IF(N2O_ev391consq!C43="", "", N2O_ev391consq!C43)</f>
         <v/>
       </c>
       <c r="D43" s="92" t="str">
-        <f>IF(N2O_consq!D43="", "", N2O_consq!D43)</f>
+        <f>IF(N2O_ev391consq!D43="", "", N2O_ev391consq!D43)</f>
         <v/>
       </c>
       <c r="E43" s="92" t="str">
-        <f>IF(N2O_consq!E43="", "", N2O_consq!E43)</f>
+        <f>IF(N2O_ev391consq!E43="", "", N2O_ev391consq!E43)</f>
         <v/>
       </c>
       <c r="F43" s="87" t="str">
-        <f>IF(N2O_consq!F43="", "", N2O_consq!F43)</f>
+        <f>IF(N2O_ev391consq!F43="", "", N2O_ev391consq!F43)</f>
         <v/>
       </c>
       <c r="G43" s="92" t="str">
-        <f>IF(N2O_consq!G43="", "", N2O_consq!G43)</f>
+        <f>IF(N2O_ev391consq!G43="", "", N2O_ev391consq!G43)</f>
         <v/>
       </c>
       <c r="H43" s="92"/>
       <c r="I43" s="92" t="str">
-        <f>IF(N2O_consq!I43="", "", N2O_consq!I43)</f>
+        <f>IF(N2O_ev391consq!I43="", "", N2O_ev391consq!I43)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="92" t="str">
-        <f>IF(N2O_consq!A44="", "", N2O_consq!A44)</f>
+        <f>IF(N2O_ev391consq!A44="", "", N2O_ev391consq!A44)</f>
         <v>name</v>
       </c>
       <c r="B44" s="84" t="str">
-        <f>IF(N2O_consq!B44="", "", N2O_consq!B44)</f>
+        <f>IF(N2O_ev391consq!B44="", "", N2O_ev391consq!B44)</f>
         <v>amount</v>
       </c>
       <c r="C44" s="92" t="str">
-        <f>IF(N2O_consq!C44="", "", N2O_consq!C44)</f>
+        <f>IF(N2O_ev391consq!C44="", "", N2O_ev391consq!C44)</f>
         <v>reference product</v>
       </c>
       <c r="D44" s="92" t="str">
-        <f>IF(N2O_consq!D44="", "", N2O_consq!D44)</f>
+        <f>IF(N2O_ev391consq!D44="", "", N2O_ev391consq!D44)</f>
         <v>location</v>
       </c>
       <c r="E44" s="92" t="str">
-        <f>IF(N2O_consq!E44="", "", N2O_consq!E44)</f>
+        <f>IF(N2O_ev391consq!E44="", "", N2O_ev391consq!E44)</f>
         <v>unit</v>
       </c>
       <c r="F44" s="93" t="str">
-        <f>IF(N2O_consq!F44="", "", N2O_consq!F44)</f>
+        <f>IF(N2O_ev391consq!F44="", "", N2O_ev391consq!F44)</f>
         <v>categories</v>
       </c>
       <c r="G44" s="92" t="str">
-        <f>IF(N2O_consq!G44="", "", N2O_consq!G44)</f>
+        <f>IF(N2O_ev391consq!G44="", "", N2O_ev391consq!G44)</f>
         <v>type</v>
       </c>
       <c r="H44" s="92" t="str">
-        <f>IF(N2O_consq!H44="", "", N2O_consq!H44)</f>
+        <f>IF(N2O_ev391consq!H44="", "", N2O_ev391consq!H44)</f>
         <v>database</v>
       </c>
       <c r="I44" s="92" t="str">
-        <f>IF(N2O_consq!I44="", "", N2O_consq!I44)</f>
+        <f>IF(N2O_ev391consq!I44="", "", N2O_ev391consq!I44)</f>
         <v>comment</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="94" t="str">
-        <f>IF(N2O_consq!A45="", "", N2O_consq!A45)</f>
+        <f>IF(N2O_ev391consq!A45="", "", N2O_ev391consq!A45)</f>
         <v>50L aluminium cylinder</v>
       </c>
       <c r="B45" s="95">
-        <f>IF(N2O_consq!B45="", "", N2O_consq!B45)</f>
+        <f>IF(N2O_ev391consq!B45="", "", N2O_ev391consq!B45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="94" t="str">
-        <f>IF(N2O_consq!C45="", "", N2O_consq!C45)</f>
+        <f>IF(N2O_ev391consq!C45="", "", N2O_ev391consq!C45)</f>
         <v>full 50L cylinder</v>
       </c>
       <c r="D45" s="94" t="str">
-        <f>IF(N2O_consq!D45="", "", N2O_consq!D45)</f>
+        <f>IF(N2O_ev391consq!D45="", "", N2O_ev391consq!D45)</f>
         <v>RER</v>
       </c>
       <c r="E45" s="94" t="str">
-        <f>IF(N2O_consq!E45="", "", N2O_consq!E45)</f>
+        <f>IF(N2O_ev391consq!E45="", "", N2O_ev391consq!E45)</f>
         <v>unit</v>
       </c>
       <c r="F45" s="87" t="str">
-        <f>IF(N2O_consq!F45="", "", N2O_consq!F45)</f>
+        <f>IF(N2O_ev391consq!F45="", "", N2O_ev391consq!F45)</f>
         <v/>
       </c>
       <c r="G45" s="87" t="str">
-        <f>IF(N2O_consq!G45="", "", N2O_consq!G45)</f>
+        <f>IF(N2O_ev391consq!G45="", "", N2O_ev391consq!G45)</f>
         <v>production</v>
       </c>
       <c r="H45" s="96" t="str">
-        <f>IF(N2O_consq!H45=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H45=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I45" s="96" t="str">
-        <f>IF(N2O_consq!I45="", "", N2O_consq!I45)</f>
+        <f>IF(N2O_ev391consq!I45="", "", N2O_ev391consq!I45)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="94" t="str">
-        <f>IF(N2O_consq!A46="", "", N2O_consq!A46)</f>
+        <f>IF(N2O_ev391consq!A46="", "", N2O_ev391consq!A46)</f>
         <v>Compresser opration</v>
       </c>
       <c r="B46" s="95">
-        <f>IF(N2O_consq!B46="", "", N2O_consq!B46)</f>
+        <f>IF(N2O_ev391consq!B46="", "", N2O_ev391consq!B46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="94" t="str">
-        <f>IF(N2O_consq!C46="", "", N2O_consq!C46)</f>
+        <f>IF(N2O_ev391consq!C46="", "", N2O_ev391consq!C46)</f>
         <v>Compresser opration</v>
       </c>
       <c r="D46" s="94" t="str">
-        <f>IF(N2O_consq!D46="", "", N2O_consq!D46)</f>
+        <f>IF(N2O_ev391consq!D46="", "", N2O_ev391consq!D46)</f>
         <v>RER</v>
       </c>
       <c r="E46" s="94" t="str">
-        <f>IF(N2O_consq!E46="", "", N2O_consq!E46)</f>
+        <f>IF(N2O_ev391consq!E46="", "", N2O_ev391consq!E46)</f>
         <v>unit</v>
       </c>
       <c r="F46" s="94" t="str">
-        <f>IF(N2O_consq!F46="", "", N2O_consq!F46)</f>
+        <f>IF(N2O_ev391consq!F46="", "", N2O_ev391consq!F46)</f>
         <v/>
       </c>
       <c r="G46" s="87" t="str">
-        <f>IF(N2O_consq!G46="", "", N2O_consq!G46)</f>
+        <f>IF(N2O_ev391consq!G46="", "", N2O_ev391consq!G46)</f>
         <v>technosphere</v>
       </c>
       <c r="H46" s="94" t="str">
-        <f>IF(N2O_consq!H46=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H46=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I46" s="87" t="str">
-        <f>IF(N2O_consq!I46="", "", N2O_consq!I46)</f>
+        <f>IF(N2O_ev391consq!I46="", "", N2O_ev391consq!I46)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="94" t="str">
-        <f>IF(N2O_consq!A47="", "", N2O_consq!A47)</f>
+        <f>IF(N2O_ev391consq!A47="", "", N2O_ev391consq!A47)</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="B47" s="95">
-        <f>IF(N2O_consq!B47="", "", N2O_consq!B47)</f>
+        <f>IF(N2O_ev391consq!B47="", "", N2O_ev391consq!B47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="94" t="str">
-        <f>IF(N2O_consq!C47="", "", N2O_consq!C47)</f>
+        <f>IF(N2O_ev391consq!C47="", "", N2O_ev391consq!C47)</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="D47" s="94" t="str">
-        <f>IF(N2O_consq!D47="", "", N2O_consq!D47)</f>
+        <f>IF(N2O_ev391consq!D47="", "", N2O_ev391consq!D47)</f>
         <v>RER</v>
       </c>
       <c r="E47" s="94" t="str">
-        <f>IF(N2O_consq!E47="", "", N2O_consq!E47)</f>
+        <f>IF(N2O_ev391consq!E47="", "", N2O_ev391consq!E47)</f>
         <v>unit</v>
       </c>
       <c r="F47" s="87" t="str">
-        <f>IF(N2O_consq!F47="", "", N2O_consq!F47)</f>
+        <f>IF(N2O_ev391consq!F47="", "", N2O_ev391consq!F47)</f>
         <v/>
       </c>
       <c r="G47" s="87" t="str">
-        <f>IF(N2O_consq!G47="", "", N2O_consq!G47)</f>
+        <f>IF(N2O_ev391consq!G47="", "", N2O_ev391consq!G47)</f>
         <v>technosphere</v>
       </c>
       <c r="H47" s="94" t="str">
-        <f>IF(N2O_consq!H47=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H47=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I47" s="87" t="str">
-        <f>IF(N2O_consq!I47="", "", N2O_consq!I47)</f>
+        <f>IF(N2O_ev391consq!I47="", "", N2O_ev391consq!I47)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="94" t="str">
-        <f>IF(N2O_consq!A48="", "", N2O_consq!A48)</f>
+        <f>IF(N2O_ev391consq!A48="", "", N2O_ev391consq!A48)</f>
         <v>empty 50 L steel cylinder</v>
       </c>
       <c r="B48" s="95">
-        <f>IF(N2O_consq!B48="", "", N2O_consq!B48)</f>
+        <f>IF(N2O_ev391consq!B48="", "", N2O_ev391consq!B48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="94" t="str">
-        <f>IF(N2O_consq!C48="", "", N2O_consq!C48)</f>
+        <f>IF(N2O_ev391consq!C48="", "", N2O_ev391consq!C48)</f>
         <v>empty 50 L steel cylinder</v>
       </c>
       <c r="D48" s="94" t="str">
-        <f>IF(N2O_consq!D48="", "", N2O_consq!D48)</f>
+        <f>IF(N2O_ev391consq!D48="", "", N2O_ev391consq!D48)</f>
         <v>RER</v>
       </c>
       <c r="E48" s="94" t="str">
-        <f>IF(N2O_consq!E48="", "", N2O_consq!E48)</f>
+        <f>IF(N2O_ev391consq!E48="", "", N2O_ev391consq!E48)</f>
         <v>unit</v>
       </c>
       <c r="F48" s="87" t="str">
-        <f>IF(N2O_consq!F48="", "", N2O_consq!F48)</f>
+        <f>IF(N2O_ev391consq!F48="", "", N2O_ev391consq!F48)</f>
         <v/>
       </c>
       <c r="G48" s="87" t="str">
-        <f>IF(N2O_consq!G48="", "", N2O_consq!G48)</f>
+        <f>IF(N2O_ev391consq!G48="", "", N2O_ev391consq!G48)</f>
         <v>technosphere</v>
       </c>
       <c r="H48" s="94" t="str">
-        <f>IF(N2O_consq!H48=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H48=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I48" s="87" t="str">
-        <f>IF(N2O_consq!I48="", "", N2O_consq!I48)</f>
+        <f>IF(N2O_ev391consq!I48="", "", N2O_ev391consq!I48)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="87" t="str">
-        <f>IF(N2O_consq!A49="", "", N2O_consq!A49)</f>
+        <f>IF(N2O_ev391consq!A49="", "", N2O_ev391consq!A49)</f>
         <v>transport, freight, inland waterways, barge tanker</v>
       </c>
       <c r="B49" s="97">
-        <f>IF(N2O_consq!B49="", "", N2O_consq!B49)</f>
+        <f>IF(N2O_ev391consq!B49="", "", N2O_ev391consq!B49)</f>
         <v>13.106248750000001</v>
       </c>
       <c r="C49" s="87" t="str">
-        <f>IF(N2O_consq!C49="", "", N2O_consq!C49)</f>
+        <f>IF(N2O_ev391consq!C49="", "", N2O_ev391consq!C49)</f>
         <v>transport, freight, inland waterways, barge tanker</v>
       </c>
       <c r="D49" s="87" t="str">
-        <f>IF(N2O_consq!D49="", "", N2O_consq!D49)</f>
+        <f>IF(N2O_ev391consq!D49="", "", N2O_ev391consq!D49)</f>
         <v>RER</v>
       </c>
       <c r="E49" s="87" t="str">
-        <f>IF(N2O_consq!E49="", "", N2O_consq!E49)</f>
+        <f>IF(N2O_ev391consq!E49="", "", N2O_ev391consq!E49)</f>
         <v>ton kilometer</v>
       </c>
       <c r="F49" s="87" t="str">
-        <f>IF(N2O_consq!F49="", "", N2O_consq!F49)</f>
+        <f>IF(N2O_ev391consq!F49="", "", N2O_ev391consq!F49)</f>
         <v/>
       </c>
       <c r="G49" s="87" t="str">
-        <f>IF(N2O_consq!G49="", "", N2O_consq!G49)</f>
+        <f>IF(N2O_ev391consq!G49="", "", N2O_ev391consq!G49)</f>
         <v>technosphere</v>
       </c>
       <c r="H49" s="87" t="str">
-        <f>IF(N2O_consq!H49=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H49=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I49" s="87" t="str">
-        <f>IF(N2O_consq!I49="", "", N2O_consq!I49)</f>
+        <f>IF(N2O_ev391consq!I49="", "", N2O_ev391consq!I49)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="87" t="str">
-        <f>IF(N2O_consq!A50="", "", N2O_consq!A50)</f>
+        <f>IF(N2O_ev391consq!A50="", "", N2O_ev391consq!A50)</f>
         <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
       <c r="B50" s="97">
-        <f>IF(N2O_consq!B50="", "", N2O_consq!B50)</f>
+        <f>IF(N2O_ev391consq!B50="", "", N2O_ev391consq!B50)</f>
         <v>132.00613741000001</v>
       </c>
       <c r="C50" s="87" t="str">
-        <f>IF(N2O_consq!C50="", "", N2O_consq!C50)</f>
+        <f>IF(N2O_ev391consq!C50="", "", N2O_ev391consq!C50)</f>
         <v>transport, freight, lorry 16-32 metric ton, EURO6</v>
       </c>
       <c r="D50" s="87" t="str">
-        <f>IF(N2O_consq!D50="", "", N2O_consq!D50)</f>
+        <f>IF(N2O_ev391consq!D50="", "", N2O_ev391consq!D50)</f>
         <v>RER</v>
       </c>
       <c r="E50" s="87" t="str">
-        <f>IF(N2O_consq!E50="", "", N2O_consq!E50)</f>
+        <f>IF(N2O_ev391consq!E50="", "", N2O_ev391consq!E50)</f>
         <v>ton kilometer</v>
       </c>
       <c r="F50" s="87" t="str">
-        <f>IF(N2O_consq!F50="", "", N2O_consq!F50)</f>
+        <f>IF(N2O_ev391consq!F50="", "", N2O_ev391consq!F50)</f>
         <v/>
       </c>
       <c r="G50" s="87" t="str">
-        <f>IF(N2O_consq!G50="", "", N2O_consq!G50)</f>
+        <f>IF(N2O_ev391consq!G50="", "", N2O_ev391consq!G50)</f>
         <v>technosphere</v>
       </c>
       <c r="H50" s="87" t="str">
-        <f>IF(N2O_consq!H50=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H50=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I50" s="87" t="str">
-        <f>IF(N2O_consq!I50="", "", N2O_consq!I50)</f>
+        <f>IF(N2O_ev391consq!I50="", "", N2O_ev391consq!I50)</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="44" t="str">
-        <f>IF(N2O_consq!A51="", "", N2O_consq!A51)</f>
+        <f>IF(N2O_ev391consq!A51="", "", N2O_ev391consq!A51)</f>
         <v/>
       </c>
       <c r="B51" s="54" t="str">
-        <f>IF(N2O_consq!B51="", "", N2O_consq!B51)</f>
+        <f>IF(N2O_ev391consq!B51="", "", N2O_ev391consq!B51)</f>
         <v/>
       </c>
       <c r="C51" s="44" t="str">
-        <f>IF(N2O_consq!C51="", "", N2O_consq!C51)</f>
+        <f>IF(N2O_ev391consq!C51="", "", N2O_ev391consq!C51)</f>
         <v/>
       </c>
       <c r="D51" s="44" t="str">
-        <f>IF(N2O_consq!D51="", "", N2O_consq!D51)</f>
+        <f>IF(N2O_ev391consq!D51="", "", N2O_ev391consq!D51)</f>
         <v/>
       </c>
       <c r="E51" s="44" t="str">
-        <f>IF(N2O_consq!E51="", "", N2O_consq!E51)</f>
+        <f>IF(N2O_ev391consq!E51="", "", N2O_ev391consq!E51)</f>
         <v/>
       </c>
       <c r="F51" s="44" t="str">
-        <f>IF(N2O_consq!F51="", "", N2O_consq!F51)</f>
+        <f>IF(N2O_ev391consq!F51="", "", N2O_ev391consq!F51)</f>
         <v/>
       </c>
       <c r="G51" s="44" t="str">
-        <f>IF(N2O_consq!G51="", "", N2O_consq!G51)</f>
+        <f>IF(N2O_ev391consq!G51="", "", N2O_ev391consq!G51)</f>
         <v/>
       </c>
       <c r="H51" s="44"/>
       <c r="I51" s="44" t="str">
-        <f>IF(N2O_consq!I51="", "", N2O_consq!I51)</f>
+        <f>IF(N2O_ev391consq!I51="", "", N2O_ev391consq!I51)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="98" t="str">
-        <f>IF(N2O_consq!A52="", "", N2O_consq!A52)</f>
+        <f>IF(N2O_ev391consq!A52="", "", N2O_ev391consq!A52)</f>
         <v>Activity</v>
       </c>
       <c r="B52" s="99" t="str">
-        <f>IF(N2O_consq!B52="", "", N2O_consq!B52)</f>
+        <f>IF(N2O_ev391consq!B52="", "", N2O_ev391consq!B52)</f>
         <v>production of 50L aluminium cylinder</v>
       </c>
       <c r="C52" s="100" t="str">
-        <f>IF(N2O_consq!C52="", "", N2O_consq!C52)</f>
+        <f>IF(N2O_ev391consq!C52="", "", N2O_ev391consq!C52)</f>
         <v/>
       </c>
       <c r="D52" s="101" t="str">
-        <f>IF(N2O_consq!D52="", "", N2O_consq!D52)</f>
+        <f>IF(N2O_ev391consq!D52="", "", N2O_ev391consq!D52)</f>
         <v/>
       </c>
       <c r="E52" s="100" t="str">
-        <f>IF(N2O_consq!E52="", "", N2O_consq!E52)</f>
+        <f>IF(N2O_ev391consq!E52="", "", N2O_ev391consq!E52)</f>
         <v/>
       </c>
       <c r="F52" s="102" t="str">
-        <f>IF(N2O_consq!F52="", "", N2O_consq!F52)</f>
+        <f>IF(N2O_ev391consq!F52="", "", N2O_ev391consq!F52)</f>
         <v/>
       </c>
       <c r="G52" s="100" t="str">
-        <f>IF(N2O_consq!G52="", "", N2O_consq!G52)</f>
+        <f>IF(N2O_ev391consq!G52="", "", N2O_ev391consq!G52)</f>
         <v/>
       </c>
       <c r="H52" s="100"/>
       <c r="I52" s="100" t="str">
-        <f>IF(N2O_consq!I52="", "", N2O_consq!I52)</f>
+        <f>IF(N2O_ev391consq!I52="", "", N2O_ev391consq!I52)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="103" t="str">
-        <f>IF(N2O_consq!A53="", "", N2O_consq!A53)</f>
+        <f>IF(N2O_ev391consq!A53="", "", N2O_ev391consq!A53)</f>
         <v>production amount</v>
       </c>
       <c r="B53" s="104">
-        <f>IF(N2O_consq!B53="", "", N2O_consq!B53)</f>
+        <f>IF(N2O_ev391consq!B53="", "", N2O_ev391consq!B53)</f>
         <v>1</v>
       </c>
       <c r="C53" s="100" t="str">
-        <f>IF(N2O_consq!C53="", "", N2O_consq!C53)</f>
+        <f>IF(N2O_ev391consq!C53="", "", N2O_ev391consq!C53)</f>
         <v/>
       </c>
       <c r="D53" s="100" t="str">
-        <f>IF(N2O_consq!D53="", "", N2O_consq!D53)</f>
+        <f>IF(N2O_ev391consq!D53="", "", N2O_ev391consq!D53)</f>
         <v/>
       </c>
       <c r="E53" s="100" t="str">
-        <f>IF(N2O_consq!E53="", "", N2O_consq!E53)</f>
+        <f>IF(N2O_ev391consq!E53="", "", N2O_ev391consq!E53)</f>
         <v/>
       </c>
       <c r="F53" s="102" t="str">
-        <f>IF(N2O_consq!F53="", "", N2O_consq!F53)</f>
+        <f>IF(N2O_ev391consq!F53="", "", N2O_ev391consq!F53)</f>
         <v/>
       </c>
       <c r="G53" s="100" t="str">
-        <f>IF(N2O_consq!G53="", "", N2O_consq!G53)</f>
+        <f>IF(N2O_ev391consq!G53="", "", N2O_ev391consq!G53)</f>
         <v/>
       </c>
       <c r="H53" s="100"/>
       <c r="I53" s="100" t="str">
-        <f>IF(N2O_consq!I53="", "", N2O_consq!I53)</f>
+        <f>IF(N2O_ev391consq!I53="", "", N2O_ev391consq!I53)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="103" t="str">
-        <f>IF(N2O_consq!A54="", "", N2O_consq!A54)</f>
+        <f>IF(N2O_ev391consq!A54="", "", N2O_ev391consq!A54)</f>
         <v>reference product</v>
       </c>
       <c r="B54" s="105" t="str">
-        <f>IF(N2O_consq!B54="", "", N2O_consq!B54)</f>
+        <f>IF(N2O_ev391consq!B54="", "", N2O_ev391consq!B54)</f>
         <v>50L cylinder</v>
       </c>
       <c r="C54" s="100" t="str">
-        <f>IF(N2O_consq!C54="", "", N2O_consq!C54)</f>
+        <f>IF(N2O_ev391consq!C54="", "", N2O_ev391consq!C54)</f>
         <v/>
       </c>
       <c r="D54" s="100" t="str">
-        <f>IF(N2O_consq!D54="", "", N2O_consq!D54)</f>
+        <f>IF(N2O_ev391consq!D54="", "", N2O_ev391consq!D54)</f>
         <v/>
       </c>
       <c r="E54" s="100" t="str">
-        <f>IF(N2O_consq!E54="", "", N2O_consq!E54)</f>
+        <f>IF(N2O_ev391consq!E54="", "", N2O_ev391consq!E54)</f>
         <v/>
       </c>
       <c r="F54" s="102" t="str">
-        <f>IF(N2O_consq!F54="", "", N2O_consq!F54)</f>
+        <f>IF(N2O_ev391consq!F54="", "", N2O_ev391consq!F54)</f>
         <v/>
       </c>
       <c r="G54" s="100" t="str">
-        <f>IF(N2O_consq!G54="", "", N2O_consq!G54)</f>
+        <f>IF(N2O_ev391consq!G54="", "", N2O_ev391consq!G54)</f>
         <v/>
       </c>
       <c r="H54" s="100"/>
       <c r="I54" s="100" t="str">
-        <f>IF(N2O_consq!I54="", "", N2O_consq!I54)</f>
+        <f>IF(N2O_ev391consq!I54="", "", N2O_ev391consq!I54)</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="103" t="str">
-        <f>IF(N2O_consq!A55="", "", N2O_consq!A55)</f>
+        <f>IF(N2O_ev391consq!A55="", "", N2O_ev391consq!A55)</f>
         <v>location</v>
       </c>
       <c r="B55" s="104" t="str">
-        <f>IF(N2O_consq!B55="", "", N2O_consq!B55)</f>
+        <f>IF(N2O_ev391consq!B55="", "", N2O_ev391consq!B55)</f>
         <v>RER</v>
       </c>
       <c r="C55" s="100" t="str">
-        <f>IF(N2O_consq!C55="", "", N2O_consq!C55)</f>
+        <f>IF(N2O_ev391consq!C55="", "", N2O_ev391consq!C55)</f>
         <v/>
       </c>
       <c r="D55" s="100" t="str">
-        <f>IF(N2O_consq!D55="", "", N2O_consq!D55)</f>
+        <f>IF(N2O_ev391consq!D55="", "", N2O_ev391consq!D55)</f>
         <v/>
       </c>
       <c r="E55" s="100" t="str">
-        <f>IF(N2O_consq!E55="", "", N2O_consq!E55)</f>
+        <f>IF(N2O_ev391consq!E55="", "", N2O_ev391consq!E55)</f>
         <v/>
       </c>
       <c r="F55" s="102" t="str">
-        <f>IF(N2O_consq!F55="", "", N2O_consq!F55)</f>
+        <f>IF(N2O_ev391consq!F55="", "", N2O_ev391consq!F55)</f>
         <v/>
       </c>
       <c r="G55" s="100" t="str">
-        <f>IF(N2O_consq!G55="", "", N2O_consq!G55)</f>
+        <f>IF(N2O_ev391consq!G55="", "", N2O_ev391consq!G55)</f>
         <v/>
       </c>
       <c r="H55" s="100"/>
       <c r="I55" s="100" t="str">
-        <f>IF(N2O_consq!I55="", "", N2O_consq!I55)</f>
+        <f>IF(N2O_ev391consq!I55="", "", N2O_ev391consq!I55)</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="103" t="str">
-        <f>IF(N2O_consq!A56="", "", N2O_consq!A56)</f>
+        <f>IF(N2O_ev391consq!A56="", "", N2O_ev391consq!A56)</f>
         <v>unit</v>
       </c>
       <c r="B56" s="106" t="str">
-        <f>IF(N2O_consq!B56="", "", N2O_consq!B56)</f>
+        <f>IF(N2O_ev391consq!B56="", "", N2O_ev391consq!B56)</f>
         <v>unit</v>
       </c>
       <c r="C56" s="100" t="str">
-        <f>IF(N2O_consq!C56="", "", N2O_consq!C56)</f>
+        <f>IF(N2O_ev391consq!C56="", "", N2O_ev391consq!C56)</f>
         <v/>
       </c>
       <c r="D56" s="100" t="str">
-        <f>IF(N2O_consq!D56="", "", N2O_consq!D56)</f>
+        <f>IF(N2O_ev391consq!D56="", "", N2O_ev391consq!D56)</f>
         <v/>
       </c>
       <c r="E56" s="100" t="str">
-        <f>IF(N2O_consq!E56="", "", N2O_consq!E56)</f>
+        <f>IF(N2O_ev391consq!E56="", "", N2O_ev391consq!E56)</f>
         <v/>
       </c>
       <c r="F56" s="102" t="str">
-        <f>IF(N2O_consq!F56="", "", N2O_consq!F56)</f>
+        <f>IF(N2O_ev391consq!F56="", "", N2O_ev391consq!F56)</f>
         <v/>
       </c>
       <c r="G56" s="100" t="str">
-        <f>IF(N2O_consq!G56="", "", N2O_consq!G56)</f>
+        <f>IF(N2O_ev391consq!G56="", "", N2O_ev391consq!G56)</f>
         <v/>
       </c>
       <c r="H56" s="100"/>
       <c r="I56" s="100" t="str">
-        <f>IF(N2O_consq!I56="", "", N2O_consq!I56)</f>
+        <f>IF(N2O_ev391consq!I56="", "", N2O_ev391consq!I56)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="107" t="str">
-        <f>IF(N2O_consq!A57="", "", N2O_consq!A57)</f>
+        <f>IF(N2O_ev391consq!A57="", "", N2O_ev391consq!A57)</f>
         <v>Exchanges</v>
       </c>
       <c r="B57" s="99" t="str">
-        <f>IF(N2O_consq!B57="", "", N2O_consq!B57)</f>
+        <f>IF(N2O_ev391consq!B57="", "", N2O_ev391consq!B57)</f>
         <v/>
       </c>
       <c r="C57" s="107" t="str">
-        <f>IF(N2O_consq!C57="", "", N2O_consq!C57)</f>
+        <f>IF(N2O_ev391consq!C57="", "", N2O_ev391consq!C57)</f>
         <v/>
       </c>
       <c r="D57" s="107" t="str">
-        <f>IF(N2O_consq!D57="", "", N2O_consq!D57)</f>
+        <f>IF(N2O_ev391consq!D57="", "", N2O_ev391consq!D57)</f>
         <v/>
       </c>
       <c r="E57" s="107" t="str">
-        <f>IF(N2O_consq!E57="", "", N2O_consq!E57)</f>
+        <f>IF(N2O_ev391consq!E57="", "", N2O_ev391consq!E57)</f>
         <v/>
       </c>
       <c r="F57" s="102" t="str">
-        <f>IF(N2O_consq!F57="", "", N2O_consq!F57)</f>
+        <f>IF(N2O_ev391consq!F57="", "", N2O_ev391consq!F57)</f>
         <v/>
       </c>
       <c r="G57" s="107" t="str">
-        <f>IF(N2O_consq!G57="", "", N2O_consq!G57)</f>
+        <f>IF(N2O_ev391consq!G57="", "", N2O_ev391consq!G57)</f>
         <v/>
       </c>
       <c r="H57" s="107"/>
       <c r="I57" s="107" t="str">
-        <f>IF(N2O_consq!I57="", "", N2O_consq!I57)</f>
+        <f>IF(N2O_ev391consq!I57="", "", N2O_ev391consq!I57)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="107" t="str">
-        <f>IF(N2O_consq!A58="", "", N2O_consq!A58)</f>
+        <f>IF(N2O_ev391consq!A58="", "", N2O_ev391consq!A58)</f>
         <v>name</v>
       </c>
       <c r="B58" s="99" t="str">
-        <f>IF(N2O_consq!B58="", "", N2O_consq!B58)</f>
+        <f>IF(N2O_ev391consq!B58="", "", N2O_ev391consq!B58)</f>
         <v>amount</v>
       </c>
       <c r="C58" s="107" t="str">
-        <f>IF(N2O_consq!C58="", "", N2O_consq!C58)</f>
+        <f>IF(N2O_ev391consq!C58="", "", N2O_ev391consq!C58)</f>
         <v>reference product</v>
       </c>
       <c r="D58" s="107" t="str">
-        <f>IF(N2O_consq!D58="", "", N2O_consq!D58)</f>
+        <f>IF(N2O_ev391consq!D58="", "", N2O_ev391consq!D58)</f>
         <v>location</v>
       </c>
       <c r="E58" s="107" t="str">
-        <f>IF(N2O_consq!E58="", "", N2O_consq!E58)</f>
+        <f>IF(N2O_ev391consq!E58="", "", N2O_ev391consq!E58)</f>
         <v>unit</v>
       </c>
       <c r="F58" s="108" t="str">
-        <f>IF(N2O_consq!F58="", "", N2O_consq!F58)</f>
+        <f>IF(N2O_ev391consq!F58="", "", N2O_ev391consq!F58)</f>
         <v>categories</v>
       </c>
       <c r="G58" s="107" t="str">
-        <f>IF(N2O_consq!G58="", "", N2O_consq!G58)</f>
+        <f>IF(N2O_ev391consq!G58="", "", N2O_ev391consq!G58)</f>
         <v>type</v>
       </c>
       <c r="H58" s="107" t="str">
-        <f>IF(N2O_consq!H58="", "", N2O_consq!H58)</f>
+        <f>IF(N2O_ev391consq!H58="", "", N2O_ev391consq!H58)</f>
         <v>database</v>
       </c>
       <c r="I58" s="107" t="str">
-        <f>IF(N2O_consq!I58="", "", N2O_consq!I58)</f>
+        <f>IF(N2O_ev391consq!I58="", "", N2O_ev391consq!I58)</f>
         <v>comment</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="109" t="str">
-        <f>IF(N2O_consq!A59="", "", N2O_consq!A59)</f>
+        <f>IF(N2O_ev391consq!A59="", "", N2O_ev391consq!A59)</f>
         <v>production of 50L aluminium cylinder</v>
       </c>
       <c r="B59" s="110">
-        <f>IF(N2O_consq!B59="", "", N2O_consq!B59)</f>
+        <f>IF(N2O_ev391consq!B59="", "", N2O_ev391consq!B59)</f>
         <v>1</v>
       </c>
       <c r="C59" s="109" t="str">
-        <f>IF(N2O_consq!C59="", "", N2O_consq!C59)</f>
+        <f>IF(N2O_ev391consq!C59="", "", N2O_ev391consq!C59)</f>
         <v>50L cylinder</v>
       </c>
       <c r="D59" s="109" t="str">
-        <f>IF(N2O_consq!D59="", "", N2O_consq!D59)</f>
+        <f>IF(N2O_ev391consq!D59="", "", N2O_ev391consq!D59)</f>
         <v>RER</v>
       </c>
       <c r="E59" s="109" t="str">
-        <f>IF(N2O_consq!E59="", "", N2O_consq!E59)</f>
+        <f>IF(N2O_ev391consq!E59="", "", N2O_ev391consq!E59)</f>
         <v>unit</v>
       </c>
       <c r="F59" s="102" t="str">
-        <f>IF(N2O_consq!F59="", "", N2O_consq!F59)</f>
+        <f>IF(N2O_ev391consq!F59="", "", N2O_ev391consq!F59)</f>
         <v/>
       </c>
       <c r="G59" s="102" t="str">
-        <f>IF(N2O_consq!G59="", "", N2O_consq!G59)</f>
+        <f>IF(N2O_ev391consq!G59="", "", N2O_ev391consq!G59)</f>
         <v>production</v>
       </c>
       <c r="H59" s="111" t="str">
-        <f>IF(N2O_consq!H59=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H59=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I59" s="111" t="str">
-        <f>IF(N2O_consq!I59="", "", N2O_consq!I59)</f>
+        <f>IF(N2O_ev391consq!I59="", "", N2O_ev391consq!I59)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="102" t="str">
-        <f>IF(N2O_consq!A60="", "", N2O_consq!A60)</f>
+        <f>IF(N2O_ev391consq!A60="", "", N2O_ev391consq!A60)</f>
         <v>market for alkyd paint, white, without solvent, in 60% solution state</v>
       </c>
       <c r="B60" s="112">
-        <f>IF(N2O_consq!B60="", "", N2O_consq!B60)</f>
+        <f>IF(N2O_ev391consq!B60="", "", N2O_ev391consq!B60)</f>
         <v>1.420733</v>
       </c>
       <c r="C60" s="102" t="str">
-        <f>IF(N2O_consq!C60="", "", N2O_consq!C60)</f>
+        <f>IF(N2O_ev391consq!C60="", "", N2O_ev391consq!C60)</f>
         <v>alkyd paint, white, without solvent, in 60% solution state</v>
       </c>
       <c r="D60" s="102" t="str">
-        <f>IF(N2O_consq!D60="", "", N2O_consq!D60)</f>
+        <f>IF(N2O_ev391consq!D60="", "", N2O_ev391consq!D60)</f>
         <v>RER</v>
       </c>
       <c r="E60" s="102" t="str">
-        <f>IF(N2O_consq!E60="", "", N2O_consq!E60)</f>
+        <f>IF(N2O_ev391consq!E60="", "", N2O_ev391consq!E60)</f>
         <v>kilogram</v>
       </c>
       <c r="F60" s="102" t="str">
-        <f>IF(N2O_consq!F60="", "", N2O_consq!F60)</f>
+        <f>IF(N2O_ev391consq!F60="", "", N2O_ev391consq!F60)</f>
         <v/>
       </c>
       <c r="G60" s="102" t="str">
-        <f>IF(N2O_consq!G60="", "", N2O_consq!G60)</f>
+        <f>IF(N2O_ev391consq!G60="", "", N2O_ev391consq!G60)</f>
         <v>technosphere</v>
       </c>
       <c r="H60" s="102" t="str">
-        <f>IF(N2O_consq!H60=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H60=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I60" s="102" t="str">
-        <f>IF(N2O_consq!I60="", "", N2O_consq!I60)</f>
+        <f>IF(N2O_ev391consq!I60="", "", N2O_ev391consq!I60)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="102" t="str">
-        <f>IF(N2O_consq!A61="", "", N2O_consq!A61)</f>
+        <f>IF(N2O_ev391consq!A61="", "", N2O_ev391consq!A61)</f>
         <v>market for heat, district or industrial, natural gas</v>
       </c>
       <c r="B61" s="112">
-        <f>IF(N2O_consq!B61="", "", N2O_consq!B61)</f>
+        <f>IF(N2O_ev391consq!B61="", "", N2O_ev391consq!B61)</f>
         <v>0.24002499999999999</v>
       </c>
       <c r="C61" s="102" t="str">
-        <f>IF(N2O_consq!C61="", "", N2O_consq!C61)</f>
+        <f>IF(N2O_ev391consq!C61="", "", N2O_ev391consq!C61)</f>
         <v>heat, district or industrial, natural gas</v>
       </c>
       <c r="D61" s="102" t="str">
-        <f>IF(N2O_consq!D61="", "", N2O_consq!D61)</f>
+        <f>IF(N2O_ev391consq!D61="", "", N2O_ev391consq!D61)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E61" s="102" t="str">
-        <f>IF(N2O_consq!E61="", "", N2O_consq!E61)</f>
+        <f>IF(N2O_ev391consq!E61="", "", N2O_ev391consq!E61)</f>
         <v>megajoule</v>
       </c>
       <c r="F61" s="102" t="str">
-        <f>IF(N2O_consq!F61="", "", N2O_consq!F61)</f>
+        <f>IF(N2O_ev391consq!F61="", "", N2O_ev391consq!F61)</f>
         <v/>
       </c>
       <c r="G61" s="102" t="str">
-        <f>IF(N2O_consq!G61="", "", N2O_consq!G61)</f>
+        <f>IF(N2O_ev391consq!G61="", "", N2O_ev391consq!G61)</f>
         <v>technosphere</v>
       </c>
       <c r="H61" s="102" t="str">
-        <f>IF(N2O_consq!H61=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H61=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I61" s="102" t="str">
-        <f>IF(N2O_consq!I61="", "", N2O_consq!I61)</f>
+        <f>IF(N2O_ev391consq!I61="", "", N2O_ev391consq!I61)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="102" t="str">
-        <f>IF(N2O_consq!A62="", "", N2O_consq!A62)</f>
+        <f>IF(N2O_ev391consq!A62="", "", N2O_ev391consq!A62)</f>
         <v>market for heat, district or industrial, other than natural gas</v>
       </c>
       <c r="B62" s="112">
-        <f>IF(N2O_consq!B62="", "", N2O_consq!B62)</f>
+        <f>IF(N2O_ev391consq!B62="", "", N2O_ev391consq!B62)</f>
         <v>35.669589999999999</v>
       </c>
       <c r="C62" s="102" t="str">
-        <f>IF(N2O_consq!C62="", "", N2O_consq!C62)</f>
+        <f>IF(N2O_ev391consq!C62="", "", N2O_ev391consq!C62)</f>
         <v>heat, district or industrial, other than natural gas</v>
       </c>
       <c r="D62" s="102" t="str">
-        <f>IF(N2O_consq!D62="", "", N2O_consq!D62)</f>
+        <f>IF(N2O_ev391consq!D62="", "", N2O_ev391consq!D62)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E62" s="102" t="str">
-        <f>IF(N2O_consq!E62="", "", N2O_consq!E62)</f>
+        <f>IF(N2O_ev391consq!E62="", "", N2O_ev391consq!E62)</f>
         <v>megajoule</v>
       </c>
       <c r="F62" s="102" t="str">
-        <f>IF(N2O_consq!F62="", "", N2O_consq!F62)</f>
+        <f>IF(N2O_ev391consq!F62="", "", N2O_ev391consq!F62)</f>
         <v/>
       </c>
       <c r="G62" s="102" t="str">
-        <f>IF(N2O_consq!G62="", "", N2O_consq!G62)</f>
+        <f>IF(N2O_ev391consq!G62="", "", N2O_ev391consq!G62)</f>
         <v>technosphere</v>
       </c>
       <c r="H62" s="102" t="str">
-        <f>IF(N2O_consq!H62=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H62=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I62" s="102" t="str">
-        <f>IF(N2O_consq!I62="", "", N2O_consq!I62)</f>
+        <f>IF(N2O_ev391consq!I62="", "", N2O_ev391consq!I62)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="102" t="str">
-        <f>IF(N2O_consq!A63="", "", N2O_consq!A63)</f>
+        <f>IF(N2O_ev391consq!A63="", "", N2O_ev391consq!A63)</f>
         <v>market for hot water tank factory</v>
       </c>
       <c r="B63" s="109">
-        <f>IF(N2O_consq!B63="", "", N2O_consq!B63)</f>
+        <f>IF(N2O_ev391consq!B63="", "", N2O_ev391consq!B63)</f>
         <v>5.1799999999999995E-7</v>
       </c>
       <c r="C63" s="102" t="str">
-        <f>IF(N2O_consq!C63="", "", N2O_consq!C63)</f>
+        <f>IF(N2O_ev391consq!C63="", "", N2O_ev391consq!C63)</f>
         <v>hot water tank factory</v>
       </c>
       <c r="D63" s="102" t="str">
-        <f>IF(N2O_consq!D63="", "", N2O_consq!D63)</f>
+        <f>IF(N2O_ev391consq!D63="", "", N2O_ev391consq!D63)</f>
         <v>GLO</v>
       </c>
       <c r="E63" s="102" t="str">
-        <f>IF(N2O_consq!E63="", "", N2O_consq!E63)</f>
+        <f>IF(N2O_ev391consq!E63="", "", N2O_ev391consq!E63)</f>
         <v>unit</v>
       </c>
       <c r="F63" s="102" t="str">
-        <f>IF(N2O_consq!F63="", "", N2O_consq!F63)</f>
+        <f>IF(N2O_ev391consq!F63="", "", N2O_ev391consq!F63)</f>
         <v/>
       </c>
       <c r="G63" s="102" t="str">
-        <f>IF(N2O_consq!G63="", "", N2O_consq!G63)</f>
+        <f>IF(N2O_ev391consq!G63="", "", N2O_ev391consq!G63)</f>
         <v>technosphere</v>
       </c>
       <c r="H63" s="102" t="str">
-        <f>IF(N2O_consq!H63=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H63=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I63" s="102" t="str">
-        <f>IF(N2O_consq!I63="", "", N2O_consq!I63)</f>
+        <f>IF(N2O_ev391consq!I63="", "", N2O_ev391consq!I63)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="102" t="str">
-        <f>IF(N2O_consq!A64="", "", N2O_consq!A64)</f>
+        <f>IF(N2O_ev391consq!A64="", "", N2O_ev391consq!A64)</f>
         <v>market for tap water</v>
       </c>
       <c r="B64" s="112">
-        <f>IF(N2O_consq!B64="", "", N2O_consq!B64)</f>
+        <f>IF(N2O_ev391consq!B64="", "", N2O_ev391consq!B64)</f>
         <v>159.82669999999999</v>
       </c>
       <c r="C64" s="102" t="str">
-        <f>IF(N2O_consq!C64="", "", N2O_consq!C64)</f>
+        <f>IF(N2O_ev391consq!C64="", "", N2O_ev391consq!C64)</f>
         <v>tap water</v>
       </c>
       <c r="D64" s="102" t="str">
-        <f>IF(N2O_consq!D64="", "", N2O_consq!D64)</f>
+        <f>IF(N2O_ev391consq!D64="", "", N2O_ev391consq!D64)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E64" s="102" t="str">
-        <f>IF(N2O_consq!E64="", "", N2O_consq!E64)</f>
+        <f>IF(N2O_ev391consq!E64="", "", N2O_ev391consq!E64)</f>
         <v>kilogram</v>
       </c>
       <c r="F64" s="102" t="str">
-        <f>IF(N2O_consq!F64="", "", N2O_consq!F64)</f>
+        <f>IF(N2O_ev391consq!F64="", "", N2O_ev391consq!F64)</f>
         <v/>
       </c>
       <c r="G64" s="102" t="str">
-        <f>IF(N2O_consq!G64="", "", N2O_consq!G64)</f>
+        <f>IF(N2O_ev391consq!G64="", "", N2O_ev391consq!G64)</f>
         <v>technosphere</v>
       </c>
       <c r="H64" s="102" t="str">
-        <f>IF(N2O_consq!H64=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H64=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I64" s="102" t="str">
-        <f>IF(N2O_consq!I64="", "", N2O_consq!I64)</f>
+        <f>IF(N2O_ev391consq!I64="", "", N2O_ev391consq!I64)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="102" t="str">
-        <f>IF(N2O_consq!A65="", "", N2O_consq!A65)</f>
+        <f>IF(N2O_ev391consq!A65="", "", N2O_ev391consq!A65)</f>
         <v>market group for electricity, low voltage</v>
       </c>
       <c r="B65" s="112">
-        <f>IF(N2O_consq!B65="", "", N2O_consq!B65)</f>
+        <f>IF(N2O_ev391consq!B65="", "", N2O_ev391consq!B65)</f>
         <v>8.9886330000000001</v>
       </c>
       <c r="C65" s="102" t="str">
-        <f>IF(N2O_consq!C65="", "", N2O_consq!C65)</f>
+        <f>IF(N2O_ev391consq!C65="", "", N2O_ev391consq!C65)</f>
         <v>electricity, low voltage</v>
       </c>
       <c r="D65" s="102" t="str">
-        <f>IF(N2O_consq!D65="", "", N2O_consq!D65)</f>
+        <f>IF(N2O_ev391consq!D65="", "", N2O_ev391consq!D65)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E65" s="102" t="str">
-        <f>IF(N2O_consq!E65="", "", N2O_consq!E65)</f>
+        <f>IF(N2O_ev391consq!E65="", "", N2O_ev391consq!E65)</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F65" s="102" t="str">
-        <f>IF(N2O_consq!F65="", "", N2O_consq!F65)</f>
+        <f>IF(N2O_ev391consq!F65="", "", N2O_ev391consq!F65)</f>
         <v/>
       </c>
       <c r="G65" s="102" t="str">
-        <f>IF(N2O_consq!G65="", "", N2O_consq!G65)</f>
+        <f>IF(N2O_ev391consq!G65="", "", N2O_ev391consq!G65)</f>
         <v>technosphere</v>
       </c>
       <c r="H65" s="102" t="str">
-        <f>IF(N2O_consq!H65=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H65=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I65" s="102" t="str">
-        <f>IF(N2O_consq!I65="", "", N2O_consq!I65)</f>
+        <f>IF(N2O_ev391consq!I65="", "", N2O_ev391consq!I65)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="102" t="str">
-        <f>IF(N2O_consq!A66="", "", N2O_consq!A66)</f>
+        <f>IF(N2O_ev391consq!A66="", "", N2O_ev391consq!A66)</f>
         <v>market group for electricity, medium voltage</v>
       </c>
       <c r="B66" s="112">
-        <f>IF(N2O_consq!B66="", "", N2O_consq!B66)</f>
+        <f>IF(N2O_ev391consq!B66="", "", N2O_ev391consq!B66)</f>
         <v>32.359078799999999</v>
       </c>
       <c r="C66" s="102" t="str">
-        <f>IF(N2O_consq!C66="", "", N2O_consq!C66)</f>
+        <f>IF(N2O_ev391consq!C66="", "", N2O_ev391consq!C66)</f>
         <v>electricity, medium voltage</v>
       </c>
       <c r="D66" s="102" t="str">
-        <f>IF(N2O_consq!D66="", "", N2O_consq!D66)</f>
+        <f>IF(N2O_ev391consq!D66="", "", N2O_ev391consq!D66)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E66" s="102" t="str">
-        <f>IF(N2O_consq!E66="", "", N2O_consq!E66)</f>
+        <f>IF(N2O_ev391consq!E66="", "", N2O_ev391consq!E66)</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F66" s="102" t="str">
-        <f>IF(N2O_consq!F66="", "", N2O_consq!F66)</f>
+        <f>IF(N2O_ev391consq!F66="", "", N2O_ev391consq!F66)</f>
         <v/>
       </c>
       <c r="G66" s="102" t="str">
-        <f>IF(N2O_consq!G66="", "", N2O_consq!G66)</f>
+        <f>IF(N2O_ev391consq!G66="", "", N2O_ev391consq!G66)</f>
         <v>technosphere</v>
       </c>
       <c r="H66" s="102" t="str">
-        <f>IF(N2O_consq!H66=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H66=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I66" s="102" t="str">
-        <f>IF(N2O_consq!I66="", "", N2O_consq!I66)</f>
+        <f>IF(N2O_ev391consq!I66="", "", N2O_ev391consq!I66)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="102" t="str">
-        <f>IF(N2O_consq!A67="", "", N2O_consq!A67)</f>
+        <f>IF(N2O_ev391consq!A67="", "", N2O_ev391consq!A67)</f>
         <v>steel production, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="B67" s="112">
-        <f>IF(N2O_consq!B67="", "", N2O_consq!B67)</f>
+        <f>IF(N2O_ev391consq!B67="", "", N2O_ev391consq!B67)</f>
         <v>67.349990000000005</v>
       </c>
       <c r="C67" s="102" t="str">
-        <f>IF(N2O_consq!C67="", "", N2O_consq!C67)</f>
+        <f>IF(N2O_ev391consq!C67="", "", N2O_ev391consq!C67)</f>
         <v>steel, chromium steel 18/8, hot rolled</v>
       </c>
       <c r="D67" s="102" t="str">
-        <f>IF(N2O_consq!D67="", "", N2O_consq!D67)</f>
+        <f>IF(N2O_ev391consq!D67="", "", N2O_ev391consq!D67)</f>
         <v>RER</v>
       </c>
       <c r="E67" s="102" t="str">
-        <f>IF(N2O_consq!E67="", "", N2O_consq!E67)</f>
+        <f>IF(N2O_ev391consq!E67="", "", N2O_ev391consq!E67)</f>
         <v>kilogram</v>
       </c>
       <c r="F67" s="102" t="str">
-        <f>IF(N2O_consq!F67="", "", N2O_consq!F67)</f>
+        <f>IF(N2O_ev391consq!F67="", "", N2O_ev391consq!F67)</f>
         <v/>
       </c>
       <c r="G67" s="102" t="str">
-        <f>IF(N2O_consq!G67="", "", N2O_consq!G67)</f>
+        <f>IF(N2O_ev391consq!G67="", "", N2O_ev391consq!G67)</f>
         <v>technosphere</v>
       </c>
       <c r="H67" s="102" t="str">
-        <f>IF(N2O_consq!H67=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H67=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I67" s="102" t="str">
-        <f>IF(N2O_consq!I67="", "", N2O_consq!I67)</f>
+        <f>IF(N2O_ev391consq!I67="", "", N2O_ev391consq!I67)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="102" t="str">
-        <f>IF(N2O_consq!A68="", "", N2O_consq!A68)</f>
+        <f>IF(N2O_ev391consq!A68="", "", N2O_ev391consq!A68)</f>
         <v>welding, arc, steel</v>
       </c>
       <c r="B68" s="112">
-        <f>IF(N2O_consq!B68="", "", N2O_consq!B68)</f>
+        <f>IF(N2O_ev391consq!B68="", "", N2O_ev391consq!B68)</f>
         <v>1256.53</v>
       </c>
       <c r="C68" s="102" t="str">
-        <f>IF(N2O_consq!C68="", "", N2O_consq!C68)</f>
+        <f>IF(N2O_ev391consq!C68="", "", N2O_ev391consq!C68)</f>
         <v>welding, arc, steel</v>
       </c>
       <c r="D68" s="102" t="str">
-        <f>IF(N2O_consq!D68="", "", N2O_consq!D68)</f>
+        <f>IF(N2O_ev391consq!D68="", "", N2O_ev391consq!D68)</f>
         <v>RER</v>
       </c>
       <c r="E68" s="102" t="str">
-        <f>IF(N2O_consq!E68="", "", N2O_consq!E68)</f>
+        <f>IF(N2O_ev391consq!E68="", "", N2O_ev391consq!E68)</f>
         <v>meter</v>
       </c>
       <c r="F68" s="102" t="str">
-        <f>IF(N2O_consq!F68="", "", N2O_consq!F68)</f>
+        <f>IF(N2O_ev391consq!F68="", "", N2O_ev391consq!F68)</f>
         <v/>
       </c>
       <c r="G68" s="102" t="str">
-        <f>IF(N2O_consq!G68="", "", N2O_consq!G68)</f>
+        <f>IF(N2O_ev391consq!G68="", "", N2O_ev391consq!G68)</f>
         <v>technosphere</v>
       </c>
       <c r="H68" s="102" t="str">
-        <f>IF(N2O_consq!H68=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H68=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I68" s="102" t="str">
-        <f>IF(N2O_consq!I68="", "", N2O_consq!I68)</f>
+        <f>IF(N2O_ev391consq!I68="", "", N2O_ev391consq!I68)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="102" t="str">
-        <f>IF(N2O_consq!A69="", "", N2O_consq!A69)</f>
+        <f>IF(N2O_ev391consq!A69="", "", N2O_ev391consq!A69)</f>
         <v>Water</v>
       </c>
       <c r="B69" s="102">
-        <f>IF(N2O_consq!B69="", "", N2O_consq!B69)</f>
+        <f>IF(N2O_ev391consq!B69="", "", N2O_ev391consq!B69)</f>
         <v>2.3972E-2</v>
       </c>
       <c r="C69" s="102" t="str">
-        <f>IF(N2O_consq!C69="", "", N2O_consq!C69)</f>
+        <f>IF(N2O_ev391consq!C69="", "", N2O_ev391consq!C69)</f>
         <v/>
       </c>
       <c r="D69" s="102" t="str">
-        <f>IF(N2O_consq!D69="", "", N2O_consq!D69)</f>
+        <f>IF(N2O_ev391consq!D69="", "", N2O_ev391consq!D69)</f>
         <v/>
       </c>
       <c r="E69" s="102" t="str">
-        <f>IF(N2O_consq!E69="", "", N2O_consq!E69)</f>
+        <f>IF(N2O_ev391consq!E69="", "", N2O_ev391consq!E69)</f>
         <v>cubic meter</v>
       </c>
       <c r="F69" s="102" t="str">
-        <f>IF(N2O_consq!F69="", "", N2O_consq!F69)</f>
+        <f>IF(N2O_ev391consq!F69="", "", N2O_ev391consq!F69)</f>
         <v>water</v>
       </c>
       <c r="G69" s="102" t="str">
-        <f>IF(N2O_consq!G69="", "", N2O_consq!G69)</f>
+        <f>IF(N2O_ev391consq!G69="", "", N2O_ev391consq!G69)</f>
         <v>biosphere</v>
       </c>
       <c r="H69" s="102" t="str">
-        <f>IF(N2O_consq!H69="", "", N2O_consq!H69)</f>
+        <f>IF(N2O_ev391consq!H69="", "", N2O_ev391consq!H69)</f>
         <v>biosphere3</v>
       </c>
       <c r="I69" s="102" t="str">
-        <f>IF(N2O_consq!I69="", "", N2O_consq!I69)</f>
+        <f>IF(N2O_ev391consq!I69="", "", N2O_ev391consq!I69)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="44" t="str">
-        <f>IF(N2O_consq!A70="", "", N2O_consq!A70)</f>
+        <f>IF(N2O_ev391consq!A70="", "", N2O_ev391consq!A70)</f>
         <v/>
       </c>
       <c r="B70" s="54" t="str">
-        <f>IF(N2O_consq!B70="", "", N2O_consq!B70)</f>
+        <f>IF(N2O_ev391consq!B70="", "", N2O_ev391consq!B70)</f>
         <v/>
       </c>
       <c r="C70" s="44" t="str">
-        <f>IF(N2O_consq!C70="", "", N2O_consq!C70)</f>
+        <f>IF(N2O_ev391consq!C70="", "", N2O_ev391consq!C70)</f>
         <v/>
       </c>
       <c r="D70" s="44" t="str">
-        <f>IF(N2O_consq!D70="", "", N2O_consq!D70)</f>
+        <f>IF(N2O_ev391consq!D70="", "", N2O_ev391consq!D70)</f>
         <v/>
       </c>
       <c r="E70" s="44" t="str">
-        <f>IF(N2O_consq!E70="", "", N2O_consq!E70)</f>
+        <f>IF(N2O_ev391consq!E70="", "", N2O_ev391consq!E70)</f>
         <v/>
       </c>
       <c r="F70" s="44" t="str">
-        <f>IF(N2O_consq!F70="", "", N2O_consq!F70)</f>
+        <f>IF(N2O_ev391consq!F70="", "", N2O_ev391consq!F70)</f>
         <v/>
       </c>
       <c r="G70" s="44" t="str">
-        <f>IF(N2O_consq!G70="", "", N2O_consq!G70)</f>
+        <f>IF(N2O_ev391consq!G70="", "", N2O_ev391consq!G70)</f>
         <v/>
       </c>
       <c r="H70" s="44"/>
       <c r="I70" s="44" t="str">
-        <f>IF(N2O_consq!I70="", "", N2O_consq!I70)</f>
+        <f>IF(N2O_ev391consq!I70="", "", N2O_ev391consq!I70)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="113" t="str">
-        <f>IF(N2O_consq!A71="", "", N2O_consq!A71)</f>
+        <f>IF(N2O_ev391consq!A71="", "", N2O_ev391consq!A71)</f>
         <v>Activity</v>
       </c>
       <c r="B71" s="114" t="str">
-        <f>IF(N2O_consq!B71="", "", N2O_consq!B71)</f>
+        <f>IF(N2O_ev391consq!B71="", "", N2O_ev391consq!B71)</f>
         <v>Compresser opration</v>
       </c>
       <c r="C71" s="115" t="str">
-        <f>IF(N2O_consq!C71="", "", N2O_consq!C71)</f>
+        <f>IF(N2O_ev391consq!C71="", "", N2O_ev391consq!C71)</f>
         <v/>
       </c>
       <c r="D71" s="116" t="str">
-        <f>IF(N2O_consq!D71="", "", N2O_consq!D71)</f>
+        <f>IF(N2O_ev391consq!D71="", "", N2O_ev391consq!D71)</f>
         <v/>
       </c>
       <c r="E71" s="115" t="str">
-        <f>IF(N2O_consq!E71="", "", N2O_consq!E71)</f>
+        <f>IF(N2O_ev391consq!E71="", "", N2O_ev391consq!E71)</f>
         <v/>
       </c>
       <c r="F71" s="117" t="str">
-        <f>IF(N2O_consq!F71="", "", N2O_consq!F71)</f>
+        <f>IF(N2O_ev391consq!F71="", "", N2O_ev391consq!F71)</f>
         <v/>
       </c>
       <c r="G71" s="115" t="str">
-        <f>IF(N2O_consq!G71="", "", N2O_consq!G71)</f>
+        <f>IF(N2O_ev391consq!G71="", "", N2O_ev391consq!G71)</f>
         <v/>
       </c>
       <c r="H71" s="115"/>
       <c r="I71" s="115" t="str">
-        <f>IF(N2O_consq!I71="", "", N2O_consq!I71)</f>
+        <f>IF(N2O_ev391consq!I71="", "", N2O_ev391consq!I71)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="118" t="str">
-        <f>IF(N2O_consq!A72="", "", N2O_consq!A72)</f>
+        <f>IF(N2O_ev391consq!A72="", "", N2O_ev391consq!A72)</f>
         <v>production amount</v>
       </c>
       <c r="B72" s="119">
-        <f>IF(N2O_consq!B72="", "", N2O_consq!B72)</f>
+        <f>IF(N2O_ev391consq!B72="", "", N2O_ev391consq!B72)</f>
         <v>1</v>
       </c>
       <c r="C72" s="115" t="str">
-        <f>IF(N2O_consq!C72="", "", N2O_consq!C72)</f>
+        <f>IF(N2O_ev391consq!C72="", "", N2O_ev391consq!C72)</f>
         <v/>
       </c>
       <c r="D72" s="115" t="str">
-        <f>IF(N2O_consq!D72="", "", N2O_consq!D72)</f>
+        <f>IF(N2O_ev391consq!D72="", "", N2O_ev391consq!D72)</f>
         <v/>
       </c>
       <c r="E72" s="115" t="str">
-        <f>IF(N2O_consq!E72="", "", N2O_consq!E72)</f>
+        <f>IF(N2O_ev391consq!E72="", "", N2O_ev391consq!E72)</f>
         <v/>
       </c>
       <c r="F72" s="117" t="str">
-        <f>IF(N2O_consq!F72="", "", N2O_consq!F72)</f>
+        <f>IF(N2O_ev391consq!F72="", "", N2O_ev391consq!F72)</f>
         <v/>
       </c>
       <c r="G72" s="115" t="str">
-        <f>IF(N2O_consq!G72="", "", N2O_consq!G72)</f>
+        <f>IF(N2O_ev391consq!G72="", "", N2O_ev391consq!G72)</f>
         <v/>
       </c>
       <c r="H72" s="115"/>
       <c r="I72" s="115" t="str">
-        <f>IF(N2O_consq!I72="", "", N2O_consq!I72)</f>
+        <f>IF(N2O_ev391consq!I72="", "", N2O_ev391consq!I72)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="118" t="str">
-        <f>IF(N2O_consq!A73="", "", N2O_consq!A73)</f>
+        <f>IF(N2O_ev391consq!A73="", "", N2O_ev391consq!A73)</f>
         <v>reference product</v>
       </c>
       <c r="B73" s="117" t="str">
-        <f>IF(N2O_consq!B73="", "", N2O_consq!B73)</f>
+        <f>IF(N2O_ev391consq!B73="", "", N2O_ev391consq!B73)</f>
         <v>Compresser opration</v>
       </c>
       <c r="C73" s="115" t="str">
-        <f>IF(N2O_consq!C73="", "", N2O_consq!C73)</f>
+        <f>IF(N2O_ev391consq!C73="", "", N2O_ev391consq!C73)</f>
         <v/>
       </c>
       <c r="D73" s="115" t="str">
-        <f>IF(N2O_consq!D73="", "", N2O_consq!D73)</f>
+        <f>IF(N2O_ev391consq!D73="", "", N2O_ev391consq!D73)</f>
         <v/>
       </c>
       <c r="E73" s="115" t="str">
-        <f>IF(N2O_consq!E73="", "", N2O_consq!E73)</f>
+        <f>IF(N2O_ev391consq!E73="", "", N2O_ev391consq!E73)</f>
         <v/>
       </c>
       <c r="F73" s="117" t="str">
-        <f>IF(N2O_consq!F73="", "", N2O_consq!F73)</f>
+        <f>IF(N2O_ev391consq!F73="", "", N2O_ev391consq!F73)</f>
         <v/>
       </c>
       <c r="G73" s="115" t="str">
-        <f>IF(N2O_consq!G73="", "", N2O_consq!G73)</f>
+        <f>IF(N2O_ev391consq!G73="", "", N2O_ev391consq!G73)</f>
         <v/>
       </c>
       <c r="H73" s="115"/>
       <c r="I73" s="115" t="str">
-        <f>IF(N2O_consq!I73="", "", N2O_consq!I73)</f>
+        <f>IF(N2O_ev391consq!I73="", "", N2O_ev391consq!I73)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="118" t="str">
-        <f>IF(N2O_consq!A74="", "", N2O_consq!A74)</f>
+        <f>IF(N2O_ev391consq!A74="", "", N2O_ev391consq!A74)</f>
         <v>location</v>
       </c>
       <c r="B74" s="119" t="str">
-        <f>IF(N2O_consq!B74="", "", N2O_consq!B74)</f>
+        <f>IF(N2O_ev391consq!B74="", "", N2O_ev391consq!B74)</f>
         <v>RER</v>
       </c>
       <c r="C74" s="115" t="str">
-        <f>IF(N2O_consq!C74="", "", N2O_consq!C74)</f>
+        <f>IF(N2O_ev391consq!C74="", "", N2O_ev391consq!C74)</f>
         <v/>
       </c>
       <c r="D74" s="115" t="str">
-        <f>IF(N2O_consq!D74="", "", N2O_consq!D74)</f>
+        <f>IF(N2O_ev391consq!D74="", "", N2O_ev391consq!D74)</f>
         <v/>
       </c>
       <c r="E74" s="115" t="str">
-        <f>IF(N2O_consq!E74="", "", N2O_consq!E74)</f>
+        <f>IF(N2O_ev391consq!E74="", "", N2O_ev391consq!E74)</f>
         <v/>
       </c>
       <c r="F74" s="117" t="str">
-        <f>IF(N2O_consq!F74="", "", N2O_consq!F74)</f>
+        <f>IF(N2O_ev391consq!F74="", "", N2O_ev391consq!F74)</f>
         <v/>
       </c>
       <c r="G74" s="115" t="str">
-        <f>IF(N2O_consq!G74="", "", N2O_consq!G74)</f>
+        <f>IF(N2O_ev391consq!G74="", "", N2O_ev391consq!G74)</f>
         <v/>
       </c>
       <c r="H74" s="115"/>
       <c r="I74" s="115" t="str">
-        <f>IF(N2O_consq!I74="", "", N2O_consq!I74)</f>
+        <f>IF(N2O_ev391consq!I74="", "", N2O_ev391consq!I74)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="118" t="str">
-        <f>IF(N2O_consq!A75="", "", N2O_consq!A75)</f>
+        <f>IF(N2O_ev391consq!A75="", "", N2O_ev391consq!A75)</f>
         <v>unit</v>
       </c>
       <c r="B75" s="120" t="str">
-        <f>IF(N2O_consq!B75="", "", N2O_consq!B75)</f>
+        <f>IF(N2O_ev391consq!B75="", "", N2O_ev391consq!B75)</f>
         <v>unit</v>
       </c>
       <c r="C75" s="115" t="str">
-        <f>IF(N2O_consq!C75="", "", N2O_consq!C75)</f>
+        <f>IF(N2O_ev391consq!C75="", "", N2O_ev391consq!C75)</f>
         <v/>
       </c>
       <c r="D75" s="115" t="str">
-        <f>IF(N2O_consq!D75="", "", N2O_consq!D75)</f>
+        <f>IF(N2O_ev391consq!D75="", "", N2O_ev391consq!D75)</f>
         <v/>
       </c>
       <c r="E75" s="115" t="str">
-        <f>IF(N2O_consq!E75="", "", N2O_consq!E75)</f>
+        <f>IF(N2O_ev391consq!E75="", "", N2O_ev391consq!E75)</f>
         <v/>
       </c>
       <c r="F75" s="117" t="str">
-        <f>IF(N2O_consq!F75="", "", N2O_consq!F75)</f>
+        <f>IF(N2O_ev391consq!F75="", "", N2O_ev391consq!F75)</f>
         <v/>
       </c>
       <c r="G75" s="115" t="str">
-        <f>IF(N2O_consq!G75="", "", N2O_consq!G75)</f>
+        <f>IF(N2O_ev391consq!G75="", "", N2O_ev391consq!G75)</f>
         <v/>
       </c>
       <c r="H75" s="115"/>
       <c r="I75" s="115" t="str">
-        <f>IF(N2O_consq!I75="", "", N2O_consq!I75)</f>
+        <f>IF(N2O_ev391consq!I75="", "", N2O_ev391consq!I75)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="121" t="str">
-        <f>IF(N2O_consq!A76="", "", N2O_consq!A76)</f>
+        <f>IF(N2O_ev391consq!A76="", "", N2O_ev391consq!A76)</f>
         <v>Exchanges</v>
       </c>
       <c r="B76" s="122" t="str">
-        <f>IF(N2O_consq!B76="", "", N2O_consq!B76)</f>
+        <f>IF(N2O_ev391consq!B76="", "", N2O_ev391consq!B76)</f>
         <v/>
       </c>
       <c r="C76" s="121" t="str">
-        <f>IF(N2O_consq!C76="", "", N2O_consq!C76)</f>
+        <f>IF(N2O_ev391consq!C76="", "", N2O_ev391consq!C76)</f>
         <v/>
       </c>
       <c r="D76" s="121" t="str">
-        <f>IF(N2O_consq!D76="", "", N2O_consq!D76)</f>
+        <f>IF(N2O_ev391consq!D76="", "", N2O_ev391consq!D76)</f>
         <v/>
       </c>
       <c r="E76" s="121" t="str">
-        <f>IF(N2O_consq!E76="", "", N2O_consq!E76)</f>
+        <f>IF(N2O_ev391consq!E76="", "", N2O_ev391consq!E76)</f>
         <v/>
       </c>
       <c r="F76" s="117" t="str">
-        <f>IF(N2O_consq!F76="", "", N2O_consq!F76)</f>
+        <f>IF(N2O_ev391consq!F76="", "", N2O_ev391consq!F76)</f>
         <v/>
       </c>
       <c r="G76" s="121" t="str">
-        <f>IF(N2O_consq!G76="", "", N2O_consq!G76)</f>
+        <f>IF(N2O_ev391consq!G76="", "", N2O_ev391consq!G76)</f>
         <v/>
       </c>
       <c r="H76" s="121"/>
       <c r="I76" s="121" t="str">
-        <f>IF(N2O_consq!I76="", "", N2O_consq!I76)</f>
+        <f>IF(N2O_ev391consq!I76="", "", N2O_ev391consq!I76)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="121" t="str">
-        <f>IF(N2O_consq!A77="", "", N2O_consq!A77)</f>
+        <f>IF(N2O_ev391consq!A77="", "", N2O_ev391consq!A77)</f>
         <v>name</v>
       </c>
       <c r="B77" s="122" t="str">
-        <f>IF(N2O_consq!B77="", "", N2O_consq!B77)</f>
+        <f>IF(N2O_ev391consq!B77="", "", N2O_ev391consq!B77)</f>
         <v>amount</v>
       </c>
       <c r="C77" s="121" t="str">
-        <f>IF(N2O_consq!C77="", "", N2O_consq!C77)</f>
+        <f>IF(N2O_ev391consq!C77="", "", N2O_ev391consq!C77)</f>
         <v>reference product</v>
       </c>
       <c r="D77" s="121" t="str">
-        <f>IF(N2O_consq!D77="", "", N2O_consq!D77)</f>
+        <f>IF(N2O_ev391consq!D77="", "", N2O_ev391consq!D77)</f>
         <v>location</v>
       </c>
       <c r="E77" s="121" t="str">
-        <f>IF(N2O_consq!E77="", "", N2O_consq!E77)</f>
+        <f>IF(N2O_ev391consq!E77="", "", N2O_ev391consq!E77)</f>
         <v>unit</v>
       </c>
       <c r="F77" s="123" t="str">
-        <f>IF(N2O_consq!F77="", "", N2O_consq!F77)</f>
+        <f>IF(N2O_ev391consq!F77="", "", N2O_ev391consq!F77)</f>
         <v>categories</v>
       </c>
       <c r="G77" s="121" t="str">
-        <f>IF(N2O_consq!G77="", "", N2O_consq!G77)</f>
+        <f>IF(N2O_ev391consq!G77="", "", N2O_ev391consq!G77)</f>
         <v>type</v>
       </c>
       <c r="H77" s="121" t="str">
-        <f>IF(N2O_consq!H77="", "", N2O_consq!H77)</f>
+        <f>IF(N2O_ev391consq!H77="", "", N2O_ev391consq!H77)</f>
         <v>database</v>
       </c>
       <c r="I77" s="121" t="str">
-        <f>IF(N2O_consq!I77="", "", N2O_consq!I77)</f>
+        <f>IF(N2O_ev391consq!I77="", "", N2O_ev391consq!I77)</f>
         <v>comment</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="124" t="str">
-        <f>IF(N2O_consq!A78="", "", N2O_consq!A78)</f>
+        <f>IF(N2O_ev391consq!A78="", "", N2O_ev391consq!A78)</f>
         <v>Compresser opration</v>
       </c>
       <c r="B78" s="125">
-        <f>IF(N2O_consq!B78="", "", N2O_consq!B78)</f>
+        <f>IF(N2O_ev391consq!B78="", "", N2O_ev391consq!B78)</f>
         <v>1</v>
       </c>
       <c r="C78" s="124" t="str">
-        <f>IF(N2O_consq!C78="", "", N2O_consq!C78)</f>
+        <f>IF(N2O_ev391consq!C78="", "", N2O_ev391consq!C78)</f>
         <v>Compresser opration</v>
       </c>
       <c r="D78" s="124" t="str">
-        <f>IF(N2O_consq!D78="", "", N2O_consq!D78)</f>
+        <f>IF(N2O_ev391consq!D78="", "", N2O_ev391consq!D78)</f>
         <v>RER</v>
       </c>
       <c r="E78" s="124" t="str">
-        <f>IF(N2O_consq!E78="", "", N2O_consq!E78)</f>
+        <f>IF(N2O_ev391consq!E78="", "", N2O_ev391consq!E78)</f>
         <v>unit</v>
       </c>
       <c r="F78" s="117" t="str">
-        <f>IF(N2O_consq!F78="", "", N2O_consq!F78)</f>
+        <f>IF(N2O_ev391consq!F78="", "", N2O_ev391consq!F78)</f>
         <v/>
       </c>
       <c r="G78" s="117" t="str">
-        <f>IF(N2O_consq!G78="", "", N2O_consq!G78)</f>
+        <f>IF(N2O_ev391consq!G78="", "", N2O_ev391consq!G78)</f>
         <v>production</v>
       </c>
       <c r="H78" s="126" t="str">
-        <f>IF(N2O_consq!H78=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H78=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I78" s="126" t="str">
-        <f>IF(N2O_consq!I78="", "", N2O_consq!I78)</f>
+        <f>IF(N2O_ev391consq!I78="", "", N2O_ev391consq!I78)</f>
         <v>1 unit for a 50 L cylinder and 0.03087 for a 4 L cylinder</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="117" t="str">
-        <f>IF(N2O_consq!A79="", "", N2O_consq!A79)</f>
+        <f>IF(N2O_ev391consq!A79="", "", N2O_ev391consq!A79)</f>
         <v>market for lubricating oil</v>
       </c>
       <c r="B79" s="117">
-        <f>IF(N2O_consq!B79="", "", N2O_consq!B79)</f>
+        <f>IF(N2O_ev391consq!B79="", "", N2O_ev391consq!B79)</f>
         <v>1.6618999999999998E-2</v>
       </c>
       <c r="C79" s="117" t="str">
-        <f>IF(N2O_consq!C79="", "", N2O_consq!C79)</f>
+        <f>IF(N2O_ev391consq!C79="", "", N2O_ev391consq!C79)</f>
         <v>lubricating oil</v>
       </c>
       <c r="D79" s="117" t="str">
-        <f>IF(N2O_consq!D79="", "", N2O_consq!D79)</f>
+        <f>IF(N2O_ev391consq!D79="", "", N2O_ev391consq!D79)</f>
         <v>RER</v>
       </c>
       <c r="E79" s="117" t="str">
-        <f>IF(N2O_consq!E79="", "", N2O_consq!E79)</f>
+        <f>IF(N2O_ev391consq!E79="", "", N2O_ev391consq!E79)</f>
         <v>kilogram</v>
       </c>
       <c r="F79" s="117" t="str">
-        <f>IF(N2O_consq!F79="", "", N2O_consq!F79)</f>
+        <f>IF(N2O_ev391consq!F79="", "", N2O_ev391consq!F79)</f>
         <v/>
       </c>
       <c r="G79" s="117" t="str">
-        <f>IF(N2O_consq!G79="", "", N2O_consq!G79)</f>
+        <f>IF(N2O_ev391consq!G79="", "", N2O_ev391consq!G79)</f>
         <v>technosphere</v>
       </c>
       <c r="H79" s="117" t="str">
-        <f>IF(N2O_consq!H79=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H79=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I79" s="117" t="str">
-        <f>IF(N2O_consq!I79="", "", N2O_consq!I79)</f>
+        <f>IF(N2O_ev391consq!I79="", "", N2O_ev391consq!I79)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="117" t="str">
-        <f>IF(N2O_consq!A80="", "", N2O_consq!A80)</f>
+        <f>IF(N2O_ev391consq!A80="", "", N2O_ev391consq!A80)</f>
         <v>market for waste mineral oil</v>
       </c>
       <c r="B80" s="117">
-        <f>IF(N2O_consq!B80="", "", N2O_consq!B80)</f>
+        <f>IF(N2O_ev391consq!B80="", "", N2O_ev391consq!B80)</f>
         <v>-1.6618999999999998E-2</v>
       </c>
       <c r="C80" s="117" t="str">
-        <f>IF(N2O_consq!C80="", "", N2O_consq!C80)</f>
+        <f>IF(N2O_ev391consq!C80="", "", N2O_ev391consq!C80)</f>
         <v>waste mineral oil</v>
       </c>
       <c r="D80" s="117" t="str">
-        <f>IF(N2O_consq!D80="", "", N2O_consq!D80)</f>
+        <f>IF(N2O_ev391consq!D80="", "", N2O_ev391consq!D80)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E80" s="117" t="str">
-        <f>IF(N2O_consq!E80="", "", N2O_consq!E80)</f>
+        <f>IF(N2O_ev391consq!E80="", "", N2O_ev391consq!E80)</f>
         <v>kilogram</v>
       </c>
       <c r="F80" s="117" t="str">
-        <f>IF(N2O_consq!F80="", "", N2O_consq!F80)</f>
+        <f>IF(N2O_ev391consq!F80="", "", N2O_ev391consq!F80)</f>
         <v/>
       </c>
       <c r="G80" s="117" t="str">
-        <f>IF(N2O_consq!G80="", "", N2O_consq!G80)</f>
+        <f>IF(N2O_ev391consq!G80="", "", N2O_ev391consq!G80)</f>
         <v>technosphere</v>
       </c>
       <c r="H80" s="117" t="str">
-        <f>IF(N2O_consq!H80=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H80=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I80" s="117" t="str">
-        <f>IF(N2O_consq!I80="", "", N2O_consq!I80)</f>
+        <f>IF(N2O_ev391consq!I80="", "", N2O_ev391consq!I80)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="117" t="str">
-        <f>IF(N2O_consq!A81="", "", N2O_consq!A81)</f>
+        <f>IF(N2O_ev391consq!A81="", "", N2O_ev391consq!A81)</f>
         <v>market for water pump, 22kW</v>
       </c>
       <c r="B81" s="117">
-        <f>IF(N2O_consq!B81="", "", N2O_consq!B81)</f>
+        <f>IF(N2O_ev391consq!B81="", "", N2O_ev391consq!B81)</f>
         <v>2.5300000000000002E-4</v>
       </c>
       <c r="C81" s="117" t="str">
-        <f>IF(N2O_consq!C81="", "", N2O_consq!C81)</f>
+        <f>IF(N2O_ev391consq!C81="", "", N2O_ev391consq!C81)</f>
         <v>water pump, 22kW</v>
       </c>
       <c r="D81" s="117" t="str">
-        <f>IF(N2O_consq!D81="", "", N2O_consq!D81)</f>
+        <f>IF(N2O_ev391consq!D81="", "", N2O_ev391consq!D81)</f>
         <v>GLO</v>
       </c>
       <c r="E81" s="117" t="str">
-        <f>IF(N2O_consq!E81="", "", N2O_consq!E81)</f>
+        <f>IF(N2O_ev391consq!E81="", "", N2O_ev391consq!E81)</f>
         <v>unit</v>
       </c>
       <c r="F81" s="117" t="str">
-        <f>IF(N2O_consq!F81="", "", N2O_consq!F81)</f>
+        <f>IF(N2O_ev391consq!F81="", "", N2O_ev391consq!F81)</f>
         <v/>
       </c>
       <c r="G81" s="117" t="str">
-        <f>IF(N2O_consq!G81="", "", N2O_consq!G81)</f>
+        <f>IF(N2O_ev391consq!G81="", "", N2O_ev391consq!G81)</f>
         <v>technosphere</v>
       </c>
       <c r="H81" s="117" t="str">
-        <f>IF(N2O_consq!H81=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H81=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I81" s="117" t="str">
-        <f>IF(N2O_consq!I81="", "", N2O_consq!I81)</f>
+        <f>IF(N2O_ev391consq!I81="", "", N2O_ev391consq!I81)</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="117" t="str">
-        <f>IF(N2O_consq!A82="", "", N2O_consq!A82)</f>
+        <f>IF(N2O_ev391consq!A82="", "", N2O_ev391consq!A82)</f>
         <v>market group for electricity, low voltage</v>
       </c>
       <c r="B82" s="117">
-        <f>IF(N2O_consq!B82="", "", N2O_consq!B82)</f>
+        <f>IF(N2O_ev391consq!B82="", "", N2O_ev391consq!B82)</f>
         <v>8.9839559999999992</v>
       </c>
       <c r="C82" s="117" t="str">
-        <f>IF(N2O_consq!C82="", "", N2O_consq!C82)</f>
+        <f>IF(N2O_ev391consq!C82="", "", N2O_ev391consq!C82)</f>
         <v>electricity, low voltage</v>
       </c>
       <c r="D82" s="117" t="str">
-        <f>IF(N2O_consq!D82="", "", N2O_consq!D82)</f>
+        <f>IF(N2O_ev391consq!D82="", "", N2O_ev391consq!D82)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E82" s="117" t="str">
-        <f>IF(N2O_consq!E82="", "", N2O_consq!E82)</f>
+        <f>IF(N2O_ev391consq!E82="", "", N2O_ev391consq!E82)</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F82" s="117" t="str">
-        <f>IF(N2O_consq!F82="", "", N2O_consq!F82)</f>
+        <f>IF(N2O_ev391consq!F82="", "", N2O_ev391consq!F82)</f>
         <v/>
       </c>
       <c r="G82" s="117" t="str">
-        <f>IF(N2O_consq!G82="", "", N2O_consq!G82)</f>
+        <f>IF(N2O_ev391consq!G82="", "", N2O_ev391consq!G82)</f>
         <v>technosphere</v>
       </c>
       <c r="H82" s="117" t="str">
-        <f>IF(N2O_consq!H82=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H82=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I82" s="117" t="str">
-        <f>IF(N2O_consq!I82="", "", N2O_consq!I82)</f>
+        <f>IF(N2O_ev391consq!I82="", "", N2O_ev391consq!I82)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="44" t="str">
-        <f>IF(N2O_consq!A83="", "", N2O_consq!A83)</f>
+        <f>IF(N2O_ev391consq!A83="", "", N2O_ev391consq!A83)</f>
         <v/>
       </c>
       <c r="B83" s="54" t="str">
-        <f>IF(N2O_consq!B83="", "", N2O_consq!B83)</f>
+        <f>IF(N2O_ev391consq!B83="", "", N2O_ev391consq!B83)</f>
         <v/>
       </c>
       <c r="C83" s="44" t="str">
-        <f>IF(N2O_consq!C83="", "", N2O_consq!C83)</f>
+        <f>IF(N2O_ev391consq!C83="", "", N2O_ev391consq!C83)</f>
         <v/>
       </c>
       <c r="D83" s="44" t="str">
-        <f>IF(N2O_consq!D83="", "", N2O_consq!D83)</f>
+        <f>IF(N2O_ev391consq!D83="", "", N2O_ev391consq!D83)</f>
         <v/>
       </c>
       <c r="E83" s="44" t="str">
-        <f>IF(N2O_consq!E83="", "", N2O_consq!E83)</f>
+        <f>IF(N2O_ev391consq!E83="", "", N2O_ev391consq!E83)</f>
         <v/>
       </c>
       <c r="F83" s="44" t="str">
-        <f>IF(N2O_consq!F83="", "", N2O_consq!F83)</f>
+        <f>IF(N2O_ev391consq!F83="", "", N2O_ev391consq!F83)</f>
         <v/>
       </c>
       <c r="G83" s="44" t="str">
-        <f>IF(N2O_consq!G83="", "", N2O_consq!G83)</f>
+        <f>IF(N2O_ev391consq!G83="", "", N2O_ev391consq!G83)</f>
         <v/>
       </c>
       <c r="H83" s="44"/>
       <c r="I83" s="44" t="str">
-        <f>IF(N2O_consq!I83="", "", N2O_consq!I83)</f>
+        <f>IF(N2O_ev391consq!I83="", "", N2O_ev391consq!I83)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="127" t="str">
-        <f>IF(N2O_consq!A84="", "", N2O_consq!A84)</f>
+        <f>IF(N2O_ev391consq!A84="", "", N2O_ev391consq!A84)</f>
         <v>Activity</v>
       </c>
       <c r="B84" s="128" t="str">
-        <f>IF(N2O_consq!B84="", "", N2O_consq!B84)</f>
+        <f>IF(N2O_ev391consq!B84="", "", N2O_ev391consq!B84)</f>
         <v>gas cylinder cleaning</v>
       </c>
       <c r="C84" s="129" t="str">
-        <f>IF(N2O_consq!C84="", "", N2O_consq!C84)</f>
+        <f>IF(N2O_ev391consq!C84="", "", N2O_ev391consq!C84)</f>
         <v/>
       </c>
       <c r="D84" s="130" t="str">
-        <f>IF(N2O_consq!D84="", "", N2O_consq!D84)</f>
+        <f>IF(N2O_ev391consq!D84="", "", N2O_ev391consq!D84)</f>
         <v/>
       </c>
       <c r="E84" s="129" t="str">
-        <f>IF(N2O_consq!E84="", "", N2O_consq!E84)</f>
+        <f>IF(N2O_ev391consq!E84="", "", N2O_ev391consq!E84)</f>
         <v/>
       </c>
       <c r="F84" s="131" t="str">
-        <f>IF(N2O_consq!F84="", "", N2O_consq!F84)</f>
+        <f>IF(N2O_ev391consq!F84="", "", N2O_ev391consq!F84)</f>
         <v/>
       </c>
       <c r="G84" s="129" t="str">
-        <f>IF(N2O_consq!G84="", "", N2O_consq!G84)</f>
+        <f>IF(N2O_ev391consq!G84="", "", N2O_ev391consq!G84)</f>
         <v/>
       </c>
       <c r="H84" s="129"/>
       <c r="I84" s="129" t="str">
-        <f>IF(N2O_consq!I84="", "", N2O_consq!I84)</f>
+        <f>IF(N2O_ev391consq!I84="", "", N2O_ev391consq!I84)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="132" t="str">
-        <f>IF(N2O_consq!A85="", "", N2O_consq!A85)</f>
+        <f>IF(N2O_ev391consq!A85="", "", N2O_ev391consq!A85)</f>
         <v>production amount</v>
       </c>
       <c r="B85" s="133">
-        <f>IF(N2O_consq!B85="", "", N2O_consq!B85)</f>
+        <f>IF(N2O_ev391consq!B85="", "", N2O_ev391consq!B85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="129" t="str">
-        <f>IF(N2O_consq!C85="", "", N2O_consq!C85)</f>
+        <f>IF(N2O_ev391consq!C85="", "", N2O_ev391consq!C85)</f>
         <v/>
       </c>
       <c r="D85" s="129" t="str">
-        <f>IF(N2O_consq!D85="", "", N2O_consq!D85)</f>
+        <f>IF(N2O_ev391consq!D85="", "", N2O_ev391consq!D85)</f>
         <v/>
       </c>
       <c r="E85" s="129" t="str">
-        <f>IF(N2O_consq!E85="", "", N2O_consq!E85)</f>
+        <f>IF(N2O_ev391consq!E85="", "", N2O_ev391consq!E85)</f>
         <v/>
       </c>
       <c r="F85" s="131" t="str">
-        <f>IF(N2O_consq!F85="", "", N2O_consq!F85)</f>
+        <f>IF(N2O_ev391consq!F85="", "", N2O_ev391consq!F85)</f>
         <v/>
       </c>
       <c r="G85" s="129" t="str">
-        <f>IF(N2O_consq!G85="", "", N2O_consq!G85)</f>
+        <f>IF(N2O_ev391consq!G85="", "", N2O_ev391consq!G85)</f>
         <v/>
       </c>
       <c r="H85" s="129"/>
       <c r="I85" s="129" t="str">
-        <f>IF(N2O_consq!I85="", "", N2O_consq!I85)</f>
+        <f>IF(N2O_ev391consq!I85="", "", N2O_ev391consq!I85)</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="132" t="str">
-        <f>IF(N2O_consq!A86="", "", N2O_consq!A86)</f>
+        <f>IF(N2O_ev391consq!A86="", "", N2O_ev391consq!A86)</f>
         <v>reference product</v>
       </c>
       <c r="B86" s="131" t="str">
-        <f>IF(N2O_consq!B86="", "", N2O_consq!B86)</f>
+        <f>IF(N2O_ev391consq!B86="", "", N2O_ev391consq!B86)</f>
         <v>gas cylinder cleaning</v>
       </c>
       <c r="C86" s="129" t="str">
-        <f>IF(N2O_consq!C86="", "", N2O_consq!C86)</f>
+        <f>IF(N2O_ev391consq!C86="", "", N2O_ev391consq!C86)</f>
         <v/>
       </c>
       <c r="D86" s="129" t="str">
-        <f>IF(N2O_consq!D86="", "", N2O_consq!D86)</f>
+        <f>IF(N2O_ev391consq!D86="", "", N2O_ev391consq!D86)</f>
         <v/>
       </c>
       <c r="E86" s="129" t="str">
-        <f>IF(N2O_consq!E86="", "", N2O_consq!E86)</f>
+        <f>IF(N2O_ev391consq!E86="", "", N2O_ev391consq!E86)</f>
         <v/>
       </c>
       <c r="F86" s="131" t="str">
-        <f>IF(N2O_consq!F86="", "", N2O_consq!F86)</f>
+        <f>IF(N2O_ev391consq!F86="", "", N2O_ev391consq!F86)</f>
         <v/>
       </c>
       <c r="G86" s="129" t="str">
-        <f>IF(N2O_consq!G86="", "", N2O_consq!G86)</f>
+        <f>IF(N2O_ev391consq!G86="", "", N2O_ev391consq!G86)</f>
         <v/>
       </c>
       <c r="H86" s="129"/>
       <c r="I86" s="129" t="str">
-        <f>IF(N2O_consq!I86="", "", N2O_consq!I86)</f>
+        <f>IF(N2O_ev391consq!I86="", "", N2O_ev391consq!I86)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="132" t="str">
-        <f>IF(N2O_consq!A87="", "", N2O_consq!A87)</f>
+        <f>IF(N2O_ev391consq!A87="", "", N2O_ev391consq!A87)</f>
         <v>location</v>
       </c>
       <c r="B87" s="133" t="str">
-        <f>IF(N2O_consq!B87="", "", N2O_consq!B87)</f>
+        <f>IF(N2O_ev391consq!B87="", "", N2O_ev391consq!B87)</f>
         <v>RER</v>
       </c>
       <c r="C87" s="129" t="str">
-        <f>IF(N2O_consq!C87="", "", N2O_consq!C87)</f>
+        <f>IF(N2O_ev391consq!C87="", "", N2O_ev391consq!C87)</f>
         <v/>
       </c>
       <c r="D87" s="129" t="str">
-        <f>IF(N2O_consq!D87="", "", N2O_consq!D87)</f>
+        <f>IF(N2O_ev391consq!D87="", "", N2O_ev391consq!D87)</f>
         <v/>
       </c>
       <c r="E87" s="129" t="str">
-        <f>IF(N2O_consq!E87="", "", N2O_consq!E87)</f>
+        <f>IF(N2O_ev391consq!E87="", "", N2O_ev391consq!E87)</f>
         <v/>
       </c>
       <c r="F87" s="131" t="str">
-        <f>IF(N2O_consq!F87="", "", N2O_consq!F87)</f>
+        <f>IF(N2O_ev391consq!F87="", "", N2O_ev391consq!F87)</f>
         <v/>
       </c>
       <c r="G87" s="129" t="str">
-        <f>IF(N2O_consq!G87="", "", N2O_consq!G87)</f>
+        <f>IF(N2O_ev391consq!G87="", "", N2O_ev391consq!G87)</f>
         <v/>
       </c>
       <c r="H87" s="129"/>
       <c r="I87" s="129" t="str">
-        <f>IF(N2O_consq!I87="", "", N2O_consq!I87)</f>
+        <f>IF(N2O_ev391consq!I87="", "", N2O_ev391consq!I87)</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="132" t="str">
-        <f>IF(N2O_consq!A88="", "", N2O_consq!A88)</f>
+        <f>IF(N2O_ev391consq!A88="", "", N2O_ev391consq!A88)</f>
         <v>unit</v>
       </c>
       <c r="B88" s="134" t="str">
-        <f>IF(N2O_consq!B88="", "", N2O_consq!B88)</f>
+        <f>IF(N2O_ev391consq!B88="", "", N2O_ev391consq!B88)</f>
         <v>unit</v>
       </c>
       <c r="C88" s="129" t="str">
-        <f>IF(N2O_consq!C88="", "", N2O_consq!C88)</f>
+        <f>IF(N2O_ev391consq!C88="", "", N2O_ev391consq!C88)</f>
         <v/>
       </c>
       <c r="D88" s="129" t="str">
-        <f>IF(N2O_consq!D88="", "", N2O_consq!D88)</f>
+        <f>IF(N2O_ev391consq!D88="", "", N2O_ev391consq!D88)</f>
         <v/>
       </c>
       <c r="E88" s="129" t="str">
-        <f>IF(N2O_consq!E88="", "", N2O_consq!E88)</f>
+        <f>IF(N2O_ev391consq!E88="", "", N2O_ev391consq!E88)</f>
         <v/>
       </c>
       <c r="F88" s="131" t="str">
-        <f>IF(N2O_consq!F88="", "", N2O_consq!F88)</f>
+        <f>IF(N2O_ev391consq!F88="", "", N2O_ev391consq!F88)</f>
         <v/>
       </c>
       <c r="G88" s="129" t="str">
-        <f>IF(N2O_consq!G88="", "", N2O_consq!G88)</f>
+        <f>IF(N2O_ev391consq!G88="", "", N2O_ev391consq!G88)</f>
         <v/>
       </c>
       <c r="H88" s="129"/>
       <c r="I88" s="129" t="str">
-        <f>IF(N2O_consq!I88="", "", N2O_consq!I88)</f>
+        <f>IF(N2O_ev391consq!I88="", "", N2O_ev391consq!I88)</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="135" t="str">
-        <f>IF(N2O_consq!A89="", "", N2O_consq!A89)</f>
+        <f>IF(N2O_ev391consq!A89="", "", N2O_ev391consq!A89)</f>
         <v>Exchanges</v>
       </c>
       <c r="B89" s="136" t="str">
-        <f>IF(N2O_consq!B89="", "", N2O_consq!B89)</f>
+        <f>IF(N2O_ev391consq!B89="", "", N2O_ev391consq!B89)</f>
         <v/>
       </c>
       <c r="C89" s="135" t="str">
-        <f>IF(N2O_consq!C89="", "", N2O_consq!C89)</f>
+        <f>IF(N2O_ev391consq!C89="", "", N2O_ev391consq!C89)</f>
         <v/>
       </c>
       <c r="D89" s="135" t="str">
-        <f>IF(N2O_consq!D89="", "", N2O_consq!D89)</f>
+        <f>IF(N2O_ev391consq!D89="", "", N2O_ev391consq!D89)</f>
         <v/>
       </c>
       <c r="E89" s="135" t="str">
-        <f>IF(N2O_consq!E89="", "", N2O_consq!E89)</f>
+        <f>IF(N2O_ev391consq!E89="", "", N2O_ev391consq!E89)</f>
         <v/>
       </c>
       <c r="F89" s="131" t="str">
-        <f>IF(N2O_consq!F89="", "", N2O_consq!F89)</f>
+        <f>IF(N2O_ev391consq!F89="", "", N2O_ev391consq!F89)</f>
         <v/>
       </c>
       <c r="G89" s="135" t="str">
-        <f>IF(N2O_consq!G89="", "", N2O_consq!G89)</f>
+        <f>IF(N2O_ev391consq!G89="", "", N2O_ev391consq!G89)</f>
         <v/>
       </c>
       <c r="H89" s="135"/>
       <c r="I89" s="135" t="str">
-        <f>IF(N2O_consq!I89="", "", N2O_consq!I89)</f>
+        <f>IF(N2O_ev391consq!I89="", "", N2O_ev391consq!I89)</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="135" t="str">
-        <f>IF(N2O_consq!A90="", "", N2O_consq!A90)</f>
+        <f>IF(N2O_ev391consq!A90="", "", N2O_ev391consq!A90)</f>
         <v>name</v>
       </c>
       <c r="B90" s="136" t="str">
-        <f>IF(N2O_consq!B90="", "", N2O_consq!B90)</f>
+        <f>IF(N2O_ev391consq!B90="", "", N2O_ev391consq!B90)</f>
         <v>amount</v>
       </c>
       <c r="C90" s="135" t="str">
-        <f>IF(N2O_consq!C90="", "", N2O_consq!C90)</f>
+        <f>IF(N2O_ev391consq!C90="", "", N2O_ev391consq!C90)</f>
         <v>reference product</v>
       </c>
       <c r="D90" s="135" t="str">
-        <f>IF(N2O_consq!D90="", "", N2O_consq!D90)</f>
+        <f>IF(N2O_ev391consq!D90="", "", N2O_ev391consq!D90)</f>
         <v>location</v>
       </c>
       <c r="E90" s="135" t="str">
-        <f>IF(N2O_consq!E90="", "", N2O_consq!E90)</f>
+        <f>IF(N2O_ev391consq!E90="", "", N2O_ev391consq!E90)</f>
         <v>unit</v>
       </c>
       <c r="F90" s="137" t="str">
-        <f>IF(N2O_consq!F90="", "", N2O_consq!F90)</f>
+        <f>IF(N2O_ev391consq!F90="", "", N2O_ev391consq!F90)</f>
         <v>categories</v>
       </c>
       <c r="G90" s="135" t="str">
-        <f>IF(N2O_consq!G90="", "", N2O_consq!G90)</f>
+        <f>IF(N2O_ev391consq!G90="", "", N2O_ev391consq!G90)</f>
         <v>type</v>
       </c>
       <c r="H90" s="135" t="str">
-        <f>IF(N2O_consq!H90="", "", N2O_consq!H90)</f>
+        <f>IF(N2O_ev391consq!H90="", "", N2O_ev391consq!H90)</f>
         <v>database</v>
       </c>
       <c r="I90" s="135" t="str">
-        <f>IF(N2O_consq!I90="", "", N2O_consq!I90)</f>
+        <f>IF(N2O_ev391consq!I90="", "", N2O_ev391consq!I90)</f>
         <v>comment</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="138" t="str">
-        <f>IF(N2O_consq!A91="", "", N2O_consq!A91)</f>
+        <f>IF(N2O_ev391consq!A91="", "", N2O_ev391consq!A91)</f>
         <v>gas cylinder cleaning</v>
       </c>
       <c r="B91" s="139">
-        <f>IF(N2O_consq!B91="", "", N2O_consq!B91)</f>
+        <f>IF(N2O_ev391consq!B91="", "", N2O_ev391consq!B91)</f>
         <v>1</v>
       </c>
       <c r="C91" s="138" t="str">
-        <f>IF(N2O_consq!C91="", "", N2O_consq!C91)</f>
+        <f>IF(N2O_ev391consq!C91="", "", N2O_ev391consq!C91)</f>
         <v>gas cylinder cleaning</v>
       </c>
       <c r="D91" s="138" t="str">
-        <f>IF(N2O_consq!D91="", "", N2O_consq!D91)</f>
+        <f>IF(N2O_ev391consq!D91="", "", N2O_ev391consq!D91)</f>
         <v>RER</v>
       </c>
       <c r="E91" s="138" t="str">
-        <f>IF(N2O_consq!E91="", "", N2O_consq!E91)</f>
+        <f>IF(N2O_ev391consq!E91="", "", N2O_ev391consq!E91)</f>
         <v>unit</v>
       </c>
       <c r="F91" s="131" t="str">
-        <f>IF(N2O_consq!F91="", "", N2O_consq!F91)</f>
+        <f>IF(N2O_ev391consq!F91="", "", N2O_ev391consq!F91)</f>
         <v/>
       </c>
       <c r="G91" s="131" t="str">
-        <f>IF(N2O_consq!G91="", "", N2O_consq!G91)</f>
+        <f>IF(N2O_ev391consq!G91="", "", N2O_ev391consq!G91)</f>
         <v>production</v>
       </c>
       <c r="H91" s="140" t="str">
-        <f>IF(N2O_consq!H91=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H91=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I91" s="140" t="str">
-        <f>IF(N2O_consq!I91="", "", N2O_consq!I91)</f>
+        <f>IF(N2O_ev391consq!I91="", "", N2O_ev391consq!I91)</f>
         <v>1 unit for a 50 L cylinder and 0.03087 for a 4 L cylinder</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="131" t="str">
-        <f>IF(N2O_consq!A92="", "", N2O_consq!A92)</f>
+        <f>IF(N2O_ev391consq!A92="", "", N2O_ev391consq!A92)</f>
         <v>market for heat, district or industrial, natural gas</v>
       </c>
       <c r="B92" s="139">
-        <f>IF(N2O_consq!B92="", "", N2O_consq!B92)</f>
+        <f>IF(N2O_ev391consq!B92="", "", N2O_ev391consq!B92)</f>
         <v>16.294630000000002</v>
       </c>
       <c r="C92" s="131" t="str">
-        <f>IF(N2O_consq!C92="", "", N2O_consq!C92)</f>
+        <f>IF(N2O_ev391consq!C92="", "", N2O_ev391consq!C92)</f>
         <v>heat, district or industrial, natural gas</v>
       </c>
       <c r="D92" s="131" t="str">
-        <f>IF(N2O_consq!D92="", "", N2O_consq!D92)</f>
+        <f>IF(N2O_ev391consq!D92="", "", N2O_ev391consq!D92)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E92" s="131" t="str">
-        <f>IF(N2O_consq!E92="", "", N2O_consq!E92)</f>
+        <f>IF(N2O_ev391consq!E92="", "", N2O_ev391consq!E92)</f>
         <v>megajoule</v>
       </c>
       <c r="F92" s="131" t="str">
-        <f>IF(N2O_consq!F92="", "", N2O_consq!F92)</f>
+        <f>IF(N2O_ev391consq!F92="", "", N2O_ev391consq!F92)</f>
         <v/>
       </c>
       <c r="G92" s="131" t="str">
-        <f>IF(N2O_consq!G92="", "", N2O_consq!G92)</f>
+        <f>IF(N2O_ev391consq!G92="", "", N2O_ev391consq!G92)</f>
         <v>technosphere</v>
       </c>
       <c r="H92" s="131" t="str">
-        <f>IF(N2O_consq!H92=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H92=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I92" s="131" t="str">
-        <f>IF(N2O_consq!I92="", "", N2O_consq!I92)</f>
+        <f>IF(N2O_ev391consq!I92="", "", N2O_ev391consq!I92)</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="131" t="str">
-        <f>IF(N2O_consq!A93="", "", N2O_consq!A93)</f>
+        <f>IF(N2O_ev391consq!A93="", "", N2O_ev391consq!A93)</f>
         <v>market for soap</v>
       </c>
       <c r="B93" s="139">
-        <f>IF(N2O_consq!B93="", "", N2O_consq!B93)</f>
+        <f>IF(N2O_ev391consq!B93="", "", N2O_ev391consq!B93)</f>
         <v>0.62522200000000006</v>
       </c>
       <c r="C93" s="131" t="str">
-        <f>IF(N2O_consq!C93="", "", N2O_consq!C93)</f>
+        <f>IF(N2O_ev391consq!C93="", "", N2O_ev391consq!C93)</f>
         <v>soap</v>
       </c>
       <c r="D93" s="131" t="str">
-        <f>IF(N2O_consq!D93="", "", N2O_consq!D93)</f>
+        <f>IF(N2O_ev391consq!D93="", "", N2O_ev391consq!D93)</f>
         <v>GLO</v>
       </c>
       <c r="E93" s="131" t="str">
-        <f>IF(N2O_consq!E93="", "", N2O_consq!E93)</f>
+        <f>IF(N2O_ev391consq!E93="", "", N2O_ev391consq!E93)</f>
         <v>kilogram</v>
       </c>
       <c r="F93" s="131" t="str">
-        <f>IF(N2O_consq!F93="", "", N2O_consq!F93)</f>
+        <f>IF(N2O_ev391consq!F93="", "", N2O_ev391consq!F93)</f>
         <v/>
       </c>
       <c r="G93" s="131" t="str">
-        <f>IF(N2O_consq!G93="", "", N2O_consq!G93)</f>
+        <f>IF(N2O_ev391consq!G93="", "", N2O_ev391consq!G93)</f>
         <v>technosphere</v>
       </c>
       <c r="H93" s="131" t="str">
-        <f>IF(N2O_consq!H93=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H93=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I93" s="131" t="str">
-        <f>IF(N2O_consq!I93="", "", N2O_consq!I93)</f>
+        <f>IF(N2O_ev391consq!I93="", "", N2O_ev391consq!I93)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="131" t="str">
-        <f>IF(N2O_consq!A94="", "", N2O_consq!A94)</f>
+        <f>IF(N2O_ev391consq!A94="", "", N2O_ev391consq!A94)</f>
         <v>market for wastewater, average</v>
       </c>
       <c r="B94" s="139">
-        <f>IF(N2O_consq!B94="", "", N2O_consq!B94)</f>
+        <f>IF(N2O_ev391consq!B94="", "", N2O_ev391consq!B94)</f>
         <v>0.1555</v>
       </c>
       <c r="C94" s="131" t="str">
-        <f>IF(N2O_consq!C94="", "", N2O_consq!C94)</f>
+        <f>IF(N2O_ev391consq!C94="", "", N2O_ev391consq!C94)</f>
         <v>wastewater, average</v>
       </c>
       <c r="D94" s="131" t="str">
-        <f>IF(N2O_consq!D94="", "", N2O_consq!D94)</f>
+        <f>IF(N2O_ev391consq!D94="", "", N2O_ev391consq!D94)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E94" s="131" t="str">
-        <f>IF(N2O_consq!E94="", "", N2O_consq!E94)</f>
+        <f>IF(N2O_ev391consq!E94="", "", N2O_ev391consq!E94)</f>
         <v>cubic meter</v>
       </c>
       <c r="F94" s="131" t="str">
-        <f>IF(N2O_consq!F94="", "", N2O_consq!F94)</f>
+        <f>IF(N2O_ev391consq!F94="", "", N2O_ev391consq!F94)</f>
         <v/>
       </c>
       <c r="G94" s="131" t="str">
-        <f>IF(N2O_consq!G94="", "", N2O_consq!G94)</f>
+        <f>IF(N2O_ev391consq!G94="", "", N2O_ev391consq!G94)</f>
         <v>technosphere</v>
       </c>
       <c r="H94" s="131" t="str">
-        <f>IF(N2O_consq!H94=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H94=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I94" s="131" t="str">
-        <f>IF(N2O_consq!I94="", "", N2O_consq!I94)</f>
+        <f>IF(N2O_ev391consq!I94="", "", N2O_ev391consq!I94)</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="131" t="str">
-        <f>IF(N2O_consq!A95="", "", N2O_consq!A95)</f>
+        <f>IF(N2O_ev391consq!A95="", "", N2O_ev391consq!A95)</f>
         <v>market for water, completely softened</v>
       </c>
       <c r="B95" s="139">
-        <f>IF(N2O_consq!B95="", "", N2O_consq!B95)</f>
+        <f>IF(N2O_ev391consq!B95="", "", N2O_ev391consq!B95)</f>
         <v>155.49549999999999</v>
       </c>
       <c r="C95" s="131" t="str">
-        <f>IF(N2O_consq!C95="", "", N2O_consq!C95)</f>
+        <f>IF(N2O_ev391consq!C95="", "", N2O_ev391consq!C95)</f>
         <v>water, completely softened</v>
       </c>
       <c r="D95" s="131" t="str">
-        <f>IF(N2O_consq!D95="", "", N2O_consq!D95)</f>
+        <f>IF(N2O_ev391consq!D95="", "", N2O_ev391consq!D95)</f>
         <v>RER</v>
       </c>
       <c r="E95" s="131" t="str">
-        <f>IF(N2O_consq!E95="", "", N2O_consq!E95)</f>
+        <f>IF(N2O_ev391consq!E95="", "", N2O_ev391consq!E95)</f>
         <v>kilogram</v>
       </c>
       <c r="F95" s="131" t="str">
-        <f>IF(N2O_consq!F95="", "", N2O_consq!F95)</f>
+        <f>IF(N2O_ev391consq!F95="", "", N2O_ev391consq!F95)</f>
         <v/>
       </c>
       <c r="G95" s="131" t="str">
-        <f>IF(N2O_consq!G95="", "", N2O_consq!G95)</f>
+        <f>IF(N2O_ev391consq!G95="", "", N2O_ev391consq!G95)</f>
         <v>technosphere</v>
       </c>
       <c r="H95" s="131" t="str">
-        <f>IF(N2O_consq!H95=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H95=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I95" s="131" t="str">
-        <f>IF(N2O_consq!I95="", "", N2O_consq!I95)</f>
+        <f>IF(N2O_ev391consq!I95="", "", N2O_ev391consq!I95)</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="131" t="str">
-        <f>IF(N2O_consq!A96="", "", N2O_consq!A96)</f>
+        <f>IF(N2O_ev391consq!A96="", "", N2O_ev391consq!A96)</f>
         <v>market group for electricity, low voltage</v>
       </c>
       <c r="B96" s="139">
-        <f>IF(N2O_consq!B96="", "", N2O_consq!B96)</f>
+        <f>IF(N2O_ev391consq!B96="", "", N2O_ev391consq!B96)</f>
         <v>38.549930000000003</v>
       </c>
       <c r="C96" s="131" t="str">
-        <f>IF(N2O_consq!C96="", "", N2O_consq!C96)</f>
+        <f>IF(N2O_ev391consq!C96="", "", N2O_ev391consq!C96)</f>
         <v>electricity, low voltage</v>
       </c>
       <c r="D96" s="131" t="str">
-        <f>IF(N2O_consq!D96="", "", N2O_consq!D96)</f>
+        <f>IF(N2O_ev391consq!D96="", "", N2O_ev391consq!D96)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E96" s="131" t="str">
-        <f>IF(N2O_consq!E96="", "", N2O_consq!E96)</f>
+        <f>IF(N2O_ev391consq!E96="", "", N2O_ev391consq!E96)</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F96" s="131" t="str">
-        <f>IF(N2O_consq!F96="", "", N2O_consq!F96)</f>
+        <f>IF(N2O_ev391consq!F96="", "", N2O_ev391consq!F96)</f>
         <v/>
       </c>
       <c r="G96" s="131" t="str">
-        <f>IF(N2O_consq!G96="", "", N2O_consq!G96)</f>
+        <f>IF(N2O_ev391consq!G96="", "", N2O_ev391consq!G96)</f>
         <v>technosphere</v>
       </c>
       <c r="H96" s="131" t="str">
-        <f>IF(N2O_consq!H96=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H96=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I96" s="131" t="str">
-        <f>IF(N2O_consq!I96="", "", N2O_consq!I96)</f>
+        <f>IF(N2O_ev391consq!I96="", "", N2O_ev391consq!I96)</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="44" t="str">
-        <f>IF(N2O_consq!A97="", "", N2O_consq!A97)</f>
+        <f>IF(N2O_ev391consq!A97="", "", N2O_ev391consq!A97)</f>
         <v/>
       </c>
       <c r="B97" s="54" t="str">
-        <f>IF(N2O_consq!B97="", "", N2O_consq!B97)</f>
+        <f>IF(N2O_ev391consq!B97="", "", N2O_ev391consq!B97)</f>
         <v/>
       </c>
       <c r="C97" s="44" t="str">
-        <f>IF(N2O_consq!C97="", "", N2O_consq!C97)</f>
+        <f>IF(N2O_ev391consq!C97="", "", N2O_ev391consq!C97)</f>
         <v/>
       </c>
       <c r="D97" s="44" t="str">
-        <f>IF(N2O_consq!D97="", "", N2O_consq!D97)</f>
+        <f>IF(N2O_ev391consq!D97="", "", N2O_ev391consq!D97)</f>
         <v/>
       </c>
       <c r="E97" s="44" t="str">
-        <f>IF(N2O_consq!E97="", "", N2O_consq!E97)</f>
+        <f>IF(N2O_ev391consq!E97="", "", N2O_ev391consq!E97)</f>
         <v/>
       </c>
       <c r="F97" s="44" t="str">
-        <f>IF(N2O_consq!F97="", "", N2O_consq!F97)</f>
+        <f>IF(N2O_ev391consq!F97="", "", N2O_ev391consq!F97)</f>
         <v/>
       </c>
       <c r="G97" s="44" t="str">
-        <f>IF(N2O_consq!G97="", "", N2O_consq!G97)</f>
+        <f>IF(N2O_ev391consq!G97="", "", N2O_ev391consq!G97)</f>
         <v/>
       </c>
       <c r="H97" s="44"/>
       <c r="I97" s="44" t="str">
-        <f>IF(N2O_consq!I97="", "", N2O_consq!I97)</f>
+        <f>IF(N2O_ev391consq!I97="", "", N2O_ev391consq!I97)</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="141" t="str">
-        <f>IF(N2O_consq!A98="", "", N2O_consq!A98)</f>
+        <f>IF(N2O_ev391consq!A98="", "", N2O_ev391consq!A98)</f>
         <v>Activity</v>
       </c>
       <c r="B98" s="142" t="str">
-        <f>IF(N2O_consq!B98="", "", N2O_consq!B98)</f>
+        <f>IF(N2O_ev391consq!B98="", "", N2O_ev391consq!B98)</f>
         <v>cylinder maintenance</v>
       </c>
       <c r="C98" s="143" t="str">
-        <f>IF(N2O_consq!C98="", "", N2O_consq!C98)</f>
+        <f>IF(N2O_ev391consq!C98="", "", N2O_ev391consq!C98)</f>
         <v/>
       </c>
       <c r="D98" s="144" t="str">
-        <f>IF(N2O_consq!D98="", "", N2O_consq!D98)</f>
+        <f>IF(N2O_ev391consq!D98="", "", N2O_ev391consq!D98)</f>
         <v/>
       </c>
       <c r="E98" s="143" t="str">
-        <f>IF(N2O_consq!E98="", "", N2O_consq!E98)</f>
+        <f>IF(N2O_ev391consq!E98="", "", N2O_ev391consq!E98)</f>
         <v/>
       </c>
       <c r="F98" s="145" t="str">
-        <f>IF(N2O_consq!F98="", "", N2O_consq!F98)</f>
+        <f>IF(N2O_ev391consq!F98="", "", N2O_ev391consq!F98)</f>
         <v/>
       </c>
       <c r="G98" s="143" t="str">
-        <f>IF(N2O_consq!G98="", "", N2O_consq!G98)</f>
+        <f>IF(N2O_ev391consq!G98="", "", N2O_ev391consq!G98)</f>
         <v/>
       </c>
       <c r="H98" s="143"/>
       <c r="I98" s="143" t="str">
-        <f>IF(N2O_consq!I98="", "", N2O_consq!I98)</f>
+        <f>IF(N2O_ev391consq!I98="", "", N2O_ev391consq!I98)</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="146" t="str">
-        <f>IF(N2O_consq!A99="", "", N2O_consq!A99)</f>
+        <f>IF(N2O_ev391consq!A99="", "", N2O_ev391consq!A99)</f>
         <v>production amount</v>
       </c>
       <c r="B99" s="147">
-        <f>IF(N2O_consq!B99="", "", N2O_consq!B99)</f>
+        <f>IF(N2O_ev391consq!B99="", "", N2O_ev391consq!B99)</f>
         <v>1</v>
       </c>
       <c r="C99" s="143" t="str">
-        <f>IF(N2O_consq!C99="", "", N2O_consq!C99)</f>
+        <f>IF(N2O_ev391consq!C99="", "", N2O_ev391consq!C99)</f>
         <v/>
       </c>
       <c r="D99" s="143" t="str">
-        <f>IF(N2O_consq!D99="", "", N2O_consq!D99)</f>
+        <f>IF(N2O_ev391consq!D99="", "", N2O_ev391consq!D99)</f>
         <v/>
       </c>
       <c r="E99" s="143" t="str">
-        <f>IF(N2O_consq!E99="", "", N2O_consq!E99)</f>
+        <f>IF(N2O_ev391consq!E99="", "", N2O_ev391consq!E99)</f>
         <v/>
       </c>
       <c r="F99" s="145" t="str">
-        <f>IF(N2O_consq!F99="", "", N2O_consq!F99)</f>
+        <f>IF(N2O_ev391consq!F99="", "", N2O_ev391consq!F99)</f>
         <v/>
       </c>
       <c r="G99" s="143" t="str">
-        <f>IF(N2O_consq!G99="", "", N2O_consq!G99)</f>
+        <f>IF(N2O_ev391consq!G99="", "", N2O_ev391consq!G99)</f>
         <v/>
       </c>
       <c r="H99" s="143"/>
       <c r="I99" s="143" t="str">
-        <f>IF(N2O_consq!I99="", "", N2O_consq!I99)</f>
+        <f>IF(N2O_ev391consq!I99="", "", N2O_ev391consq!I99)</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="146" t="str">
-        <f>IF(N2O_consq!A100="", "", N2O_consq!A100)</f>
+        <f>IF(N2O_ev391consq!A100="", "", N2O_ev391consq!A100)</f>
         <v>reference product</v>
       </c>
       <c r="B100" s="145" t="str">
-        <f>IF(N2O_consq!B100="", "", N2O_consq!B100)</f>
+        <f>IF(N2O_ev391consq!B100="", "", N2O_ev391consq!B100)</f>
         <v>cylinder maintenance</v>
       </c>
       <c r="C100" s="143" t="str">
-        <f>IF(N2O_consq!C100="", "", N2O_consq!C100)</f>
+        <f>IF(N2O_ev391consq!C100="", "", N2O_ev391consq!C100)</f>
         <v/>
       </c>
       <c r="D100" s="143" t="str">
-        <f>IF(N2O_consq!D100="", "", N2O_consq!D100)</f>
+        <f>IF(N2O_ev391consq!D100="", "", N2O_ev391consq!D100)</f>
         <v/>
       </c>
       <c r="E100" s="143" t="str">
-        <f>IF(N2O_consq!E100="", "", N2O_consq!E100)</f>
+        <f>IF(N2O_ev391consq!E100="", "", N2O_ev391consq!E100)</f>
         <v/>
       </c>
       <c r="F100" s="145" t="str">
-        <f>IF(N2O_consq!F100="", "", N2O_consq!F100)</f>
+        <f>IF(N2O_ev391consq!F100="", "", N2O_ev391consq!F100)</f>
         <v/>
       </c>
       <c r="G100" s="143" t="str">
-        <f>IF(N2O_consq!G100="", "", N2O_consq!G100)</f>
+        <f>IF(N2O_ev391consq!G100="", "", N2O_ev391consq!G100)</f>
         <v/>
       </c>
       <c r="H100" s="143"/>
       <c r="I100" s="143" t="str">
-        <f>IF(N2O_consq!I100="", "", N2O_consq!I100)</f>
+        <f>IF(N2O_ev391consq!I100="", "", N2O_ev391consq!I100)</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="146" t="str">
-        <f>IF(N2O_consq!A101="", "", N2O_consq!A101)</f>
+        <f>IF(N2O_ev391consq!A101="", "", N2O_ev391consq!A101)</f>
         <v>location</v>
       </c>
       <c r="B101" s="147" t="str">
-        <f>IF(N2O_consq!B101="", "", N2O_consq!B101)</f>
+        <f>IF(N2O_ev391consq!B101="", "", N2O_ev391consq!B101)</f>
         <v>RER</v>
       </c>
       <c r="C101" s="143" t="str">
-        <f>IF(N2O_consq!C101="", "", N2O_consq!C101)</f>
+        <f>IF(N2O_ev391consq!C101="", "", N2O_ev391consq!C101)</f>
         <v/>
       </c>
       <c r="D101" s="143" t="str">
-        <f>IF(N2O_consq!D101="", "", N2O_consq!D101)</f>
+        <f>IF(N2O_ev391consq!D101="", "", N2O_ev391consq!D101)</f>
         <v/>
       </c>
       <c r="E101" s="143" t="str">
-        <f>IF(N2O_consq!E101="", "", N2O_consq!E101)</f>
+        <f>IF(N2O_ev391consq!E101="", "", N2O_ev391consq!E101)</f>
         <v/>
       </c>
       <c r="F101" s="145" t="str">
-        <f>IF(N2O_consq!F101="", "", N2O_consq!F101)</f>
+        <f>IF(N2O_ev391consq!F101="", "", N2O_ev391consq!F101)</f>
         <v/>
       </c>
       <c r="G101" s="143" t="str">
-        <f>IF(N2O_consq!G101="", "", N2O_consq!G101)</f>
+        <f>IF(N2O_ev391consq!G101="", "", N2O_ev391consq!G101)</f>
         <v/>
       </c>
       <c r="H101" s="143"/>
       <c r="I101" s="143" t="str">
-        <f>IF(N2O_consq!I101="", "", N2O_consq!I101)</f>
+        <f>IF(N2O_ev391consq!I101="", "", N2O_ev391consq!I101)</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="146" t="str">
-        <f>IF(N2O_consq!A102="", "", N2O_consq!A102)</f>
+        <f>IF(N2O_ev391consq!A102="", "", N2O_ev391consq!A102)</f>
         <v>unit</v>
       </c>
       <c r="B102" s="148" t="str">
-        <f>IF(N2O_consq!B102="", "", N2O_consq!B102)</f>
+        <f>IF(N2O_ev391consq!B102="", "", N2O_ev391consq!B102)</f>
         <v>unit</v>
       </c>
       <c r="C102" s="143" t="str">
-        <f>IF(N2O_consq!C102="", "", N2O_consq!C102)</f>
+        <f>IF(N2O_ev391consq!C102="", "", N2O_ev391consq!C102)</f>
         <v/>
       </c>
       <c r="D102" s="143" t="str">
-        <f>IF(N2O_consq!D102="", "", N2O_consq!D102)</f>
+        <f>IF(N2O_ev391consq!D102="", "", N2O_ev391consq!D102)</f>
         <v/>
       </c>
       <c r="E102" s="143" t="str">
-        <f>IF(N2O_consq!E102="", "", N2O_consq!E102)</f>
+        <f>IF(N2O_ev391consq!E102="", "", N2O_ev391consq!E102)</f>
         <v/>
       </c>
       <c r="F102" s="145" t="str">
-        <f>IF(N2O_consq!F102="", "", N2O_consq!F102)</f>
+        <f>IF(N2O_ev391consq!F102="", "", N2O_ev391consq!F102)</f>
         <v/>
       </c>
       <c r="G102" s="143" t="str">
-        <f>IF(N2O_consq!G102="", "", N2O_consq!G102)</f>
+        <f>IF(N2O_ev391consq!G102="", "", N2O_ev391consq!G102)</f>
         <v/>
       </c>
       <c r="H102" s="143"/>
       <c r="I102" s="143" t="str">
-        <f>IF(N2O_consq!I102="", "", N2O_consq!I102)</f>
+        <f>IF(N2O_ev391consq!I102="", "", N2O_ev391consq!I102)</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="149" t="str">
-        <f>IF(N2O_consq!A103="", "", N2O_consq!A103)</f>
+        <f>IF(N2O_ev391consq!A103="", "", N2O_ev391consq!A103)</f>
         <v>Exchanges</v>
       </c>
       <c r="B103" s="150" t="str">
-        <f>IF(N2O_consq!B103="", "", N2O_consq!B103)</f>
+        <f>IF(N2O_ev391consq!B103="", "", N2O_ev391consq!B103)</f>
         <v/>
       </c>
       <c r="C103" s="149" t="str">
-        <f>IF(N2O_consq!C103="", "", N2O_consq!C103)</f>
+        <f>IF(N2O_ev391consq!C103="", "", N2O_ev391consq!C103)</f>
         <v/>
       </c>
       <c r="D103" s="149" t="str">
-        <f>IF(N2O_consq!D103="", "", N2O_consq!D103)</f>
+        <f>IF(N2O_ev391consq!D103="", "", N2O_ev391consq!D103)</f>
         <v/>
       </c>
       <c r="E103" s="149" t="str">
-        <f>IF(N2O_consq!E103="", "", N2O_consq!E103)</f>
+        <f>IF(N2O_ev391consq!E103="", "", N2O_ev391consq!E103)</f>
         <v/>
       </c>
       <c r="F103" s="145" t="str">
-        <f>IF(N2O_consq!F103="", "", N2O_consq!F103)</f>
+        <f>IF(N2O_ev391consq!F103="", "", N2O_ev391consq!F103)</f>
         <v/>
       </c>
       <c r="G103" s="149" t="str">
-        <f>IF(N2O_consq!G103="", "", N2O_consq!G103)</f>
+        <f>IF(N2O_ev391consq!G103="", "", N2O_ev391consq!G103)</f>
         <v/>
       </c>
       <c r="H103" s="149"/>
       <c r="I103" s="149" t="str">
-        <f>IF(N2O_consq!I103="", "", N2O_consq!I103)</f>
+        <f>IF(N2O_ev391consq!I103="", "", N2O_ev391consq!I103)</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="149" t="str">
-        <f>IF(N2O_consq!A104="", "", N2O_consq!A104)</f>
+        <f>IF(N2O_ev391consq!A104="", "", N2O_ev391consq!A104)</f>
         <v>name</v>
       </c>
       <c r="B104" s="150" t="str">
-        <f>IF(N2O_consq!B104="", "", N2O_consq!B104)</f>
+        <f>IF(N2O_ev391consq!B104="", "", N2O_ev391consq!B104)</f>
         <v>amount</v>
       </c>
       <c r="C104" s="149" t="str">
-        <f>IF(N2O_consq!C104="", "", N2O_consq!C104)</f>
+        <f>IF(N2O_ev391consq!C104="", "", N2O_ev391consq!C104)</f>
         <v>reference product</v>
       </c>
       <c r="D104" s="149" t="str">
-        <f>IF(N2O_consq!D104="", "", N2O_consq!D104)</f>
+        <f>IF(N2O_ev391consq!D104="", "", N2O_ev391consq!D104)</f>
         <v>location</v>
       </c>
       <c r="E104" s="149" t="str">
-        <f>IF(N2O_consq!E104="", "", N2O_consq!E104)</f>
+        <f>IF(N2O_ev391consq!E104="", "", N2O_ev391consq!E104)</f>
         <v>unit</v>
       </c>
       <c r="F104" s="151" t="str">
-        <f>IF(N2O_consq!F104="", "", N2O_consq!F104)</f>
+        <f>IF(N2O_ev391consq!F104="", "", N2O_ev391consq!F104)</f>
         <v>categories</v>
       </c>
       <c r="G104" s="149" t="str">
-        <f>IF(N2O_consq!G104="", "", N2O_consq!G104)</f>
+        <f>IF(N2O_ev391consq!G104="", "", N2O_ev391consq!G104)</f>
         <v>type</v>
       </c>
       <c r="H104" s="149" t="str">
-        <f>IF(N2O_consq!H104="", "", N2O_consq!H104)</f>
+        <f>IF(N2O_ev391consq!H104="", "", N2O_ev391consq!H104)</f>
         <v>database</v>
       </c>
       <c r="I104" s="149" t="str">
-        <f>IF(N2O_consq!I104="", "", N2O_consq!I104)</f>
+        <f>IF(N2O_ev391consq!I104="", "", N2O_ev391consq!I104)</f>
         <v>comment</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="152" t="str">
-        <f>IF(N2O_consq!A105="", "", N2O_consq!A105)</f>
+        <f>IF(N2O_ev391consq!A105="", "", N2O_ev391consq!A105)</f>
         <v>cylinder maintenance</v>
       </c>
       <c r="B105" s="153">
-        <f>IF(N2O_consq!B105="", "", N2O_consq!B105)</f>
+        <f>IF(N2O_ev391consq!B105="", "", N2O_ev391consq!B105)</f>
         <v>1</v>
       </c>
       <c r="C105" s="152" t="str">
-        <f>IF(N2O_consq!C105="", "", N2O_consq!C105)</f>
+        <f>IF(N2O_ev391consq!C105="", "", N2O_ev391consq!C105)</f>
         <v>cylinder maintenance</v>
       </c>
       <c r="D105" s="152" t="str">
-        <f>IF(N2O_consq!D105="", "", N2O_consq!D105)</f>
+        <f>IF(N2O_ev391consq!D105="", "", N2O_ev391consq!D105)</f>
         <v>RER</v>
       </c>
       <c r="E105" s="152" t="str">
-        <f>IF(N2O_consq!E105="", "", N2O_consq!E105)</f>
+        <f>IF(N2O_ev391consq!E105="", "", N2O_ev391consq!E105)</f>
         <v>unit</v>
       </c>
       <c r="F105" s="145" t="str">
-        <f>IF(N2O_consq!F105="", "", N2O_consq!F105)</f>
+        <f>IF(N2O_ev391consq!F105="", "", N2O_ev391consq!F105)</f>
         <v/>
       </c>
       <c r="G105" s="145" t="str">
-        <f>IF(N2O_consq!G105="", "", N2O_consq!G105)</f>
+        <f>IF(N2O_ev391consq!G105="", "", N2O_ev391consq!G105)</f>
         <v>production</v>
       </c>
       <c r="H105" s="154" t="str">
-        <f>IF(N2O_consq!H105=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H105=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I105" s="154" t="str">
-        <f>IF(N2O_consq!I105="", "", N2O_consq!I105)</f>
+        <f>IF(N2O_ev391consq!I105="", "", N2O_ev391consq!I105)</f>
         <v>1 unit for a 50 L cylinder and 0.03087 for a 4 L cylinder</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="145" t="str">
-        <f>IF(N2O_consq!A106="", "", N2O_consq!A106)</f>
+        <f>IF(N2O_ev391consq!A106="", "", N2O_ev391consq!A106)</f>
         <v>market for alkyd paint, white, without solvent, in 60% solution state</v>
       </c>
       <c r="B106" s="153">
-        <f>IF(N2O_consq!B106="", "", N2O_consq!B106)</f>
+        <f>IF(N2O_ev391consq!B106="", "", N2O_ev391consq!B106)</f>
         <v>1.4026989999999999</v>
       </c>
       <c r="C106" s="145" t="str">
-        <f>IF(N2O_consq!C106="", "", N2O_consq!C106)</f>
+        <f>IF(N2O_ev391consq!C106="", "", N2O_ev391consq!C106)</f>
         <v>alkyd paint, white, without solvent, in 60% solution state</v>
       </c>
       <c r="D106" s="145" t="str">
-        <f>IF(N2O_consq!D106="", "", N2O_consq!D106)</f>
+        <f>IF(N2O_ev391consq!D106="", "", N2O_ev391consq!D106)</f>
         <v>RER</v>
       </c>
       <c r="E106" s="145" t="str">
-        <f>IF(N2O_consq!E106="", "", N2O_consq!E106)</f>
+        <f>IF(N2O_ev391consq!E106="", "", N2O_ev391consq!E106)</f>
         <v>kilogram</v>
       </c>
       <c r="F106" s="145" t="str">
-        <f>IF(N2O_consq!F106="", "", N2O_consq!F106)</f>
+        <f>IF(N2O_ev391consq!F106="", "", N2O_ev391consq!F106)</f>
         <v/>
       </c>
       <c r="G106" s="145" t="str">
-        <f>IF(N2O_consq!G106="", "", N2O_consq!G106)</f>
+        <f>IF(N2O_ev391consq!G106="", "", N2O_ev391consq!G106)</f>
         <v>technosphere</v>
       </c>
       <c r="H106" s="145" t="str">
-        <f>IF(N2O_consq!H106=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H106=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I106" s="145" t="str">
-        <f>IF(N2O_consq!I106="", "", N2O_consq!I106)</f>
+        <f>IF(N2O_ev391consq!I106="", "", N2O_ev391consq!I106)</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="145" t="str">
-        <f>IF(N2O_consq!A107="", "", N2O_consq!A107)</f>
+        <f>IF(N2O_ev391consq!A107="", "", N2O_ev391consq!A107)</f>
         <v>market for dichloromethane</v>
       </c>
       <c r="B107" s="153">
-        <f>IF(N2O_consq!B107="", "", N2O_consq!B107)</f>
+        <f>IF(N2O_ev391consq!B107="", "", N2O_ev391consq!B107)</f>
         <v>7.029693</v>
       </c>
       <c r="C107" s="145" t="str">
-        <f>IF(N2O_consq!C107="", "", N2O_consq!C107)</f>
+        <f>IF(N2O_ev391consq!C107="", "", N2O_ev391consq!C107)</f>
         <v>dichloromethane</v>
       </c>
       <c r="D107" s="145" t="str">
-        <f>IF(N2O_consq!D107="", "", N2O_consq!D107)</f>
+        <f>IF(N2O_ev391consq!D107="", "", N2O_ev391consq!D107)</f>
         <v>RER</v>
       </c>
       <c r="E107" s="145" t="str">
-        <f>IF(N2O_consq!E107="", "", N2O_consq!E107)</f>
+        <f>IF(N2O_ev391consq!E107="", "", N2O_ev391consq!E107)</f>
         <v>kilogram</v>
       </c>
       <c r="F107" s="145" t="str">
-        <f>IF(N2O_consq!F107="", "", N2O_consq!F107)</f>
+        <f>IF(N2O_ev391consq!F107="", "", N2O_ev391consq!F107)</f>
         <v/>
       </c>
       <c r="G107" s="145" t="str">
-        <f>IF(N2O_consq!G107="", "", N2O_consq!G107)</f>
+        <f>IF(N2O_ev391consq!G107="", "", N2O_ev391consq!G107)</f>
         <v>technosphere</v>
       </c>
       <c r="H107" s="145" t="str">
-        <f>IF(N2O_consq!H107=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H107=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I107" s="145" t="str">
-        <f>IF(N2O_consq!I107="", "", N2O_consq!I107)</f>
+        <f>IF(N2O_ev391consq!I107="", "", N2O_ev391consq!I107)</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="145" t="str">
-        <f>IF(N2O_consq!A108="", "", N2O_consq!A108)</f>
+        <f>IF(N2O_ev391consq!A108="", "", N2O_ev391consq!A108)</f>
         <v>market for waste paint</v>
       </c>
       <c r="B108" s="153">
-        <f>IF(N2O_consq!B108="", "", N2O_consq!B108)</f>
+        <f>IF(N2O_ev391consq!B108="", "", N2O_ev391consq!B108)</f>
         <v>-1.4027000000000001</v>
       </c>
       <c r="C108" s="145" t="str">
-        <f>IF(N2O_consq!C108="", "", N2O_consq!C108)</f>
+        <f>IF(N2O_ev391consq!C108="", "", N2O_ev391consq!C108)</f>
         <v>waste paint</v>
       </c>
       <c r="D108" s="145" t="str">
-        <f>IF(N2O_consq!D108="", "", N2O_consq!D108)</f>
+        <f>IF(N2O_ev391consq!D108="", "", N2O_ev391consq!D108)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E108" s="145" t="str">
-        <f>IF(N2O_consq!E108="", "", N2O_consq!E108)</f>
+        <f>IF(N2O_ev391consq!E108="", "", N2O_ev391consq!E108)</f>
         <v>kilogram</v>
       </c>
       <c r="F108" s="145" t="str">
-        <f>IF(N2O_consq!F108="", "", N2O_consq!F108)</f>
+        <f>IF(N2O_ev391consq!F108="", "", N2O_ev391consq!F108)</f>
         <v/>
       </c>
       <c r="G108" s="145" t="str">
-        <f>IF(N2O_consq!G108="", "", N2O_consq!G108)</f>
+        <f>IF(N2O_ev391consq!G108="", "", N2O_ev391consq!G108)</f>
         <v>technosphere</v>
       </c>
       <c r="H108" s="145" t="str">
-        <f>IF(N2O_consq!H108=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H108=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I108" s="145" t="str">
-        <f>IF(N2O_consq!I108="", "", N2O_consq!I108)</f>
+        <f>IF(N2O_ev391consq!I108="", "", N2O_ev391consq!I108)</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="145" t="str">
-        <f>IF(N2O_consq!A109="", "", N2O_consq!A109)</f>
+        <f>IF(N2O_ev391consq!A109="", "", N2O_ev391consq!A109)</f>
         <v>transport, freight, lorry 3.5-7.5 metric ton, EURO6</v>
       </c>
       <c r="B109" s="153">
-        <f>IF(N2O_consq!B109="", "", N2O_consq!B109)</f>
+        <f>IF(N2O_ev391consq!B109="", "", N2O_ev391consq!B109)</f>
         <v>2.2935590000000001</v>
       </c>
       <c r="C109" s="145" t="str">
-        <f>IF(N2O_consq!C109="", "", N2O_consq!C109)</f>
+        <f>IF(N2O_ev391consq!C109="", "", N2O_ev391consq!C109)</f>
         <v>transport, freight, lorry 3.5-7.5 metric ton, EURO6</v>
       </c>
       <c r="D109" s="145" t="str">
-        <f>IF(N2O_consq!D109="", "", N2O_consq!D109)</f>
+        <f>IF(N2O_ev391consq!D109="", "", N2O_ev391consq!D109)</f>
         <v>RER</v>
       </c>
       <c r="E109" s="145" t="str">
-        <f>IF(N2O_consq!E109="", "", N2O_consq!E109)</f>
+        <f>IF(N2O_ev391consq!E109="", "", N2O_ev391consq!E109)</f>
         <v>ton kilometer</v>
       </c>
       <c r="F109" s="145" t="str">
-        <f>IF(N2O_consq!F109="", "", N2O_consq!F109)</f>
+        <f>IF(N2O_ev391consq!F109="", "", N2O_ev391consq!F109)</f>
         <v/>
       </c>
       <c r="G109" s="145" t="str">
-        <f>IF(N2O_consq!G109="", "", N2O_consq!G109)</f>
+        <f>IF(N2O_ev391consq!G109="", "", N2O_ev391consq!G109)</f>
         <v>technosphere</v>
       </c>
       <c r="H109" s="145" t="str">
-        <f>IF(N2O_consq!H109=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H109=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I109" s="145" t="str">
-        <f>IF(N2O_consq!I109="", "", N2O_consq!I109)</f>
+        <f>IF(N2O_ev391consq!I109="", "", N2O_ev391consq!I109)</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="44" t="str">
-        <f>IF(N2O_consq!A110="", "", N2O_consq!A110)</f>
+        <f>IF(N2O_ev391consq!A110="", "", N2O_ev391consq!A110)</f>
         <v/>
       </c>
       <c r="B110" s="54" t="str">
-        <f>IF(N2O_consq!B110="", "", N2O_consq!B110)</f>
+        <f>IF(N2O_ev391consq!B110="", "", N2O_ev391consq!B110)</f>
         <v/>
       </c>
       <c r="C110" s="44" t="str">
-        <f>IF(N2O_consq!C110="", "", N2O_consq!C110)</f>
+        <f>IF(N2O_ev391consq!C110="", "", N2O_ev391consq!C110)</f>
         <v/>
       </c>
       <c r="D110" s="44" t="str">
-        <f>IF(N2O_consq!D110="", "", N2O_consq!D110)</f>
+        <f>IF(N2O_ev391consq!D110="", "", N2O_ev391consq!D110)</f>
         <v/>
       </c>
       <c r="E110" s="44" t="str">
-        <f>IF(N2O_consq!E110="", "", N2O_consq!E110)</f>
+        <f>IF(N2O_ev391consq!E110="", "", N2O_ev391consq!E110)</f>
         <v/>
       </c>
       <c r="F110" s="44" t="str">
-        <f>IF(N2O_consq!F110="", "", N2O_consq!F110)</f>
+        <f>IF(N2O_ev391consq!F110="", "", N2O_ev391consq!F110)</f>
         <v/>
       </c>
       <c r="G110" s="44" t="str">
-        <f>IF(N2O_consq!G110="", "", N2O_consq!G110)</f>
+        <f>IF(N2O_ev391consq!G110="", "", N2O_ev391consq!G110)</f>
         <v/>
       </c>
       <c r="H110" s="44"/>
       <c r="I110" s="44" t="str">
-        <f>IF(N2O_consq!I110="", "", N2O_consq!I110)</f>
+        <f>IF(N2O_ev391consq!I110="", "", N2O_ev391consq!I110)</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="155" t="str">
-        <f>IF(N2O_consq!A111="", "", N2O_consq!A111)</f>
+        <f>IF(N2O_ev391consq!A111="", "", N2O_ev391consq!A111)</f>
         <v>Activity</v>
       </c>
       <c r="B111" s="156" t="str">
-        <f>IF(N2O_consq!B111="", "", N2O_consq!B111)</f>
+        <f>IF(N2O_ev391consq!B111="", "", N2O_ev391consq!B111)</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="C111" s="157" t="str">
-        <f>IF(N2O_consq!C111="", "", N2O_consq!C111)</f>
+        <f>IF(N2O_ev391consq!C111="", "", N2O_ev391consq!C111)</f>
         <v/>
       </c>
       <c r="D111" s="158" t="str">
-        <f>IF(N2O_consq!D111="", "", N2O_consq!D111)</f>
+        <f>IF(N2O_ev391consq!D111="", "", N2O_ev391consq!D111)</f>
         <v/>
       </c>
       <c r="E111" s="157" t="str">
-        <f>IF(N2O_consq!E111="", "", N2O_consq!E111)</f>
+        <f>IF(N2O_ev391consq!E111="", "", N2O_ev391consq!E111)</f>
         <v/>
       </c>
       <c r="F111" s="159" t="str">
-        <f>IF(N2O_consq!F111="", "", N2O_consq!F111)</f>
+        <f>IF(N2O_ev391consq!F111="", "", N2O_ev391consq!F111)</f>
         <v/>
       </c>
       <c r="G111" s="157" t="str">
-        <f>IF(N2O_consq!G111="", "", N2O_consq!G111)</f>
+        <f>IF(N2O_ev391consq!G111="", "", N2O_ev391consq!G111)</f>
         <v/>
       </c>
       <c r="H111" s="157"/>
       <c r="I111" s="157" t="str">
-        <f>IF(N2O_consq!I111="", "", N2O_consq!I111)</f>
+        <f>IF(N2O_ev391consq!I111="", "", N2O_ev391consq!I111)</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="160" t="str">
-        <f>IF(N2O_consq!A112="", "", N2O_consq!A112)</f>
+        <f>IF(N2O_ev391consq!A112="", "", N2O_ev391consq!A112)</f>
         <v>production amount</v>
       </c>
       <c r="B112" s="161">
-        <f>IF(N2O_consq!B112="", "", N2O_consq!B112)</f>
+        <f>IF(N2O_ev391consq!B112="", "", N2O_ev391consq!B112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="157" t="str">
-        <f>IF(N2O_consq!C112="", "", N2O_consq!C112)</f>
+        <f>IF(N2O_ev391consq!C112="", "", N2O_ev391consq!C112)</f>
         <v/>
       </c>
       <c r="D112" s="157" t="str">
-        <f>IF(N2O_consq!D112="", "", N2O_consq!D112)</f>
+        <f>IF(N2O_ev391consq!D112="", "", N2O_ev391consq!D112)</f>
         <v/>
       </c>
       <c r="E112" s="157" t="str">
-        <f>IF(N2O_consq!E112="", "", N2O_consq!E112)</f>
+        <f>IF(N2O_ev391consq!E112="", "", N2O_ev391consq!E112)</f>
         <v/>
       </c>
       <c r="F112" s="159" t="str">
-        <f>IF(N2O_consq!F112="", "", N2O_consq!F112)</f>
+        <f>IF(N2O_ev391consq!F112="", "", N2O_ev391consq!F112)</f>
         <v/>
       </c>
       <c r="G112" s="157" t="str">
-        <f>IF(N2O_consq!G112="", "", N2O_consq!G112)</f>
+        <f>IF(N2O_ev391consq!G112="", "", N2O_ev391consq!G112)</f>
         <v/>
       </c>
       <c r="H112" s="157"/>
       <c r="I112" s="157" t="str">
-        <f>IF(N2O_consq!I112="", "", N2O_consq!I112)</f>
+        <f>IF(N2O_ev391consq!I112="", "", N2O_ev391consq!I112)</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="160" t="str">
-        <f>IF(N2O_consq!A113="", "", N2O_consq!A113)</f>
+        <f>IF(N2O_ev391consq!A113="", "", N2O_ev391consq!A113)</f>
         <v>reference product</v>
       </c>
       <c r="B113" s="159" t="str">
-        <f>IF(N2O_consq!B113="", "", N2O_consq!B113)</f>
+        <f>IF(N2O_ev391consq!B113="", "", N2O_ev391consq!B113)</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="C113" s="157" t="str">
-        <f>IF(N2O_consq!C113="", "", N2O_consq!C113)</f>
+        <f>IF(N2O_ev391consq!C113="", "", N2O_ev391consq!C113)</f>
         <v/>
       </c>
       <c r="D113" s="157" t="str">
-        <f>IF(N2O_consq!D113="", "", N2O_consq!D113)</f>
+        <f>IF(N2O_ev391consq!D113="", "", N2O_ev391consq!D113)</f>
         <v/>
       </c>
       <c r="E113" s="157" t="str">
-        <f>IF(N2O_consq!E113="", "", N2O_consq!E113)</f>
+        <f>IF(N2O_ev391consq!E113="", "", N2O_ev391consq!E113)</f>
         <v/>
       </c>
       <c r="F113" s="159" t="str">
-        <f>IF(N2O_consq!F113="", "", N2O_consq!F113)</f>
+        <f>IF(N2O_ev391consq!F113="", "", N2O_ev391consq!F113)</f>
         <v/>
       </c>
       <c r="G113" s="157" t="str">
-        <f>IF(N2O_consq!G113="", "", N2O_consq!G113)</f>
+        <f>IF(N2O_ev391consq!G113="", "", N2O_ev391consq!G113)</f>
         <v/>
       </c>
       <c r="H113" s="157"/>
       <c r="I113" s="157" t="str">
-        <f>IF(N2O_consq!I113="", "", N2O_consq!I113)</f>
+        <f>IF(N2O_ev391consq!I113="", "", N2O_ev391consq!I113)</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="160" t="str">
-        <f>IF(N2O_consq!A114="", "", N2O_consq!A114)</f>
+        <f>IF(N2O_ev391consq!A114="", "", N2O_ev391consq!A114)</f>
         <v>location</v>
       </c>
       <c r="B114" s="161" t="str">
-        <f>IF(N2O_consq!B114="", "", N2O_consq!B114)</f>
+        <f>IF(N2O_ev391consq!B114="", "", N2O_ev391consq!B114)</f>
         <v>RER</v>
       </c>
       <c r="C114" s="157" t="str">
-        <f>IF(N2O_consq!C114="", "", N2O_consq!C114)</f>
+        <f>IF(N2O_ev391consq!C114="", "", N2O_ev391consq!C114)</f>
         <v/>
       </c>
       <c r="D114" s="157" t="str">
-        <f>IF(N2O_consq!D114="", "", N2O_consq!D114)</f>
+        <f>IF(N2O_ev391consq!D114="", "", N2O_ev391consq!D114)</f>
         <v/>
       </c>
       <c r="E114" s="157" t="str">
-        <f>IF(N2O_consq!E114="", "", N2O_consq!E114)</f>
+        <f>IF(N2O_ev391consq!E114="", "", N2O_ev391consq!E114)</f>
         <v/>
       </c>
       <c r="F114" s="159" t="str">
-        <f>IF(N2O_consq!F114="", "", N2O_consq!F114)</f>
+        <f>IF(N2O_ev391consq!F114="", "", N2O_ev391consq!F114)</f>
         <v/>
       </c>
       <c r="G114" s="157" t="str">
-        <f>IF(N2O_consq!G114="", "", N2O_consq!G114)</f>
+        <f>IF(N2O_ev391consq!G114="", "", N2O_ev391consq!G114)</f>
         <v/>
       </c>
       <c r="H114" s="157"/>
       <c r="I114" s="157" t="str">
-        <f>IF(N2O_consq!I114="", "", N2O_consq!I114)</f>
+        <f>IF(N2O_ev391consq!I114="", "", N2O_ev391consq!I114)</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="160" t="str">
-        <f>IF(N2O_consq!A115="", "", N2O_consq!A115)</f>
+        <f>IF(N2O_ev391consq!A115="", "", N2O_ev391consq!A115)</f>
         <v>unit</v>
       </c>
       <c r="B115" s="162" t="str">
-        <f>IF(N2O_consq!B115="", "", N2O_consq!B115)</f>
+        <f>IF(N2O_ev391consq!B115="", "", N2O_ev391consq!B115)</f>
         <v>unit</v>
       </c>
       <c r="C115" s="157" t="str">
-        <f>IF(N2O_consq!C115="", "", N2O_consq!C115)</f>
+        <f>IF(N2O_ev391consq!C115="", "", N2O_ev391consq!C115)</f>
         <v/>
       </c>
       <c r="D115" s="157" t="str">
-        <f>IF(N2O_consq!D115="", "", N2O_consq!D115)</f>
+        <f>IF(N2O_ev391consq!D115="", "", N2O_ev391consq!D115)</f>
         <v/>
       </c>
       <c r="E115" s="157" t="str">
-        <f>IF(N2O_consq!E115="", "", N2O_consq!E115)</f>
+        <f>IF(N2O_ev391consq!E115="", "", N2O_ev391consq!E115)</f>
         <v/>
       </c>
       <c r="F115" s="159" t="str">
-        <f>IF(N2O_consq!F115="", "", N2O_consq!F115)</f>
+        <f>IF(N2O_ev391consq!F115="", "", N2O_ev391consq!F115)</f>
         <v/>
       </c>
       <c r="G115" s="157" t="str">
-        <f>IF(N2O_consq!G115="", "", N2O_consq!G115)</f>
+        <f>IF(N2O_ev391consq!G115="", "", N2O_ev391consq!G115)</f>
         <v/>
       </c>
       <c r="H115" s="157"/>
       <c r="I115" s="157" t="str">
-        <f>IF(N2O_consq!I115="", "", N2O_consq!I115)</f>
+        <f>IF(N2O_ev391consq!I115="", "", N2O_ev391consq!I115)</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="163" t="str">
-        <f>IF(N2O_consq!A116="", "", N2O_consq!A116)</f>
+        <f>IF(N2O_ev391consq!A116="", "", N2O_ev391consq!A116)</f>
         <v>Exchanges</v>
       </c>
       <c r="B116" s="164" t="str">
-        <f>IF(N2O_consq!B116="", "", N2O_consq!B116)</f>
+        <f>IF(N2O_ev391consq!B116="", "", N2O_ev391consq!B116)</f>
         <v/>
       </c>
       <c r="C116" s="163" t="str">
-        <f>IF(N2O_consq!C116="", "", N2O_consq!C116)</f>
+        <f>IF(N2O_ev391consq!C116="", "", N2O_ev391consq!C116)</f>
         <v/>
       </c>
       <c r="D116" s="163" t="str">
-        <f>IF(N2O_consq!D116="", "", N2O_consq!D116)</f>
+        <f>IF(N2O_ev391consq!D116="", "", N2O_ev391consq!D116)</f>
         <v/>
       </c>
       <c r="E116" s="163" t="str">
-        <f>IF(N2O_consq!E116="", "", N2O_consq!E116)</f>
+        <f>IF(N2O_ev391consq!E116="", "", N2O_ev391consq!E116)</f>
         <v/>
       </c>
       <c r="F116" s="159" t="str">
-        <f>IF(N2O_consq!F116="", "", N2O_consq!F116)</f>
+        <f>IF(N2O_ev391consq!F116="", "", N2O_ev391consq!F116)</f>
         <v/>
       </c>
       <c r="G116" s="163" t="str">
-        <f>IF(N2O_consq!G116="", "", N2O_consq!G116)</f>
+        <f>IF(N2O_ev391consq!G116="", "", N2O_ev391consq!G116)</f>
         <v/>
       </c>
       <c r="H116" s="163"/>
       <c r="I116" s="163" t="str">
-        <f>IF(N2O_consq!I116="", "", N2O_consq!I116)</f>
+        <f>IF(N2O_ev391consq!I116="", "", N2O_ev391consq!I116)</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="163" t="str">
-        <f>IF(N2O_consq!A117="", "", N2O_consq!A117)</f>
+        <f>IF(N2O_ev391consq!A117="", "", N2O_ev391consq!A117)</f>
         <v>name</v>
       </c>
       <c r="B117" s="164" t="str">
-        <f>IF(N2O_consq!B117="", "", N2O_consq!B117)</f>
+        <f>IF(N2O_ev391consq!B117="", "", N2O_ev391consq!B117)</f>
         <v>amount</v>
       </c>
       <c r="C117" s="163" t="str">
-        <f>IF(N2O_consq!C117="", "", N2O_consq!C117)</f>
+        <f>IF(N2O_ev391consq!C117="", "", N2O_ev391consq!C117)</f>
         <v>reference product</v>
       </c>
       <c r="D117" s="163" t="str">
-        <f>IF(N2O_consq!D117="", "", N2O_consq!D117)</f>
+        <f>IF(N2O_ev391consq!D117="", "", N2O_ev391consq!D117)</f>
         <v>location</v>
       </c>
       <c r="E117" s="163" t="str">
-        <f>IF(N2O_consq!E117="", "", N2O_consq!E117)</f>
+        <f>IF(N2O_ev391consq!E117="", "", N2O_ev391consq!E117)</f>
         <v>unit</v>
       </c>
       <c r="F117" s="165" t="str">
-        <f>IF(N2O_consq!F117="", "", N2O_consq!F117)</f>
+        <f>IF(N2O_ev391consq!F117="", "", N2O_ev391consq!F117)</f>
         <v>categories</v>
       </c>
       <c r="G117" s="163" t="str">
-        <f>IF(N2O_consq!G117="", "", N2O_consq!G117)</f>
+        <f>IF(N2O_ev391consq!G117="", "", N2O_ev391consq!G117)</f>
         <v>type</v>
       </c>
       <c r="H117" s="163" t="str">
-        <f>IF(N2O_consq!H117="", "", N2O_consq!H117)</f>
+        <f>IF(N2O_ev391consq!H117="", "", N2O_ev391consq!H117)</f>
         <v>database</v>
       </c>
       <c r="I117" s="163" t="str">
-        <f>IF(N2O_consq!I117="", "", N2O_consq!I117)</f>
+        <f>IF(N2O_ev391consq!I117="", "", N2O_ev391consq!I117)</f>
         <v>comment</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="166" t="str">
-        <f>IF(N2O_consq!A118="", "", N2O_consq!A118)</f>
+        <f>IF(N2O_ev391consq!A118="", "", N2O_ev391consq!A118)</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="B118" s="167">
-        <f>IF(N2O_consq!B118="", "", N2O_consq!B118)</f>
+        <f>IF(N2O_ev391consq!B118="", "", N2O_ev391consq!B118)</f>
         <v>1</v>
       </c>
       <c r="C118" s="166" t="str">
-        <f>IF(N2O_consq!C118="", "", N2O_consq!C118)</f>
+        <f>IF(N2O_ev391consq!C118="", "", N2O_ev391consq!C118)</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="D118" s="166" t="str">
-        <f>IF(N2O_consq!D118="", "", N2O_consq!D118)</f>
+        <f>IF(N2O_ev391consq!D118="", "", N2O_ev391consq!D118)</f>
         <v>RER</v>
       </c>
       <c r="E118" s="166" t="str">
-        <f>IF(N2O_consq!E118="", "", N2O_consq!E118)</f>
+        <f>IF(N2O_ev391consq!E118="", "", N2O_ev391consq!E118)</f>
         <v>unit</v>
       </c>
       <c r="F118" s="159" t="str">
-        <f>IF(N2O_consq!F118="", "", N2O_consq!F118)</f>
+        <f>IF(N2O_ev391consq!F118="", "", N2O_ev391consq!F118)</f>
         <v/>
       </c>
       <c r="G118" s="159" t="str">
-        <f>IF(N2O_consq!G118="", "", N2O_consq!G118)</f>
+        <f>IF(N2O_ev391consq!G118="", "", N2O_ev391consq!G118)</f>
         <v>production</v>
       </c>
       <c r="H118" s="168" t="str">
-        <f>IF(N2O_consq!H118=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
-        <v>N2O_cut_off</v>
+        <f>IF(N2O_ev391consq!H118=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
+        <v>N2O_ev391cut_off</v>
       </c>
       <c r="I118" s="168" t="str">
-        <f>IF(N2O_consq!I118="", "", N2O_consq!I118)</f>
+        <f>IF(N2O_ev391consq!I118="", "", N2O_ev391consq!I118)</f>
         <v>1 unit for a 50 L cylinder and 0.03087 for a 4 L cylinder</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="159" t="str">
-        <f>IF(N2O_consq!A119="", "", N2O_consq!A119)</f>
+        <f>IF(N2O_ev391consq!A119="", "", N2O_ev391consq!A119)</f>
         <v>market for wastewater, average</v>
       </c>
       <c r="B119" s="159">
-        <f>IF(N2O_consq!B119="", "", N2O_consq!B119)</f>
+        <f>IF(N2O_ev391consq!B119="", "", N2O_ev391consq!B119)</f>
         <v>-3.4338593999999998</v>
       </c>
       <c r="C119" s="159" t="str">
-        <f>IF(N2O_consq!C119="", "", N2O_consq!C119)</f>
+        <f>IF(N2O_ev391consq!C119="", "", N2O_ev391consq!C119)</f>
         <v>wastewater, average</v>
       </c>
       <c r="D119" s="159" t="str">
-        <f>IF(N2O_consq!D119="", "", N2O_consq!D119)</f>
+        <f>IF(N2O_ev391consq!D119="", "", N2O_ev391consq!D119)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E119" s="159" t="str">
-        <f>IF(N2O_consq!E119="", "", N2O_consq!E119)</f>
+        <f>IF(N2O_ev391consq!E119="", "", N2O_ev391consq!E119)</f>
         <v>cubic meter</v>
       </c>
       <c r="F119" s="159" t="str">
-        <f>IF(N2O_consq!F119="", "", N2O_consq!F119)</f>
+        <f>IF(N2O_ev391consq!F119="", "", N2O_ev391consq!F119)</f>
         <v/>
       </c>
       <c r="G119" s="159" t="str">
-        <f>IF(N2O_consq!G119="", "", N2O_consq!G119)</f>
+        <f>IF(N2O_ev391consq!G119="", "", N2O_ev391consq!G119)</f>
         <v>technosphere</v>
       </c>
       <c r="H119" s="159" t="str">
-        <f>IF(N2O_consq!H119=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H119=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I119" s="159" t="str">
-        <f>IF(N2O_consq!I119="", "", N2O_consq!I119)</f>
+        <f>IF(N2O_ev391consq!I119="", "", N2O_ev391consq!I119)</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="159" t="str">
-        <f>IF(N2O_consq!A120="", "", N2O_consq!A120)</f>
+        <f>IF(N2O_ev391consq!A120="", "", N2O_ev391consq!A120)</f>
         <v>market for water, completely softened</v>
       </c>
       <c r="B120" s="159">
-        <f>IF(N2O_consq!B120="", "", N2O_consq!B120)</f>
+        <f>IF(N2O_ev391consq!B120="", "", N2O_ev391consq!B120)</f>
         <v>3433.8593999999998</v>
       </c>
       <c r="C120" s="159" t="str">
-        <f>IF(N2O_consq!C120="", "", N2O_consq!C120)</f>
+        <f>IF(N2O_ev391consq!C120="", "", N2O_ev391consq!C120)</f>
         <v>water, completely softened</v>
       </c>
       <c r="D120" s="159" t="str">
-        <f>IF(N2O_consq!D120="", "", N2O_consq!D120)</f>
+        <f>IF(N2O_ev391consq!D120="", "", N2O_ev391consq!D120)</f>
         <v>RER</v>
       </c>
       <c r="E120" s="159" t="str">
-        <f>IF(N2O_consq!E120="", "", N2O_consq!E120)</f>
+        <f>IF(N2O_ev391consq!E120="", "", N2O_ev391consq!E120)</f>
         <v>kilogram</v>
       </c>
       <c r="F120" s="159" t="str">
-        <f>IF(N2O_consq!F120="", "", N2O_consq!F120)</f>
+        <f>IF(N2O_ev391consq!F120="", "", N2O_ev391consq!F120)</f>
         <v/>
       </c>
       <c r="G120" s="159" t="str">
-        <f>IF(N2O_consq!G120="", "", N2O_consq!G120)</f>
+        <f>IF(N2O_ev391consq!G120="", "", N2O_ev391consq!G120)</f>
         <v>technosphere</v>
       </c>
       <c r="H120" s="159" t="str">
-        <f>IF(N2O_consq!H120=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H120=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I120" s="159" t="str">
-        <f>IF(N2O_consq!I120="", "", N2O_consq!I120)</f>
+        <f>IF(N2O_ev391consq!I120="", "", N2O_ev391consq!I120)</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="159" t="str">
-        <f>IF(N2O_consq!A121="", "", N2O_consq!A121)</f>
+        <f>IF(N2O_ev391consq!A121="", "", N2O_ev391consq!A121)</f>
         <v>market group for electricity, low voltage</v>
       </c>
       <c r="B121" s="159">
-        <f>IF(N2O_consq!B121="", "", N2O_consq!B121)</f>
+        <f>IF(N2O_ev391consq!B121="", "", N2O_ev391consq!B121)</f>
         <v>176.22825599999999</v>
       </c>
       <c r="C121" s="159" t="str">
-        <f>IF(N2O_consq!C121="", "", N2O_consq!C121)</f>
+        <f>IF(N2O_ev391consq!C121="", "", N2O_ev391consq!C121)</f>
         <v>electricity, low voltage</v>
       </c>
       <c r="D121" s="159" t="str">
-        <f>IF(N2O_consq!D121="", "", N2O_consq!D121)</f>
+        <f>IF(N2O_ev391consq!D121="", "", N2O_ev391consq!D121)</f>
         <v>Europe without Switzerland</v>
       </c>
       <c r="E121" s="159" t="str">
-        <f>IF(N2O_consq!E121="", "", N2O_consq!E121)</f>
+        <f>IF(N2O_ev391consq!E121="", "", N2O_ev391consq!E121)</f>
         <v>kilowatt hour</v>
       </c>
       <c r="F121" s="159" t="str">
-        <f>IF(N2O_consq!F121="", "", N2O_consq!F121)</f>
+        <f>IF(N2O_ev391consq!F121="", "", N2O_ev391consq!F121)</f>
         <v/>
       </c>
       <c r="G121" s="159" t="str">
-        <f>IF(N2O_consq!G121="", "", N2O_consq!G121)</f>
+        <f>IF(N2O_ev391consq!G121="", "", N2O_ev391consq!G121)</f>
         <v>technosphere</v>
       </c>
       <c r="H121" s="159" t="str">
-        <f>IF(N2O_consq!H121=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H121=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I121" s="159" t="str">
-        <f>IF(N2O_consq!I121="", "", N2O_consq!I121)</f>
+        <f>IF(N2O_ev391consq!I121="", "", N2O_ev391consq!I121)</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="159" t="str">
-        <f>IF(N2O_consq!A122="", "", N2O_consq!A122)</f>
+        <f>IF(N2O_ev391consq!A122="", "", N2O_ev391consq!A122)</f>
         <v>transport, freight, lorry 3.5-7.5 metric ton, EURO6</v>
       </c>
       <c r="B122" s="159">
-        <f>IF(N2O_consq!B122="", "", N2O_consq!B122)</f>
+        <f>IF(N2O_ev391consq!B122="", "", N2O_ev391consq!B122)</f>
         <v>2.2935589200000002</v>
       </c>
       <c r="C122" s="159" t="str">
-        <f>IF(N2O_consq!C122="", "", N2O_consq!C122)</f>
+        <f>IF(N2O_ev391consq!C122="", "", N2O_ev391consq!C122)</f>
         <v>transport, freight, lorry 3.5-7.5 metric ton, EURO6</v>
       </c>
       <c r="D122" s="159" t="str">
-        <f>IF(N2O_consq!D122="", "", N2O_consq!D122)</f>
+        <f>IF(N2O_ev391consq!D122="", "", N2O_ev391consq!D122)</f>
         <v>RER</v>
       </c>
       <c r="E122" s="159" t="str">
-        <f>IF(N2O_consq!E122="", "", N2O_consq!E122)</f>
+        <f>IF(N2O_ev391consq!E122="", "", N2O_ev391consq!E122)</f>
         <v>ton kilometer</v>
       </c>
       <c r="F122" s="159" t="str">
-        <f>IF(N2O_consq!F122="", "", N2O_consq!F122)</f>
+        <f>IF(N2O_ev391consq!F122="", "", N2O_ev391consq!F122)</f>
         <v/>
       </c>
       <c r="G122" s="159" t="str">
-        <f>IF(N2O_consq!G122="", "", N2O_consq!G122)</f>
+        <f>IF(N2O_ev391consq!G122="", "", N2O_ev391consq!G122)</f>
         <v>technosphere</v>
       </c>
       <c r="H122" s="159" t="str">
-        <f>IF(N2O_consq!H122=N2O_consq!$B$1,N2O_cut_off!$B$1,"ev391cutoff")</f>
+        <f>IF(N2O_ev391consq!H122=N2O_ev391consq!$B$1,N2O_ev391cut_off!$B$1,"ev391cutoff")</f>
         <v>ev391cutoff</v>
       </c>
       <c r="I122" s="159" t="str">
-        <f>IF(N2O_consq!I122="", "", N2O_consq!I122)</f>
+        <f>IF(N2O_ev391consq!I122="", "", N2O_ev391consq!I122)</f>
         <v/>
       </c>
     </row>
@@ -7878,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
@@ -7908,7 +7908,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -8016,29 +8016,29 @@
         <v>14</v>
       </c>
       <c r="H9" s="31" t="str">
-        <f>N2O_consq!$B$1</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!$B$1</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="47" t="str">
-        <f>N2O_consq!A26</f>
+        <f>N2O_ev391consq!A26</f>
         <v>production of 4L aluminium cylinder</v>
       </c>
       <c r="B10" s="48">
         <v>1</v>
       </c>
       <c r="C10" s="47" t="str">
-        <f>N2O_consq!C26</f>
+        <f>N2O_ev391consq!C26</f>
         <v>4L cylinder</v>
       </c>
       <c r="D10" s="47" t="str">
-        <f>N2O_consq!D26</f>
+        <f>N2O_ev391consq!D26</f>
         <v>RER</v>
       </c>
       <c r="E10" s="47" t="str">
-        <f>N2O_consq!E26</f>
+        <f>N2O_ev391consq!E26</f>
         <v>unit</v>
       </c>
       <c r="F10" s="24"/>
@@ -8046,29 +8046,29 @@
         <v>15</v>
       </c>
       <c r="H10" s="47" t="str">
-        <f>N2O_consq!H26</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H26</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="47" t="str">
-        <f>N2O_consq!A78</f>
+        <f>N2O_ev391consq!A78</f>
         <v>Compresser opration</v>
       </c>
       <c r="B11" s="48">
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C11" s="47" t="str">
-        <f>N2O_consq!C78</f>
+        <f>N2O_ev391consq!C78</f>
         <v>Compresser opration</v>
       </c>
       <c r="D11" s="47" t="str">
-        <f>N2O_consq!D78</f>
+        <f>N2O_ev391consq!D78</f>
         <v>RER</v>
       </c>
       <c r="E11" s="47" t="str">
-        <f>N2O_consq!E78</f>
+        <f>N2O_ev391consq!E78</f>
         <v>unit</v>
       </c>
       <c r="F11" s="24"/>
@@ -8076,29 +8076,29 @@
         <v>15</v>
       </c>
       <c r="H11" s="47" t="str">
-        <f>N2O_consq!H78</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H78</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="47" t="str">
-        <f>N2O_consq!A118</f>
+        <f>N2O_ev391consq!A118</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="B12" s="48">
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C12" s="47" t="str">
-        <f>N2O_consq!C118</f>
+        <f>N2O_ev391consq!C118</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="D12" s="47" t="str">
-        <f>N2O_consq!D118</f>
+        <f>N2O_ev391consq!D118</f>
         <v>RER</v>
       </c>
       <c r="E12" s="47" t="str">
-        <f>N2O_consq!E118</f>
+        <f>N2O_ev391consq!E118</f>
         <v>unit</v>
       </c>
       <c r="F12" s="24"/>
@@ -8106,58 +8106,58 @@
         <v>15</v>
       </c>
       <c r="H12" s="47" t="str">
-        <f>N2O_consq!H118</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H118</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="48">
         <v>0.36487882999999999</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="48">
         <v>3.6750595757600002</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" s="24"/>
     </row>
@@ -8177,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35"/>
@@ -8316,29 +8316,29 @@
         <v>14</v>
       </c>
       <c r="H23" s="43" t="str">
-        <f>N2O_consq!$B$1</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!$B$1</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="51" t="str">
-        <f>N2O_consq!A78</f>
+        <f>N2O_ev391consq!A78</f>
         <v>Compresser opration</v>
       </c>
       <c r="B24" s="36">
         <v>1</v>
       </c>
       <c r="C24" s="51" t="str">
-        <f>N2O_consq!C78</f>
+        <f>N2O_ev391consq!C78</f>
         <v>Compresser opration</v>
       </c>
       <c r="D24" s="51" t="str">
-        <f>N2O_consq!D78</f>
+        <f>N2O_ev391consq!D78</f>
         <v>RER</v>
       </c>
       <c r="E24" s="51" t="str">
-        <f>N2O_consq!E78</f>
+        <f>N2O_ev391consq!E78</f>
         <v>unit</v>
       </c>
       <c r="F24" s="36"/>
@@ -8346,29 +8346,29 @@
         <v>15</v>
       </c>
       <c r="H24" s="51" t="str">
-        <f>N2O_consq!H78</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H78</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="51" t="str">
-        <f>N2O_consq!A118</f>
+        <f>N2O_ev391consq!A118</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="B25" s="36">
         <v>1</v>
       </c>
       <c r="C25" s="51" t="str">
-        <f>N2O_consq!C118</f>
+        <f>N2O_ev391consq!C118</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="D25" s="51" t="str">
-        <f>N2O_consq!D118</f>
+        <f>N2O_ev391consq!D118</f>
         <v>RER</v>
       </c>
       <c r="E25" s="51" t="str">
-        <f>N2O_consq!E118</f>
+        <f>N2O_ev391consq!E118</f>
         <v>unit</v>
       </c>
       <c r="F25" s="36"/>
@@ -8376,29 +8376,29 @@
         <v>15</v>
       </c>
       <c r="H25" s="51" t="str">
-        <f>N2O_consq!H118</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H118</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="51" t="str">
-        <f>N2O_consq!A59</f>
+        <f>N2O_ev391consq!A59</f>
         <v>production of 50L aluminium cylinder</v>
       </c>
       <c r="B26" s="36">
         <v>1</v>
       </c>
       <c r="C26" s="51" t="str">
-        <f>N2O_consq!C59</f>
+        <f>N2O_ev391consq!C59</f>
         <v>50L cylinder</v>
       </c>
       <c r="D26" s="51" t="str">
-        <f>N2O_consq!D59</f>
+        <f>N2O_ev391consq!D59</f>
         <v>RER</v>
       </c>
       <c r="E26" s="51" t="str">
-        <f>N2O_consq!E59</f>
+        <f>N2O_ev391consq!E59</f>
         <v>unit</v>
       </c>
       <c r="F26" s="36"/>
@@ -8406,58 +8406,58 @@
         <v>15</v>
       </c>
       <c r="H26" s="51" t="str">
-        <f>N2O_consq!H59</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H59</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="53">
         <v>13.106248750000001</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="53">
         <v>132.00613741000001</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I28" s="36"/>
     </row>
@@ -8477,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -8507,7 +8507,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -8615,29 +8615,29 @@
         <v>14</v>
       </c>
       <c r="H37" s="16" t="str">
-        <f>N2O_consq!$B$1</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!$B$1</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="45" t="str">
-        <f>N2O_consq!A26</f>
+        <f>N2O_ev391consq!A26</f>
         <v>production of 4L aluminium cylinder</v>
       </c>
       <c r="B38" s="46">
         <v>1</v>
       </c>
       <c r="C38" s="45" t="str">
-        <f>N2O_consq!C26</f>
+        <f>N2O_ev391consq!C26</f>
         <v>4L cylinder</v>
       </c>
       <c r="D38" s="45" t="str">
-        <f>N2O_consq!D26</f>
+        <f>N2O_ev391consq!D26</f>
         <v>RER</v>
       </c>
       <c r="E38" s="45" t="str">
-        <f>N2O_consq!E26</f>
+        <f>N2O_ev391consq!E26</f>
         <v>unit</v>
       </c>
       <c r="F38" s="9"/>
@@ -8645,29 +8645,29 @@
         <v>15</v>
       </c>
       <c r="H38" s="45" t="str">
-        <f>N2O_consq!H26</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H26</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="45" t="str">
-        <f>N2O_consq!A78</f>
+        <f>N2O_ev391consq!A78</f>
         <v>Compresser opration</v>
       </c>
       <c r="B39" s="46">
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C39" s="45" t="str">
-        <f>N2O_consq!C78</f>
+        <f>N2O_ev391consq!C78</f>
         <v>Compresser opration</v>
       </c>
       <c r="D39" s="45" t="str">
-        <f>N2O_consq!D78</f>
+        <f>N2O_ev391consq!D78</f>
         <v>RER</v>
       </c>
       <c r="E39" s="45" t="str">
-        <f>N2O_consq!E78</f>
+        <f>N2O_ev391consq!E78</f>
         <v>unit</v>
       </c>
       <c r="F39" s="9"/>
@@ -8675,29 +8675,29 @@
         <v>15</v>
       </c>
       <c r="H39" s="45" t="str">
-        <f>N2O_consq!H78</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H78</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="45" t="str">
-        <f>N2O_consq!A91</f>
+        <f>N2O_ev391consq!A91</f>
         <v>gas cylinder cleaning</v>
       </c>
       <c r="B40" s="46">
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C40" s="45" t="str">
-        <f>N2O_consq!C91</f>
+        <f>N2O_ev391consq!C91</f>
         <v>gas cylinder cleaning</v>
       </c>
       <c r="D40" s="45" t="str">
-        <f>N2O_consq!D91</f>
+        <f>N2O_ev391consq!D91</f>
         <v>RER</v>
       </c>
       <c r="E40" s="45" t="str">
-        <f>N2O_consq!E91</f>
+        <f>N2O_ev391consq!E91</f>
         <v>unit</v>
       </c>
       <c r="F40" s="9"/>
@@ -8705,29 +8705,29 @@
         <v>15</v>
       </c>
       <c r="H40" s="45" t="str">
-        <f>N2O_consq!H91</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H91</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="45" t="str">
-        <f>N2O_consq!A118</f>
+        <f>N2O_ev391consq!A118</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="B41" s="46">
         <v>3.0870000000000002E-2</v>
       </c>
       <c r="C41" s="45" t="str">
-        <f>N2O_consq!C118</f>
+        <f>N2O_ev391consq!C118</f>
         <v>Hydrastic testing</v>
       </c>
       <c r="D41" s="45" t="str">
-        <f>N2O_consq!D118</f>
+        <f>N2O_ev391consq!D118</f>
         <v>RER</v>
       </c>
       <c r="E41" s="45" t="str">
-        <f>N2O_consq!E118</f>
+        <f>N2O_ev391consq!E118</f>
         <v>unit</v>
       </c>
       <c r="F41" s="9"/>
@@ -8735,21 +8735,21 @@
         <v>15</v>
       </c>
       <c r="H41" s="45" t="str">
-        <f>N2O_consq!H118</f>
-        <v>N2O_consq</v>
+        <f>N2O_ev391consq!H118</f>
+        <v>N2O_ev391consq</v>
       </c>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" s="46">
         <f>0.84*(1-0.579034613411217)</f>
         <v>0.35361092473457773</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>16</v>
@@ -8762,22 +8762,22 @@
         <v>15</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43" s="46">
         <f>0.84*0.579034613411217</f>
         <v>0.48638907526542224</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>16</v>
@@ -8790,21 +8790,21 @@
         <v>15</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" s="46">
         <v>0.36487882999999999</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>16</v>
@@ -8817,19 +8817,19 @@
         <v>15</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" s="46">
         <v>3.6750595757600002</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>16</v>
@@ -8842,7 +8842,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I45" s="17"/>
     </row>
@@ -8852,21 +8852,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>